--- a/data/nzd0246/nzd0246.xlsx
+++ b/data/nzd0246/nzd0246.xlsx
@@ -428,7 +428,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:Q306"/>
+  <dimension ref="A1:Q309"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -16018,6 +16018,177 @@
         </is>
       </c>
     </row>
+    <row r="307">
+      <c r="A307" s="1" t="inlineStr">
+        <is>
+          <t>2025-01-06 22:06:06+00:00</t>
+        </is>
+      </c>
+      <c r="B307" t="n">
+        <v>331.41</v>
+      </c>
+      <c r="C307" t="n">
+        <v>342.015</v>
+      </c>
+      <c r="D307" t="n">
+        <v>370.19</v>
+      </c>
+      <c r="E307" t="n">
+        <v>366.655</v>
+      </c>
+      <c r="F307" t="n">
+        <v>362.56</v>
+      </c>
+      <c r="G307" t="n">
+        <v>358.7942857142857</v>
+      </c>
+      <c r="H307" t="n">
+        <v>379.5333333333333</v>
+      </c>
+      <c r="I307" t="n">
+        <v>371.25</v>
+      </c>
+      <c r="J307" t="n">
+        <v>366.4742857142857</v>
+      </c>
+      <c r="K307" t="n">
+        <v>350.61</v>
+      </c>
+      <c r="L307" t="n">
+        <v>351.6123076923077</v>
+      </c>
+      <c r="M307" t="n">
+        <v>355.41</v>
+      </c>
+      <c r="N307" t="n">
+        <v>361.7223076923077</v>
+      </c>
+      <c r="O307" t="n">
+        <v>359.0942857142857</v>
+      </c>
+      <c r="P307" t="n">
+        <v>389.6042857142857</v>
+      </c>
+      <c r="Q307" t="inlineStr">
+        <is>
+          <t>L8</t>
+        </is>
+      </c>
+    </row>
+    <row r="308">
+      <c r="A308" s="1" t="inlineStr">
+        <is>
+          <t>2025-01-14 22:06:13+00:00</t>
+        </is>
+      </c>
+      <c r="B308" t="n">
+        <v>332.12</v>
+      </c>
+      <c r="C308" t="n">
+        <v>354.085</v>
+      </c>
+      <c r="D308" t="n">
+        <v>374.6166666666667</v>
+      </c>
+      <c r="E308" t="n">
+        <v>370.225</v>
+      </c>
+      <c r="F308" t="n">
+        <v>366.1666666666667</v>
+      </c>
+      <c r="G308" t="n">
+        <v>363.8485714285715</v>
+      </c>
+      <c r="H308" t="n">
+        <v>374.1077777777778</v>
+      </c>
+      <c r="I308" t="n">
+        <v>370.9733333333333</v>
+      </c>
+      <c r="J308" t="n">
+        <v>364.4585714285714</v>
+      </c>
+      <c r="K308" t="n">
+        <v>360.6066666666667</v>
+      </c>
+      <c r="L308" t="n">
+        <v>364.07</v>
+      </c>
+      <c r="M308" t="n">
+        <v>369.3566666666667</v>
+      </c>
+      <c r="N308" t="n">
+        <v>377.08</v>
+      </c>
+      <c r="O308" t="n">
+        <v>370.0685714285714</v>
+      </c>
+      <c r="P308" t="n">
+        <v>414.6285714285714</v>
+      </c>
+      <c r="Q308" t="inlineStr">
+        <is>
+          <t>L9</t>
+        </is>
+      </c>
+    </row>
+    <row r="309">
+      <c r="A309" s="1" t="inlineStr">
+        <is>
+          <t>2025-02-07 22:06:29+00:00</t>
+        </is>
+      </c>
+      <c r="B309" t="n">
+        <v>333.58</v>
+      </c>
+      <c r="C309" t="n">
+        <v>342.355</v>
+      </c>
+      <c r="D309" t="n">
+        <v>369.48</v>
+      </c>
+      <c r="E309" t="n">
+        <v>365.415</v>
+      </c>
+      <c r="F309" t="n">
+        <v>366.37</v>
+      </c>
+      <c r="G309" t="n">
+        <v>362.5285714285715</v>
+      </c>
+      <c r="H309" t="n">
+        <v>370.4633333333333</v>
+      </c>
+      <c r="I309" t="n">
+        <v>370.99</v>
+      </c>
+      <c r="J309" t="n">
+        <v>367.2885714285715</v>
+      </c>
+      <c r="K309" t="n">
+        <v>362.12</v>
+      </c>
+      <c r="L309" t="n">
+        <v>360.34</v>
+      </c>
+      <c r="M309" t="n">
+        <v>373.97</v>
+      </c>
+      <c r="N309" t="n">
+        <v>380.72</v>
+      </c>
+      <c r="O309" t="n">
+        <v>379.4785714285715</v>
+      </c>
+      <c r="P309" t="n">
+        <v>387.6885714285714</v>
+      </c>
+      <c r="Q309" t="inlineStr">
+        <is>
+          <t>L8</t>
+        </is>
+      </c>
+    </row>
   </sheetData>
   <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
 </worksheet>
@@ -16029,7 +16200,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:B314"/>
+  <dimension ref="A1:B317"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -19177,6 +19348,36 @@
       </c>
       <c r="B314" t="n">
         <v>0.04</v>
+      </c>
+    </row>
+    <row r="315">
+      <c r="A315" t="inlineStr">
+        <is>
+          <t>2025-01-06 22:10:00+00:00</t>
+        </is>
+      </c>
+      <c r="B315" t="n">
+        <v>-0.93</v>
+      </c>
+    </row>
+    <row r="316">
+      <c r="A316" t="inlineStr">
+        <is>
+          <t>2025-01-14 22:10:00+00:00</t>
+        </is>
+      </c>
+      <c r="B316" t="n">
+        <v>1.43</v>
+      </c>
+    </row>
+    <row r="317">
+      <c r="A317" t="inlineStr">
+        <is>
+          <t>2025-02-07 22:10:00+00:00</t>
+        </is>
+      </c>
+      <c r="B317" t="n">
+        <v>-0.39</v>
       </c>
     </row>
   </sheetData>
@@ -19345,28 +19546,28 @@
         <v>0.1182</v>
       </c>
       <c r="I2" t="n">
-        <v>-0.09012737432745208</v>
+        <v>-0.1136033031487947</v>
       </c>
       <c r="J2" t="n">
-        <v>305</v>
+        <v>308</v>
       </c>
       <c r="K2" t="n">
-        <v>236</v>
+        <v>239</v>
       </c>
       <c r="L2" t="n">
-        <v>0.003924320377423074</v>
+        <v>0.006328287209252048</v>
       </c>
       <c r="M2" t="n">
-        <v>8.260846832329683</v>
+        <v>8.268264706941336</v>
       </c>
       <c r="N2" t="n">
-        <v>115.5650295111892</v>
+        <v>115.2597110719248</v>
       </c>
       <c r="O2" t="n">
-        <v>10.75011765103942</v>
+        <v>10.73590755697555</v>
       </c>
       <c r="P2" t="n">
-        <v>344.3694928744088</v>
+        <v>344.5890701957203</v>
       </c>
       <c r="Q2" t="inlineStr">
         <is>
@@ -19422,28 +19623,28 @@
         <v>0.0892</v>
       </c>
       <c r="I3" t="n">
-        <v>-0.08172441643268855</v>
+        <v>-0.09729342449864625</v>
       </c>
       <c r="J3" t="n">
-        <v>305</v>
+        <v>308</v>
       </c>
       <c r="K3" t="n">
-        <v>242</v>
+        <v>245</v>
       </c>
       <c r="L3" t="n">
-        <v>0.003778580502568074</v>
+        <v>0.005447528136964475</v>
       </c>
       <c r="M3" t="n">
-        <v>8.033040405018646</v>
+        <v>8.026004410932947</v>
       </c>
       <c r="N3" t="n">
-        <v>96.22837518598999</v>
+        <v>95.91259233907076</v>
       </c>
       <c r="O3" t="n">
-        <v>9.8096062706915</v>
+        <v>9.793497451833577</v>
       </c>
       <c r="P3" t="n">
-        <v>354.6047053386384</v>
+        <v>354.7514986305236</v>
       </c>
       <c r="Q3" t="inlineStr">
         <is>
@@ -19499,28 +19700,28 @@
         <v>0.0868</v>
       </c>
       <c r="I4" t="n">
-        <v>-0.01540935403242799</v>
+        <v>-0.0172349311106301</v>
       </c>
       <c r="J4" t="n">
-        <v>305</v>
+        <v>308</v>
       </c>
       <c r="K4" t="n">
-        <v>241</v>
+        <v>244</v>
       </c>
       <c r="L4" t="n">
-        <v>0.0001360543179297347</v>
+        <v>0.0001749830340991299</v>
       </c>
       <c r="M4" t="n">
-        <v>7.402147162577242</v>
+        <v>7.339967086551535</v>
       </c>
       <c r="N4" t="n">
-        <v>95.16790864781797</v>
+        <v>94.06764055988316</v>
       </c>
       <c r="O4" t="n">
-        <v>9.755404074041115</v>
+        <v>9.698847383059658</v>
       </c>
       <c r="P4" t="n">
-        <v>372.5548585921231</v>
+        <v>372.5720022676604</v>
       </c>
       <c r="Q4" t="inlineStr">
         <is>
@@ -19576,28 +19777,28 @@
         <v>0.0888</v>
       </c>
       <c r="I5" t="n">
-        <v>-0.01990107873114768</v>
+        <v>-0.02138370883883014</v>
       </c>
       <c r="J5" t="n">
-        <v>305</v>
+        <v>308</v>
       </c>
       <c r="K5" t="n">
-        <v>234</v>
+        <v>237</v>
       </c>
       <c r="L5" t="n">
-        <v>0.0002619419789665622</v>
+        <v>0.0003114612703416508</v>
       </c>
       <c r="M5" t="n">
-        <v>6.718649501407685</v>
+        <v>6.659353166059796</v>
       </c>
       <c r="N5" t="n">
-        <v>81.1468880831393</v>
+        <v>80.17618982269902</v>
       </c>
       <c r="O5" t="n">
-        <v>9.00815675280683</v>
+        <v>8.954115803511758</v>
       </c>
       <c r="P5" t="n">
-        <v>368.5042766482466</v>
+        <v>368.5182553935964</v>
       </c>
       <c r="Q5" t="inlineStr">
         <is>
@@ -19653,28 +19854,28 @@
         <v>0.08119999999999999</v>
       </c>
       <c r="I6" t="n">
-        <v>-0.03617365282582099</v>
+        <v>-0.03167827713652408</v>
       </c>
       <c r="J6" t="n">
-        <v>305</v>
+        <v>308</v>
       </c>
       <c r="K6" t="n">
-        <v>252</v>
+        <v>255</v>
       </c>
       <c r="L6" t="n">
-        <v>0.0007177278721384184</v>
+        <v>0.0005653605375676163</v>
       </c>
       <c r="M6" t="n">
-        <v>7.09937513028366</v>
+        <v>7.040482650929405</v>
       </c>
       <c r="N6" t="n">
-        <v>97.91296480401422</v>
+        <v>96.83664490864699</v>
       </c>
       <c r="O6" t="n">
-        <v>9.895098018918976</v>
+        <v>9.840561209029035</v>
       </c>
       <c r="P6" t="n">
-        <v>364.0856643611007</v>
+        <v>364.0430273045359</v>
       </c>
       <c r="Q6" t="inlineStr">
         <is>
@@ -19730,28 +19931,28 @@
         <v>0.08069999999999999</v>
       </c>
       <c r="I7" t="n">
-        <v>-0.03328366262210816</v>
+        <v>-0.02560737526070326</v>
       </c>
       <c r="J7" t="n">
-        <v>305</v>
+        <v>308</v>
       </c>
       <c r="K7" t="n">
-        <v>250</v>
+        <v>253</v>
       </c>
       <c r="L7" t="n">
-        <v>0.0007142816537341057</v>
+        <v>0.0004343325098783435</v>
       </c>
       <c r="M7" t="n">
-        <v>7.180701140606918</v>
+        <v>7.132332703456178</v>
       </c>
       <c r="N7" t="n">
-        <v>82.32877081252295</v>
+        <v>81.5162161980017</v>
       </c>
       <c r="O7" t="n">
-        <v>9.073520309809361</v>
+        <v>9.028633130103454</v>
       </c>
       <c r="P7" t="n">
-        <v>359.4742200004325</v>
+        <v>359.401675462305</v>
       </c>
       <c r="Q7" t="inlineStr">
         <is>
@@ -19807,28 +20008,28 @@
         <v>0.0502</v>
       </c>
       <c r="I8" t="n">
-        <v>-0.01822157320526006</v>
+        <v>-0.01185973546266744</v>
       </c>
       <c r="J8" t="n">
-        <v>305</v>
+        <v>308</v>
       </c>
       <c r="K8" t="n">
-        <v>252</v>
+        <v>255</v>
       </c>
       <c r="L8" t="n">
-        <v>0.0001291601577790846</v>
+        <v>5.625880428927754e-05</v>
       </c>
       <c r="M8" t="n">
-        <v>9.005163197929019</v>
+        <v>8.945661535571981</v>
       </c>
       <c r="N8" t="n">
-        <v>133.8913160203395</v>
+        <v>132.5517100792544</v>
       </c>
       <c r="O8" t="n">
-        <v>11.57114151760057</v>
+        <v>11.51311035642647</v>
       </c>
       <c r="P8" t="n">
-        <v>372.6364582990372</v>
+        <v>372.5763570120158</v>
       </c>
       <c r="Q8" t="inlineStr">
         <is>
@@ -19884,28 +20085,28 @@
         <v>0.0673</v>
       </c>
       <c r="I9" t="n">
-        <v>0.03948292167613829</v>
+        <v>0.04876445850879598</v>
       </c>
       <c r="J9" t="n">
-        <v>305</v>
+        <v>308</v>
       </c>
       <c r="K9" t="n">
-        <v>249</v>
+        <v>252</v>
       </c>
       <c r="L9" t="n">
-        <v>0.0008038585991828606</v>
+        <v>0.001259344274266549</v>
       </c>
       <c r="M9" t="n">
-        <v>7.587874782024711</v>
+        <v>7.545309525159756</v>
       </c>
       <c r="N9" t="n">
-        <v>103.2160450544054</v>
+        <v>102.14784727631</v>
       </c>
       <c r="O9" t="n">
-        <v>10.15952976541756</v>
+        <v>10.10682181876726</v>
       </c>
       <c r="P9" t="n">
-        <v>366.3182430301587</v>
+        <v>366.2307163271486</v>
       </c>
       <c r="Q9" t="inlineStr">
         <is>
@@ -19961,28 +20162,28 @@
         <v>0.0764</v>
       </c>
       <c r="I10" t="n">
-        <v>0.1030261505411389</v>
+        <v>0.1131452329882358</v>
       </c>
       <c r="J10" t="n">
-        <v>305</v>
+        <v>308</v>
       </c>
       <c r="K10" t="n">
-        <v>238</v>
+        <v>241</v>
       </c>
       <c r="L10" t="n">
-        <v>0.006924797204314381</v>
+        <v>0.008575485407068983</v>
       </c>
       <c r="M10" t="n">
-        <v>6.798357930708749</v>
+        <v>6.7573145068639</v>
       </c>
       <c r="N10" t="n">
-        <v>82.10213678518049</v>
+        <v>81.27885629751903</v>
       </c>
       <c r="O10" t="n">
-        <v>9.061022943640552</v>
+        <v>9.0154787059545</v>
       </c>
       <c r="P10" t="n">
-        <v>359.5474593495456</v>
+        <v>359.453673559828</v>
       </c>
       <c r="Q10" t="inlineStr">
         <is>
@@ -20038,28 +20239,28 @@
         <v>0.0815</v>
       </c>
       <c r="I11" t="n">
-        <v>0.151385212192387</v>
+        <v>0.1619518737836664</v>
       </c>
       <c r="J11" t="n">
-        <v>305</v>
+        <v>308</v>
       </c>
       <c r="K11" t="n">
-        <v>242</v>
+        <v>245</v>
       </c>
       <c r="L11" t="n">
-        <v>0.01364631536713012</v>
+        <v>0.01595631829109367</v>
       </c>
       <c r="M11" t="n">
-        <v>7.352037235129751</v>
+        <v>7.333608959729664</v>
       </c>
       <c r="N11" t="n">
-        <v>88.70400180137699</v>
+        <v>88.13715252254869</v>
       </c>
       <c r="O11" t="n">
-        <v>9.418280193399269</v>
+        <v>9.388138927527047</v>
       </c>
       <c r="P11" t="n">
-        <v>349.7838804458918</v>
+        <v>349.6847735751202</v>
       </c>
       <c r="Q11" t="inlineStr">
         <is>
@@ -20115,28 +20316,28 @@
         <v>0.07539999999999999</v>
       </c>
       <c r="I12" t="n">
-        <v>0.1169191069009251</v>
+        <v>0.1303759219136168</v>
       </c>
       <c r="J12" t="n">
-        <v>305</v>
+        <v>308</v>
       </c>
       <c r="K12" t="n">
-        <v>242</v>
+        <v>245</v>
       </c>
       <c r="L12" t="n">
-        <v>0.006077904515302324</v>
+        <v>0.007736594228035965</v>
       </c>
       <c r="M12" t="n">
-        <v>8.059553603899861</v>
+        <v>8.033634055009315</v>
       </c>
       <c r="N12" t="n">
-        <v>118.0793526187605</v>
+        <v>117.2793452339611</v>
       </c>
       <c r="O12" t="n">
-        <v>10.86643237768314</v>
+        <v>10.82955886608319</v>
       </c>
       <c r="P12" t="n">
-        <v>350.5307054451084</v>
+        <v>350.4045491723771</v>
       </c>
       <c r="Q12" t="inlineStr">
         <is>
@@ -20192,28 +20393,28 @@
         <v>0.0871</v>
       </c>
       <c r="I13" t="n">
-        <v>0.1816620054533017</v>
+        <v>0.1956432188691352</v>
       </c>
       <c r="J13" t="n">
-        <v>305</v>
+        <v>308</v>
       </c>
       <c r="K13" t="n">
-        <v>240</v>
+        <v>243</v>
       </c>
       <c r="L13" t="n">
-        <v>0.01998065490187395</v>
+        <v>0.02350420585099022</v>
       </c>
       <c r="M13" t="n">
-        <v>7.340640744401042</v>
+        <v>7.349689233982992</v>
       </c>
       <c r="N13" t="n">
-        <v>86.07397882635813</v>
+        <v>86.11616243442607</v>
       </c>
       <c r="O13" t="n">
-        <v>9.277606309084156</v>
+        <v>9.279879440726914</v>
       </c>
       <c r="P13" t="n">
-        <v>356.269261860866</v>
+        <v>356.1384162299616</v>
       </c>
       <c r="Q13" t="inlineStr">
         <is>
@@ -20269,28 +20470,28 @@
         <v>0.0713</v>
       </c>
       <c r="I14" t="n">
-        <v>0.1829244981876847</v>
+        <v>0.1926932626705635</v>
       </c>
       <c r="J14" t="n">
-        <v>305</v>
+        <v>308</v>
       </c>
       <c r="K14" t="n">
-        <v>235</v>
+        <v>238</v>
       </c>
       <c r="L14" t="n">
-        <v>0.02096150500253713</v>
+        <v>0.0236664015717194</v>
       </c>
       <c r="M14" t="n">
-        <v>7.08429607567846</v>
+        <v>7.100114036506412</v>
       </c>
       <c r="N14" t="n">
-        <v>85.34306837297231</v>
+        <v>85.28173668435358</v>
       </c>
       <c r="O14" t="n">
-        <v>9.238131216483792</v>
+        <v>9.234811134200502</v>
       </c>
       <c r="P14" t="n">
-        <v>364.8501339687563</v>
+        <v>364.7616149823482</v>
       </c>
       <c r="Q14" t="inlineStr">
         <is>
@@ -20346,28 +20547,28 @@
         <v>0.0808</v>
       </c>
       <c r="I15" t="n">
-        <v>0.108813075645407</v>
+        <v>0.1227580478850996</v>
       </c>
       <c r="J15" t="n">
-        <v>305</v>
+        <v>308</v>
       </c>
       <c r="K15" t="n">
-        <v>248</v>
+        <v>251</v>
       </c>
       <c r="L15" t="n">
-        <v>0.006062037994780667</v>
+        <v>0.007824052023548189</v>
       </c>
       <c r="M15" t="n">
-        <v>7.923727742217307</v>
+        <v>7.921979111490518</v>
       </c>
       <c r="N15" t="n">
-        <v>105.976972179455</v>
+        <v>105.9248178073125</v>
       </c>
       <c r="O15" t="n">
-        <v>10.29451175041609</v>
+        <v>10.29197832330172</v>
       </c>
       <c r="P15" t="n">
-        <v>360.9755596576901</v>
+        <v>360.843998424656</v>
       </c>
       <c r="Q15" t="inlineStr">
         <is>
@@ -20417,28 +20618,28 @@
       <c r="G16" t="inlineStr"/>
       <c r="H16" t="inlineStr"/>
       <c r="I16" t="n">
-        <v>0.9133106440806802</v>
+        <v>0.970374825874143</v>
       </c>
       <c r="J16" t="n">
-        <v>305</v>
+        <v>308</v>
       </c>
       <c r="K16" t="n">
-        <v>229</v>
+        <v>232</v>
       </c>
       <c r="L16" t="n">
-        <v>0.1101878254808792</v>
+        <v>0.123742105674162</v>
       </c>
       <c r="M16" t="n">
-        <v>15.50431855785537</v>
+        <v>15.64403116992808</v>
       </c>
       <c r="N16" t="n">
-        <v>364.0578842480741</v>
+        <v>366.9742875298941</v>
       </c>
       <c r="O16" t="n">
-        <v>19.08030094752371</v>
+        <v>19.15657295890615</v>
       </c>
       <c r="P16" t="n">
-        <v>352.5971650434013</v>
+        <v>352.066044044533</v>
       </c>
       <c r="Q16" t="inlineStr">
         <is>
@@ -20475,7 +20676,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:Q306"/>
+  <dimension ref="A1:Q309"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -43325,6 +43526,267 @@
         </is>
       </c>
     </row>
+    <row r="307">
+      <c r="A307" s="1" t="inlineStr">
+        <is>
+          <t>2025-01-06 22:06:06+00:00</t>
+        </is>
+      </c>
+      <c r="B307" t="inlineStr">
+        <is>
+          <t>-38.12398670799303,174.733438172092</t>
+        </is>
+      </c>
+      <c r="C307" t="inlineStr">
+        <is>
+          <t>-38.12369206401816,174.73426213994745</t>
+        </is>
+      </c>
+      <c r="D307" t="inlineStr">
+        <is>
+          <t>-38.12325810638937,174.73499821067946</t>
+        </is>
+      </c>
+      <c r="E307" t="inlineStr">
+        <is>
+          <t>-38.12284207397574,174.73567199801457</t>
+        </is>
+      </c>
+      <c r="F307" t="inlineStr">
+        <is>
+          <t>-38.122383235671215,174.73635419286765</t>
+        </is>
+      </c>
+      <c r="G307" t="inlineStr">
+        <is>
+          <t>-38.12192069664263,174.7370353681608</t>
+        </is>
+      </c>
+      <c r="H307" t="inlineStr">
+        <is>
+          <t>-38.12130061665559,174.73752257069913</t>
+        </is>
+      </c>
+      <c r="I307" t="inlineStr">
+        <is>
+          <t>-38.12086825131028,174.73824079071</t>
+        </is>
+      </c>
+      <c r="J307" t="inlineStr">
+        <is>
+          <t>-38.12041261017895,174.73893173817578</t>
+        </is>
+      </c>
+      <c r="K307" t="inlineStr">
+        <is>
+          <t>-38.12004094220999,174.73971933879116</t>
+        </is>
+      </c>
+      <c r="L307" t="inlineStr">
+        <is>
+          <t>-38.11956916375277,174.7403871124979</t>
+        </is>
+      </c>
+      <c r="M307" t="inlineStr">
+        <is>
+          <t>-38.11907824238858,174.7410350346502</t>
+        </is>
+      </c>
+      <c r="N307" t="inlineStr">
+        <is>
+          <t>-38.11854093532072,174.7416169836335</t>
+        </is>
+      </c>
+      <c r="O307" t="inlineStr">
+        <is>
+          <t>-38.11802521628264,174.74222990340468</t>
+        </is>
+      </c>
+      <c r="P307" t="inlineStr">
+        <is>
+          <t>-38.117314778810076,174.74255572664947</t>
+        </is>
+      </c>
+      <c r="Q307" t="inlineStr">
+        <is>
+          <t>L8</t>
+        </is>
+      </c>
+    </row>
+    <row r="308">
+      <c r="A308" s="1" t="inlineStr">
+        <is>
+          <t>2025-01-14 22:06:13+00:00</t>
+        </is>
+      </c>
+      <c r="B308" t="inlineStr">
+        <is>
+          <t>-38.12398060557696,174.73343574212998</t>
+        </is>
+      </c>
+      <c r="C308" t="inlineStr">
+        <is>
+          <t>-38.12358832314139,174.7342208300927</t>
+        </is>
+      </c>
+      <c r="D308" t="inlineStr">
+        <is>
+          <t>-38.123223383404245,174.7349733685117</t>
+        </is>
+      </c>
+      <c r="E308" t="inlineStr">
+        <is>
+          <t>-38.12281853012491,174.73564425402046</t>
+        </is>
+      </c>
+      <c r="F308" t="inlineStr">
+        <is>
+          <t>-38.12235997217394,174.73632547042752</t>
+        </is>
+      </c>
+      <c r="G308" t="inlineStr">
+        <is>
+          <t>-38.12188807300028,174.7369951471927</t>
+        </is>
+      </c>
+      <c r="H308" t="inlineStr">
+        <is>
+          <t>-38.12133566859628,174.7375657043245</t>
+        </is>
+      </c>
+      <c r="I308" t="inlineStr">
+        <is>
+          <t>-38.1208700390889,174.7382429897417</t>
+        </is>
+      </c>
+      <c r="J308" t="inlineStr">
+        <is>
+          <t>-38.12042575700623,174.73894759966757</t>
+        </is>
+      </c>
+      <c r="K308" t="inlineStr">
+        <is>
+          <t>-38.119974536359024,174.73964230962412</t>
+        </is>
+      </c>
+      <c r="L308" t="inlineStr">
+        <is>
+          <t>-38.11948565965127,174.74029216719742</t>
+        </is>
+      </c>
+      <c r="M308" t="inlineStr">
+        <is>
+          <t>-38.11898761615644,174.7409248468059</t>
+        </is>
+      </c>
+      <c r="N308" t="inlineStr">
+        <is>
+          <t>-38.118447796515596,174.74148744669304</t>
+        </is>
+      </c>
+      <c r="O308" t="inlineStr">
+        <is>
+          <t>-38.117961153476536,174.74213456394344</t>
+        </is>
+      </c>
+      <c r="P308" t="inlineStr">
+        <is>
+          <t>-38.117168698665026,174.7423383295323</t>
+        </is>
+      </c>
+      <c r="Q308" t="inlineStr">
+        <is>
+          <t>L9</t>
+        </is>
+      </c>
+    </row>
+    <row r="309">
+      <c r="A309" s="1" t="inlineStr">
+        <is>
+          <t>2025-02-07 22:06:29+00:00</t>
+        </is>
+      </c>
+      <c r="B309" t="inlineStr">
+        <is>
+          <t>-38.12396805694648,174.73343074530794</t>
+        </is>
+      </c>
+      <c r="C309" t="inlineStr">
+        <is>
+          <t>-38.1236891417402,174.73426097628789</t>
+        </is>
+      </c>
+      <c r="D309" t="inlineStr">
+        <is>
+          <t>-38.12326367566279,174.7350021951559</t>
+        </is>
+      </c>
+      <c r="E309" t="inlineStr">
+        <is>
+          <t>-38.12285025167018,174.73568163458816</t>
+        </is>
+      </c>
+      <c r="F309" t="inlineStr">
+        <is>
+          <t>-38.12235866064567,174.73632385114078</t>
+        </is>
+      </c>
+      <c r="G309" t="inlineStr">
+        <is>
+          <t>-38.12189659313894,174.73700565147826</t>
+        </is>
+      </c>
+      <c r="H309" t="inlineStr">
+        <is>
+          <t>-38.12135921361341,174.73759467798916</t>
+        </is>
+      </c>
+      <c r="I309" t="inlineStr">
+        <is>
+          <t>-38.12086993139138,174.7382428572699</t>
+        </is>
+      </c>
+      <c r="J309" t="inlineStr">
+        <is>
+          <t>-38.12040729927005,174.73892533062934</t>
+        </is>
+      </c>
+      <c r="K309" t="inlineStr">
+        <is>
+          <t>-38.119964483584546,174.73963064866868</t>
+        </is>
+      </c>
+      <c r="L309" t="inlineStr">
+        <is>
+          <t>-38.11951066190686,174.74032059506982</t>
+        </is>
+      </c>
+      <c r="M309" t="inlineStr">
+        <is>
+          <t>-38.11895763842992,174.7408883984968</t>
+        </is>
+      </c>
+      <c r="N309" t="inlineStr">
+        <is>
+          <t>-38.118425721220255,174.74145674457228</t>
+        </is>
+      </c>
+      <c r="O309" t="inlineStr">
+        <is>
+          <t>-38.117906222181794,174.74205281439686</t>
+        </is>
+      </c>
+      <c r="P309" t="inlineStr">
+        <is>
+          <t>-38.11732596184177,174.74257236934835</t>
+        </is>
+      </c>
+      <c r="Q309" t="inlineStr">
+        <is>
+          <t>L8</t>
+        </is>
+      </c>
+    </row>
   </sheetData>
   <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
 </worksheet>

--- a/data/nzd0246/nzd0246.xlsx
+++ b/data/nzd0246/nzd0246.xlsx
@@ -19391,7 +19391,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:W16"/>
+  <dimension ref="A1:X16"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -19482,35 +19482,40 @@
       </c>
       <c r="Q1" s="1" t="inlineStr">
         <is>
+          <t>ERODIBILITY</t>
+        </is>
+      </c>
+      <c r="R1" s="1" t="inlineStr">
+        <is>
           <t>geometry</t>
         </is>
       </c>
-      <c r="R1" s="1" t="inlineStr">
+      <c r="S1" s="1" t="inlineStr">
         <is>
           <t>land_x</t>
         </is>
       </c>
-      <c r="S1" s="1" t="inlineStr">
+      <c r="T1" s="1" t="inlineStr">
         <is>
           <t>land_y</t>
         </is>
       </c>
-      <c r="T1" s="1" t="inlineStr">
+      <c r="U1" s="1" t="inlineStr">
         <is>
           <t>sea_x</t>
         </is>
       </c>
-      <c r="U1" s="1" t="inlineStr">
+      <c r="V1" s="1" t="inlineStr">
         <is>
           <t>sea_y</t>
         </is>
       </c>
-      <c r="V1" s="1" t="inlineStr">
+      <c r="W1" s="1" t="inlineStr">
         <is>
           <t>center_x</t>
         </is>
       </c>
-      <c r="W1" s="1" t="inlineStr">
+      <c r="X1" s="1" t="inlineStr">
         <is>
           <t>center_y</t>
         </is>
@@ -19569,27 +19574,28 @@
       <c r="P2" t="n">
         <v>344.5890701957203</v>
       </c>
-      <c r="Q2" t="inlineStr">
+      <c r="Q2" t="inlineStr"/>
+      <c r="R2" t="inlineStr">
         <is>
           <t>LINESTRING (174.73457246288586 -38.12683515389749, 174.7314450746796 -38.118981020868986)</t>
         </is>
       </c>
-      <c r="R2" t="n">
+      <c r="S2" t="n">
         <v>174.7345724628859</v>
       </c>
-      <c r="S2" t="n">
+      <c r="T2" t="n">
         <v>-38.12683515389749</v>
       </c>
-      <c r="T2" t="n">
+      <c r="U2" t="n">
         <v>174.7314450746796</v>
       </c>
-      <c r="U2" t="n">
+      <c r="V2" t="n">
         <v>-38.11898102086899</v>
       </c>
-      <c r="V2" t="n">
+      <c r="W2" t="n">
         <v>174.7330087687827</v>
       </c>
-      <c r="W2" t="n">
+      <c r="X2" t="n">
         <v>-38.12290808738324</v>
       </c>
     </row>
@@ -19646,27 +19652,28 @@
       <c r="P3" t="n">
         <v>354.7514986305236</v>
       </c>
-      <c r="Q3" t="inlineStr">
+      <c r="Q3" t="inlineStr"/>
+      <c r="R3" t="inlineStr">
         <is>
           <t>LINESTRING (174.7354327449537 -38.126631653094094, 174.7323053032736 -38.1187775289949)</t>
         </is>
       </c>
-      <c r="R3" t="n">
+      <c r="S3" t="n">
         <v>174.7354327449537</v>
       </c>
-      <c r="S3" t="n">
+      <c r="T3" t="n">
         <v>-38.12663165309409</v>
       </c>
-      <c r="T3" t="n">
+      <c r="U3" t="n">
         <v>174.7323053032736</v>
       </c>
-      <c r="U3" t="n">
+      <c r="V3" t="n">
         <v>-38.1187775289949</v>
       </c>
-      <c r="V3" t="n">
+      <c r="W3" t="n">
         <v>174.7338690241136</v>
       </c>
-      <c r="W3" t="n">
+      <c r="X3" t="n">
         <v>-38.1227045910445</v>
       </c>
     </row>
@@ -19723,27 +19730,28 @@
       <c r="P4" t="n">
         <v>372.5720022676604</v>
       </c>
-      <c r="Q4" t="inlineStr">
+      <c r="Q4" t="inlineStr"/>
+      <c r="R4" t="inlineStr">
         <is>
           <t>LINESTRING (174.73707577792652 -38.12616187316135, 174.73194654038153 -38.118992357406604)</t>
         </is>
       </c>
-      <c r="R4" t="n">
+      <c r="S4" t="n">
         <v>174.7370757779265</v>
       </c>
-      <c r="S4" t="n">
+      <c r="T4" t="n">
         <v>-38.12616187316135</v>
       </c>
-      <c r="T4" t="n">
+      <c r="U4" t="n">
         <v>174.7319465403815</v>
       </c>
-      <c r="U4" t="n">
+      <c r="V4" t="n">
         <v>-38.1189923574066</v>
       </c>
-      <c r="V4" t="n">
+      <c r="W4" t="n">
         <v>174.734511159154</v>
       </c>
-      <c r="W4" t="n">
+      <c r="X4" t="n">
         <v>-38.12257711528397</v>
       </c>
     </row>
@@ -19800,27 +19808,28 @@
       <c r="P5" t="n">
         <v>368.5182553935964</v>
       </c>
-      <c r="Q5" t="inlineStr">
+      <c r="Q5" t="inlineStr"/>
+      <c r="R5" t="inlineStr">
         <is>
           <t>LINESTRING (174.73852152571297 -38.12526009529411, 174.73141625888022 -38.1192303482044)</t>
         </is>
       </c>
-      <c r="R5" t="n">
+      <c r="S5" t="n">
         <v>174.738521525713</v>
       </c>
-      <c r="S5" t="n">
+      <c r="T5" t="n">
         <v>-38.12526009529411</v>
       </c>
-      <c r="T5" t="n">
+      <c r="U5" t="n">
         <v>174.7314162588802</v>
       </c>
-      <c r="U5" t="n">
+      <c r="V5" t="n">
         <v>-38.1192303482044</v>
       </c>
-      <c r="V5" t="n">
+      <c r="W5" t="n">
         <v>174.7349688922966</v>
       </c>
-      <c r="W5" t="n">
+      <c r="X5" t="n">
         <v>-38.12224522174925</v>
       </c>
     </row>
@@ -19877,27 +19886,28 @@
       <c r="P6" t="n">
         <v>364.0430273045359</v>
       </c>
-      <c r="Q6" t="inlineStr">
+      <c r="Q6" t="inlineStr"/>
+      <c r="R6" t="inlineStr">
         <is>
           <t>LINESTRING (174.73924160797276 -38.12472175911329, 174.73196028568935 -38.11882416808725)</t>
         </is>
       </c>
-      <c r="R6" t="n">
+      <c r="S6" t="n">
         <v>174.7392416079728</v>
       </c>
-      <c r="S6" t="n">
+      <c r="T6" t="n">
         <v>-38.12472175911329</v>
       </c>
-      <c r="T6" t="n">
+      <c r="U6" t="n">
         <v>174.7319602856894</v>
       </c>
-      <c r="U6" t="n">
+      <c r="V6" t="n">
         <v>-38.11882416808725</v>
       </c>
-      <c r="V6" t="n">
+      <c r="W6" t="n">
         <v>174.7356009468311</v>
       </c>
-      <c r="W6" t="n">
+      <c r="X6" t="n">
         <v>-38.12177296360027</v>
       </c>
     </row>
@@ -19954,27 +19964,28 @@
       <c r="P7" t="n">
         <v>359.401675462305</v>
       </c>
-      <c r="Q7" t="inlineStr">
+      <c r="Q7" t="inlineStr"/>
+      <c r="R7" t="inlineStr">
         <is>
           <t>LINESTRING (174.73989067101778 -38.12423655011674, 174.73261474992148 -38.118334824905894)</t>
         </is>
       </c>
-      <c r="R7" t="n">
+      <c r="S7" t="n">
         <v>174.7398906710178</v>
       </c>
-      <c r="S7" t="n">
+      <c r="T7" t="n">
         <v>-38.12423655011674</v>
       </c>
-      <c r="T7" t="n">
+      <c r="U7" t="n">
         <v>174.7326147499215</v>
       </c>
-      <c r="U7" t="n">
+      <c r="V7" t="n">
         <v>-38.11833482490589</v>
       </c>
-      <c r="V7" t="n">
+      <c r="W7" t="n">
         <v>174.7362527104696</v>
       </c>
-      <c r="W7" t="n">
+      <c r="X7" t="n">
         <v>-38.12128568751132</v>
       </c>
     </row>
@@ -20031,27 +20042,28 @@
       <c r="P8" t="n">
         <v>372.5763570120158</v>
       </c>
-      <c r="Q8" t="inlineStr">
+      <c r="Q8" t="inlineStr"/>
+      <c r="R8" t="inlineStr">
         <is>
           <t>LINESTRING (174.7405399923978 -38.12375256038135, 174.73327109394629 -38.11784546490954)</t>
         </is>
       </c>
-      <c r="R8" t="n">
+      <c r="S8" t="n">
         <v>174.7405399923978</v>
       </c>
-      <c r="S8" t="n">
+      <c r="T8" t="n">
         <v>-38.12375256038135</v>
       </c>
-      <c r="T8" t="n">
+      <c r="U8" t="n">
         <v>174.7332710939463</v>
       </c>
-      <c r="U8" t="n">
+      <c r="V8" t="n">
         <v>-38.11784546490954</v>
       </c>
-      <c r="V8" t="n">
+      <c r="W8" t="n">
         <v>174.736905543172</v>
       </c>
-      <c r="W8" t="n">
+      <c r="X8" t="n">
         <v>-38.12079901264545</v>
       </c>
     </row>
@@ -20108,27 +20120,28 @@
       <c r="P9" t="n">
         <v>366.2307163271486</v>
       </c>
-      <c r="Q9" t="inlineStr">
+      <c r="Q9" t="inlineStr"/>
+      <c r="R9" t="inlineStr">
         <is>
           <t>LINESTRING (174.7411916964236 -38.1232671734135, 174.7339244156603 -38.11735885180607)</t>
         </is>
       </c>
-      <c r="R9" t="n">
+      <c r="S9" t="n">
         <v>174.7411916964236</v>
       </c>
-      <c r="S9" t="n">
+      <c r="T9" t="n">
         <v>-38.1232671734135</v>
       </c>
-      <c r="T9" t="n">
+      <c r="U9" t="n">
         <v>174.7339244156603</v>
       </c>
-      <c r="U9" t="n">
+      <c r="V9" t="n">
         <v>-38.11735885180607</v>
       </c>
-      <c r="V9" t="n">
+      <c r="W9" t="n">
         <v>174.737558056042</v>
       </c>
-      <c r="W9" t="n">
+      <c r="X9" t="n">
         <v>-38.12031301260978</v>
       </c>
     </row>
@@ -20185,27 +20198,28 @@
       <c r="P10" t="n">
         <v>359.453673559828</v>
       </c>
-      <c r="Q10" t="inlineStr">
+      <c r="Q10" t="inlineStr"/>
+      <c r="R10" t="inlineStr">
         <is>
           <t>LINESTRING (174.74181558820925 -38.122802779109826, 174.7346209848981 -38.11683937355996)</t>
         </is>
       </c>
-      <c r="R10" t="n">
+      <c r="S10" t="n">
         <v>174.7418155882092</v>
       </c>
-      <c r="S10" t="n">
+      <c r="T10" t="n">
         <v>-38.12280277910983</v>
       </c>
-      <c r="T10" t="n">
+      <c r="U10" t="n">
         <v>174.7346209848981</v>
       </c>
-      <c r="U10" t="n">
+      <c r="V10" t="n">
         <v>-38.11683937355996</v>
       </c>
-      <c r="V10" t="n">
+      <c r="W10" t="n">
         <v>174.7382182865537</v>
       </c>
-      <c r="W10" t="n">
+      <c r="X10" t="n">
         <v>-38.11982107633489</v>
       </c>
     </row>
@@ -20262,27 +20276,28 @@
       <c r="P11" t="n">
         <v>349.6847735751202</v>
       </c>
-      <c r="Q11" t="inlineStr">
+      <c r="Q11" t="inlineStr"/>
+      <c r="R11" t="inlineStr">
         <is>
           <t>LINESTRING (174.74242104750854 -38.12236993954054, 174.73537606846423 -38.116296391196364)</t>
         </is>
       </c>
-      <c r="R11" t="n">
+      <c r="S11" t="n">
         <v>174.7424210475085</v>
       </c>
-      <c r="S11" t="n">
+      <c r="T11" t="n">
         <v>-38.12236993954054</v>
       </c>
-      <c r="T11" t="n">
+      <c r="U11" t="n">
         <v>174.7353760684642</v>
       </c>
-      <c r="U11" t="n">
+      <c r="V11" t="n">
         <v>-38.11629639119636</v>
       </c>
-      <c r="V11" t="n">
+      <c r="W11" t="n">
         <v>174.7388985579864</v>
       </c>
-      <c r="W11" t="n">
+      <c r="X11" t="n">
         <v>-38.11933316536845</v>
       </c>
     </row>
@@ -20339,27 +20354,28 @@
       <c r="P12" t="n">
         <v>350.4045491723771</v>
       </c>
-      <c r="Q12" t="inlineStr">
+      <c r="Q12" t="inlineStr"/>
+      <c r="R12" t="inlineStr">
         <is>
           <t>LINESTRING (174.74306698697086 -38.12192599212461, 174.736098949026 -38.11579746375459)</t>
         </is>
       </c>
-      <c r="R12" t="n">
+      <c r="S12" t="n">
         <v>174.7430669869709</v>
       </c>
-      <c r="S12" t="n">
+      <c r="T12" t="n">
         <v>-38.12192599212461</v>
       </c>
-      <c r="T12" t="n">
+      <c r="U12" t="n">
         <v>174.736098949026</v>
       </c>
-      <c r="U12" t="n">
+      <c r="V12" t="n">
         <v>-38.11579746375459</v>
       </c>
-      <c r="V12" t="n">
+      <c r="W12" t="n">
         <v>174.7395829679984</v>
       </c>
-      <c r="W12" t="n">
+      <c r="X12" t="n">
         <v>-38.1188617279396</v>
       </c>
     </row>
@@ -20416,27 +20432,28 @@
       <c r="P13" t="n">
         <v>356.1384162299616</v>
       </c>
-      <c r="Q13" t="inlineStr">
+      <c r="Q13" t="inlineStr"/>
+      <c r="R13" t="inlineStr">
         <is>
           <t>LINESTRING (174.74384309960817 -38.12138767918747, 174.7366193919345 -38.11544624442649)</t>
         </is>
       </c>
-      <c r="R13" t="n">
+      <c r="S13" t="n">
         <v>174.7438430996082</v>
       </c>
-      <c r="S13" t="n">
+      <c r="T13" t="n">
         <v>-38.12138767918747</v>
       </c>
-      <c r="T13" t="n">
+      <c r="U13" t="n">
         <v>174.7366193919345</v>
       </c>
-      <c r="U13" t="n">
+      <c r="V13" t="n">
         <v>-38.11544624442649</v>
       </c>
-      <c r="V13" t="n">
+      <c r="W13" t="n">
         <v>174.7402312457713</v>
       </c>
-      <c r="W13" t="n">
+      <c r="X13" t="n">
         <v>-38.11841696180698</v>
       </c>
     </row>
@@ -20493,27 +20510,28 @@
       <c r="P14" t="n">
         <v>364.7616149823482</v>
       </c>
-      <c r="Q14" t="inlineStr">
+      <c r="Q14" t="inlineStr"/>
+      <c r="R14" t="inlineStr">
         <is>
           <t>LINESTRING (174.74466808389354 -38.1207346052164, 174.73695535049364 -38.115188913827005)</t>
         </is>
       </c>
-      <c r="R14" t="n">
+      <c r="S14" t="n">
         <v>174.7446680838935</v>
       </c>
-      <c r="S14" t="n">
+      <c r="T14" t="n">
         <v>-38.1207346052164</v>
       </c>
-      <c r="T14" t="n">
+      <c r="U14" t="n">
         <v>174.7369553504936</v>
       </c>
-      <c r="U14" t="n">
+      <c r="V14" t="n">
         <v>-38.11518891382701</v>
       </c>
-      <c r="V14" t="n">
+      <c r="W14" t="n">
         <v>174.7408117171936</v>
       </c>
-      <c r="W14" t="n">
+      <c r="X14" t="n">
         <v>-38.11796175952171</v>
       </c>
     </row>
@@ -20570,27 +20588,28 @@
       <c r="P15" t="n">
         <v>360.843998424656</v>
       </c>
-      <c r="Q15" t="inlineStr">
+      <c r="Q15" t="inlineStr"/>
+      <c r="R15" t="inlineStr">
         <is>
           <t>LINESTRING (174.74534963810197 -38.12012139739523, 174.73740527983517 -38.11478309511756)</t>
         </is>
       </c>
-      <c r="R15" t="n">
+      <c r="S15" t="n">
         <v>174.745349638102</v>
       </c>
-      <c r="S15" t="n">
+      <c r="T15" t="n">
         <v>-38.12012139739523</v>
       </c>
-      <c r="T15" t="n">
+      <c r="U15" t="n">
         <v>174.7374052798352</v>
       </c>
-      <c r="U15" t="n">
+      <c r="V15" t="n">
         <v>-38.11478309511756</v>
       </c>
-      <c r="V15" t="n">
+      <c r="W15" t="n">
         <v>174.7413774589686</v>
       </c>
-      <c r="W15" t="n">
+      <c r="X15" t="n">
         <v>-38.11745224625639</v>
       </c>
     </row>
@@ -20641,27 +20660,28 @@
       <c r="P16" t="n">
         <v>352.066044044533</v>
       </c>
-      <c r="Q16" t="inlineStr">
+      <c r="Q16" t="inlineStr"/>
+      <c r="R16" t="inlineStr">
         <is>
           <t>LINESTRING (174.74594050385812 -38.11958905241564, 174.73799615758773 -38.11425076239638)</t>
         </is>
       </c>
-      <c r="R16" t="n">
+      <c r="S16" t="n">
         <v>174.7459405038581</v>
       </c>
-      <c r="S16" t="n">
+      <c r="T16" t="n">
         <v>-38.11958905241564</v>
       </c>
-      <c r="T16" t="n">
+      <c r="U16" t="n">
         <v>174.7379961575877</v>
       </c>
-      <c r="U16" t="n">
+      <c r="V16" t="n">
         <v>-38.11425076239638</v>
       </c>
-      <c r="V16" t="n">
+      <c r="W16" t="n">
         <v>174.7419683307229</v>
       </c>
-      <c r="W16" t="n">
+      <c r="X16" t="n">
         <v>-38.11691990740601</v>
       </c>
     </row>

--- a/data/nzd0246/nzd0246.xlsx
+++ b/data/nzd0246/nzd0246.xlsx
@@ -428,7 +428,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:Q309"/>
+  <dimension ref="A1:Q311"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -16189,6 +16189,118 @@
         </is>
       </c>
     </row>
+    <row r="310">
+      <c r="A310" s="1" t="inlineStr">
+        <is>
+          <t>2025-02-23 22:06:19+00:00</t>
+        </is>
+      </c>
+      <c r="B310" t="n">
+        <v>338.52</v>
+      </c>
+      <c r="C310" t="n">
+        <v>347.72</v>
+      </c>
+      <c r="D310" t="n">
+        <v>374.69</v>
+      </c>
+      <c r="E310" t="n">
+        <v>371.33</v>
+      </c>
+      <c r="F310" t="n">
+        <v>369.03</v>
+      </c>
+      <c r="G310" t="n">
+        <v>362.1257142857143</v>
+      </c>
+      <c r="H310" t="n">
+        <v>375.8333333333333</v>
+      </c>
+      <c r="I310" t="n">
+        <v>372.82</v>
+      </c>
+      <c r="J310" t="n">
+        <v>368.5657142857143</v>
+      </c>
+      <c r="K310" t="n">
+        <v>362.9</v>
+      </c>
+      <c r="L310" t="n">
+        <v>362.0338461538461</v>
+      </c>
+      <c r="M310" t="n">
+        <v>370.97</v>
+      </c>
+      <c r="N310" t="n">
+        <v>381.5738461538461</v>
+      </c>
+      <c r="O310" t="n">
+        <v>375.7857142857143</v>
+      </c>
+      <c r="P310" t="n">
+        <v>377.5657142857143</v>
+      </c>
+      <c r="Q310" t="inlineStr">
+        <is>
+          <t>L8</t>
+        </is>
+      </c>
+    </row>
+    <row r="311">
+      <c r="A311" s="1" t="inlineStr">
+        <is>
+          <t>2025-04-12 22:05:36+00:00</t>
+        </is>
+      </c>
+      <c r="B311" t="n">
+        <v>350.21</v>
+      </c>
+      <c r="C311" t="n">
+        <v>360.025</v>
+      </c>
+      <c r="D311" t="n">
+        <v>379.6333333333333</v>
+      </c>
+      <c r="E311" t="n">
+        <v>376.085</v>
+      </c>
+      <c r="F311" t="n">
+        <v>372.7133333333334</v>
+      </c>
+      <c r="G311" t="n">
+        <v>369.74</v>
+      </c>
+      <c r="H311" t="n">
+        <v>384.0255555555556</v>
+      </c>
+      <c r="I311" t="n">
+        <v>375.4866666666667</v>
+      </c>
+      <c r="J311" t="n">
+        <v>369.68</v>
+      </c>
+      <c r="K311" t="n">
+        <v>362.3433333333334</v>
+      </c>
+      <c r="L311" t="n">
+        <v>367.5715384615385</v>
+      </c>
+      <c r="M311" t="n">
+        <v>371.4033333333334</v>
+      </c>
+      <c r="N311" t="n">
+        <v>377.6915384615385</v>
+      </c>
+      <c r="O311" t="n">
+        <v>375</v>
+      </c>
+      <c r="P311" t="inlineStr"/>
+      <c r="Q311" t="inlineStr">
+        <is>
+          <t>L8</t>
+        </is>
+      </c>
+    </row>
   </sheetData>
   <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
 </worksheet>
@@ -16200,7 +16312,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:B317"/>
+  <dimension ref="A1:B319"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -19378,6 +19490,26 @@
       </c>
       <c r="B317" t="n">
         <v>-0.39</v>
+      </c>
+    </row>
+    <row r="318">
+      <c r="A318" t="inlineStr">
+        <is>
+          <t>2025-02-23 22:10:00+00:00</t>
+        </is>
+      </c>
+      <c r="B318" t="n">
+        <v>-0.12</v>
+      </c>
+    </row>
+    <row r="319">
+      <c r="A319" t="inlineStr">
+        <is>
+          <t>2025-04-12 22:10:00+00:00</t>
+        </is>
+      </c>
+      <c r="B319" t="n">
+        <v>1.33</v>
       </c>
     </row>
   </sheetData>
@@ -19551,28 +19683,28 @@
         <v>0.1182</v>
       </c>
       <c r="I2" t="n">
-        <v>-0.1136033031487947</v>
+        <v>-0.109253446248077</v>
       </c>
       <c r="J2" t="n">
-        <v>308</v>
+        <v>310</v>
       </c>
       <c r="K2" t="n">
-        <v>239</v>
+        <v>241</v>
       </c>
       <c r="L2" t="n">
-        <v>0.006328287209252048</v>
+        <v>0.005943225793966556</v>
       </c>
       <c r="M2" t="n">
-        <v>8.268264706941336</v>
+        <v>8.250137944557556</v>
       </c>
       <c r="N2" t="n">
-        <v>115.2597110719248</v>
+        <v>114.6460028283648</v>
       </c>
       <c r="O2" t="n">
-        <v>10.73590755697555</v>
+        <v>10.70728737021496</v>
       </c>
       <c r="P2" t="n">
-        <v>344.5890701957203</v>
+        <v>344.5477629637253</v>
       </c>
       <c r="Q2" t="inlineStr"/>
       <c r="R2" t="inlineStr">
@@ -19629,28 +19761,28 @@
         <v>0.0892</v>
       </c>
       <c r="I3" t="n">
-        <v>-0.09729342449864625</v>
+        <v>-0.09463035649639115</v>
       </c>
       <c r="J3" t="n">
-        <v>308</v>
+        <v>310</v>
       </c>
       <c r="K3" t="n">
-        <v>245</v>
+        <v>247</v>
       </c>
       <c r="L3" t="n">
-        <v>0.005447528136964475</v>
+        <v>0.005231385361808893</v>
       </c>
       <c r="M3" t="n">
-        <v>8.026004410932947</v>
+        <v>8.010772380644275</v>
       </c>
       <c r="N3" t="n">
-        <v>95.91259233907076</v>
+        <v>95.46375592595702</v>
       </c>
       <c r="O3" t="n">
-        <v>9.793497451833577</v>
+        <v>9.770555558716046</v>
       </c>
       <c r="P3" t="n">
-        <v>354.7514986305236</v>
+        <v>354.7259147763879</v>
       </c>
       <c r="Q3" t="inlineStr"/>
       <c r="R3" t="inlineStr">
@@ -19707,28 +19839,28 @@
         <v>0.0868</v>
       </c>
       <c r="I4" t="n">
-        <v>-0.0172349311106301</v>
+        <v>-0.008993268626204009</v>
       </c>
       <c r="J4" t="n">
-        <v>308</v>
+        <v>310</v>
       </c>
       <c r="K4" t="n">
-        <v>244</v>
+        <v>246</v>
       </c>
       <c r="L4" t="n">
-        <v>0.0001749830340991299</v>
+        <v>4.84200778609889e-05</v>
       </c>
       <c r="M4" t="n">
-        <v>7.339967086551535</v>
+        <v>7.321478869893909</v>
       </c>
       <c r="N4" t="n">
-        <v>94.06764055988316</v>
+        <v>93.55296712163238</v>
       </c>
       <c r="O4" t="n">
-        <v>9.698847383059658</v>
+        <v>9.672278279786639</v>
       </c>
       <c r="P4" t="n">
-        <v>372.5720022676604</v>
+        <v>372.4940773561678</v>
       </c>
       <c r="Q4" t="inlineStr"/>
       <c r="R4" t="inlineStr">
@@ -19785,28 +19917,28 @@
         <v>0.0888</v>
       </c>
       <c r="I5" t="n">
-        <v>-0.02138370883883014</v>
+        <v>-0.0115198244634451</v>
       </c>
       <c r="J5" t="n">
-        <v>308</v>
+        <v>310</v>
       </c>
       <c r="K5" t="n">
-        <v>237</v>
+        <v>239</v>
       </c>
       <c r="L5" t="n">
-        <v>0.0003114612703416508</v>
+        <v>9.185341402251357e-05</v>
       </c>
       <c r="M5" t="n">
-        <v>6.659353166059796</v>
+        <v>6.651972670498353</v>
       </c>
       <c r="N5" t="n">
-        <v>80.17618982269902</v>
+        <v>79.82047093127068</v>
       </c>
       <c r="O5" t="n">
-        <v>8.954115803511758</v>
+        <v>8.934230293162958</v>
       </c>
       <c r="P5" t="n">
-        <v>368.5182553935964</v>
+        <v>368.4247543136523</v>
       </c>
       <c r="Q5" t="inlineStr"/>
       <c r="R5" t="inlineStr">
@@ -19863,28 +19995,28 @@
         <v>0.08119999999999999</v>
       </c>
       <c r="I6" t="n">
-        <v>-0.03167827713652408</v>
+        <v>-0.01957746678483489</v>
       </c>
       <c r="J6" t="n">
-        <v>308</v>
+        <v>310</v>
       </c>
       <c r="K6" t="n">
-        <v>255</v>
+        <v>257</v>
       </c>
       <c r="L6" t="n">
-        <v>0.0005653605375676163</v>
+        <v>0.0002188646765155511</v>
       </c>
       <c r="M6" t="n">
-        <v>7.040482650929405</v>
+        <v>7.0382781889709</v>
       </c>
       <c r="N6" t="n">
-        <v>96.83664490864699</v>
+        <v>96.55235012724953</v>
       </c>
       <c r="O6" t="n">
-        <v>9.840561209029035</v>
+        <v>9.826105542240503</v>
       </c>
       <c r="P6" t="n">
-        <v>364.0430273045359</v>
+        <v>363.9274622267226</v>
       </c>
       <c r="Q6" t="inlineStr"/>
       <c r="R6" t="inlineStr">
@@ -19941,28 +20073,28 @@
         <v>0.08069999999999999</v>
       </c>
       <c r="I7" t="n">
-        <v>-0.02560737526070326</v>
+        <v>-0.01386019944782299</v>
       </c>
       <c r="J7" t="n">
-        <v>308</v>
+        <v>310</v>
       </c>
       <c r="K7" t="n">
-        <v>253</v>
+        <v>255</v>
       </c>
       <c r="L7" t="n">
-        <v>0.0004343325098783435</v>
+        <v>0.0001288868033100243</v>
       </c>
       <c r="M7" t="n">
-        <v>7.132332703456178</v>
+        <v>7.133845672518674</v>
       </c>
       <c r="N7" t="n">
-        <v>81.5162161980017</v>
+        <v>81.38523348500945</v>
       </c>
       <c r="O7" t="n">
-        <v>9.028633130103454</v>
+        <v>9.021376473965015</v>
       </c>
       <c r="P7" t="n">
-        <v>359.401675462305</v>
+        <v>359.2897581585347</v>
       </c>
       <c r="Q7" t="inlineStr"/>
       <c r="R7" t="inlineStr">
@@ -20019,28 +20151,28 @@
         <v>0.0502</v>
       </c>
       <c r="I8" t="n">
-        <v>-0.01185973546266744</v>
+        <v>0.0009055503016621076</v>
       </c>
       <c r="J8" t="n">
-        <v>308</v>
+        <v>310</v>
       </c>
       <c r="K8" t="n">
-        <v>255</v>
+        <v>257</v>
       </c>
       <c r="L8" t="n">
-        <v>5.625880428927754e-05</v>
+        <v>3.329739262092346e-07</v>
       </c>
       <c r="M8" t="n">
-        <v>8.945661535571981</v>
+        <v>8.940962172658734</v>
       </c>
       <c r="N8" t="n">
-        <v>132.5517100792544</v>
+        <v>132.0948312158753</v>
       </c>
       <c r="O8" t="n">
-        <v>11.51311035642647</v>
+        <v>11.49325155105705</v>
       </c>
       <c r="P8" t="n">
-        <v>372.5763570120158</v>
+        <v>372.454485696856</v>
       </c>
       <c r="Q8" t="inlineStr"/>
       <c r="R8" t="inlineStr">
@@ -20097,28 +20229,28 @@
         <v>0.0673</v>
       </c>
       <c r="I9" t="n">
-        <v>0.04876445850879598</v>
+        <v>0.05965983685173867</v>
       </c>
       <c r="J9" t="n">
-        <v>308</v>
+        <v>310</v>
       </c>
       <c r="K9" t="n">
-        <v>252</v>
+        <v>254</v>
       </c>
       <c r="L9" t="n">
-        <v>0.001259344274266549</v>
+        <v>0.001912835481884256</v>
       </c>
       <c r="M9" t="n">
-        <v>7.545309525159756</v>
+        <v>7.542618477191176</v>
       </c>
       <c r="N9" t="n">
-        <v>102.14784727631</v>
+        <v>101.6985984817937</v>
       </c>
       <c r="O9" t="n">
-        <v>10.10682181876726</v>
+        <v>10.08457230039002</v>
       </c>
       <c r="P9" t="n">
-        <v>366.2307163271486</v>
+        <v>366.1271711056938</v>
       </c>
       <c r="Q9" t="inlineStr"/>
       <c r="R9" t="inlineStr">
@@ -20175,28 +20307,28 @@
         <v>0.0764</v>
       </c>
       <c r="I10" t="n">
-        <v>0.1131452329882358</v>
+        <v>0.1246848121516276</v>
       </c>
       <c r="J10" t="n">
-        <v>308</v>
+        <v>310</v>
       </c>
       <c r="K10" t="n">
-        <v>241</v>
+        <v>243</v>
       </c>
       <c r="L10" t="n">
-        <v>0.008575485407068983</v>
+        <v>0.01055467659459008</v>
       </c>
       <c r="M10" t="n">
-        <v>6.7573145068639</v>
+        <v>6.752574531719166</v>
       </c>
       <c r="N10" t="n">
-        <v>81.27885629751903</v>
+        <v>80.97852168349678</v>
       </c>
       <c r="O10" t="n">
-        <v>9.0154787059545</v>
+        <v>8.998806681082597</v>
       </c>
       <c r="P10" t="n">
-        <v>359.453673559828</v>
+        <v>359.3459594990166</v>
       </c>
       <c r="Q10" t="inlineStr"/>
       <c r="R10" t="inlineStr">
@@ -20253,28 +20385,28 @@
         <v>0.0815</v>
       </c>
       <c r="I11" t="n">
-        <v>0.1619518737836664</v>
+        <v>0.1766650587539124</v>
       </c>
       <c r="J11" t="n">
-        <v>308</v>
+        <v>310</v>
       </c>
       <c r="K11" t="n">
-        <v>245</v>
+        <v>247</v>
       </c>
       <c r="L11" t="n">
-        <v>0.01595631829109367</v>
+        <v>0.01916413542285589</v>
       </c>
       <c r="M11" t="n">
-        <v>7.333608959729664</v>
+        <v>7.338205979606583</v>
       </c>
       <c r="N11" t="n">
-        <v>88.13715252254869</v>
+        <v>88.03132075852396</v>
       </c>
       <c r="O11" t="n">
-        <v>9.388138927527047</v>
+        <v>9.382500773169378</v>
       </c>
       <c r="P11" t="n">
-        <v>349.6847735751202</v>
+        <v>349.546023194449</v>
       </c>
       <c r="Q11" t="inlineStr"/>
       <c r="R11" t="inlineStr">
@@ -20331,28 +20463,28 @@
         <v>0.07539999999999999</v>
       </c>
       <c r="I12" t="n">
-        <v>0.1303759219136168</v>
+        <v>0.1493140558441343</v>
       </c>
       <c r="J12" t="n">
-        <v>308</v>
+        <v>310</v>
       </c>
       <c r="K12" t="n">
-        <v>245</v>
+        <v>247</v>
       </c>
       <c r="L12" t="n">
-        <v>0.007736594228035965</v>
+        <v>0.01023681786608555</v>
       </c>
       <c r="M12" t="n">
-        <v>8.033634055009315</v>
+        <v>8.049958408659675</v>
       </c>
       <c r="N12" t="n">
-        <v>117.2793452339611</v>
+        <v>117.3528068783451</v>
       </c>
       <c r="O12" t="n">
-        <v>10.82955886608319</v>
+        <v>10.8329500542717</v>
       </c>
       <c r="P12" t="n">
-        <v>350.4045491723771</v>
+        <v>350.2257775312071</v>
       </c>
       <c r="Q12" t="inlineStr"/>
       <c r="R12" t="inlineStr">
@@ -20409,28 +20541,28 @@
         <v>0.0871</v>
       </c>
       <c r="I13" t="n">
-        <v>0.1956432188691352</v>
+        <v>0.2128199863895609</v>
       </c>
       <c r="J13" t="n">
-        <v>308</v>
+        <v>310</v>
       </c>
       <c r="K13" t="n">
-        <v>243</v>
+        <v>245</v>
       </c>
       <c r="L13" t="n">
-        <v>0.02350420585099022</v>
+        <v>0.02798447750567812</v>
       </c>
       <c r="M13" t="n">
-        <v>7.349689233982992</v>
+        <v>7.356703641528166</v>
       </c>
       <c r="N13" t="n">
-        <v>86.11616243442607</v>
+        <v>86.2112340735935</v>
       </c>
       <c r="O13" t="n">
-        <v>9.279879440726914</v>
+        <v>9.285000488615685</v>
       </c>
       <c r="P13" t="n">
-        <v>356.1384162299616</v>
+        <v>355.9768569665063</v>
       </c>
       <c r="Q13" t="inlineStr"/>
       <c r="R13" t="inlineStr">
@@ -20487,28 +20619,28 @@
         <v>0.0713</v>
       </c>
       <c r="I14" t="n">
-        <v>0.1926932626705635</v>
+        <v>0.2099696340654825</v>
       </c>
       <c r="J14" t="n">
-        <v>308</v>
+        <v>310</v>
       </c>
       <c r="K14" t="n">
-        <v>238</v>
+        <v>240</v>
       </c>
       <c r="L14" t="n">
-        <v>0.0236664015717194</v>
+        <v>0.02828204033430937</v>
       </c>
       <c r="M14" t="n">
-        <v>7.100114036506412</v>
+        <v>7.111562573780327</v>
       </c>
       <c r="N14" t="n">
-        <v>85.28173668435358</v>
+        <v>85.40001751440241</v>
       </c>
       <c r="O14" t="n">
-        <v>9.234811134200502</v>
+        <v>9.241212989343033</v>
       </c>
       <c r="P14" t="n">
-        <v>364.7616149823482</v>
+        <v>364.6045217440196</v>
       </c>
       <c r="Q14" t="inlineStr"/>
       <c r="R14" t="inlineStr">
@@ -20565,28 +20697,28 @@
         <v>0.0808</v>
       </c>
       <c r="I15" t="n">
-        <v>0.1227580478850996</v>
+        <v>0.1407448658062588</v>
       </c>
       <c r="J15" t="n">
-        <v>308</v>
+        <v>310</v>
       </c>
       <c r="K15" t="n">
-        <v>251</v>
+        <v>253</v>
       </c>
       <c r="L15" t="n">
-        <v>0.007824052023548189</v>
+        <v>0.01034581495387965</v>
       </c>
       <c r="M15" t="n">
-        <v>7.921979111490518</v>
+        <v>7.932711332663582</v>
       </c>
       <c r="N15" t="n">
-        <v>105.9248178073125</v>
+        <v>106.089434888082</v>
       </c>
       <c r="O15" t="n">
-        <v>10.29197832330172</v>
+        <v>10.29997256734609</v>
       </c>
       <c r="P15" t="n">
-        <v>360.843998424656</v>
+        <v>360.6734520102801</v>
       </c>
       <c r="Q15" t="inlineStr"/>
       <c r="R15" t="inlineStr">
@@ -20637,28 +20769,28 @@
       <c r="G16" t="inlineStr"/>
       <c r="H16" t="inlineStr"/>
       <c r="I16" t="n">
-        <v>0.970374825874143</v>
+        <v>0.9709524709433622</v>
       </c>
       <c r="J16" t="n">
-        <v>308</v>
+        <v>310</v>
       </c>
       <c r="K16" t="n">
-        <v>232</v>
+        <v>233</v>
       </c>
       <c r="L16" t="n">
-        <v>0.123742105674162</v>
+        <v>0.1249778485557164</v>
       </c>
       <c r="M16" t="n">
-        <v>15.64403116992808</v>
+        <v>15.58035291415478</v>
       </c>
       <c r="N16" t="n">
-        <v>366.9742875298941</v>
+        <v>365.4010989442219</v>
       </c>
       <c r="O16" t="n">
-        <v>19.15657295890615</v>
+        <v>19.11546753140561</v>
       </c>
       <c r="P16" t="n">
-        <v>352.066044044533</v>
+        <v>352.0606426282723</v>
       </c>
       <c r="Q16" t="inlineStr"/>
       <c r="R16" t="inlineStr">
@@ -20696,7 +20828,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:Q309"/>
+  <dimension ref="A1:Q311"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -43807,6 +43939,176 @@
         </is>
       </c>
     </row>
+    <row r="310">
+      <c r="A310" s="1" t="inlineStr">
+        <is>
+          <t>2025-02-23 22:06:19+00:00</t>
+        </is>
+      </c>
+      <c r="B310" t="inlineStr">
+        <is>
+          <t>-38.12392559787967,174.73341383826585</t>
+        </is>
+      </c>
+      <c r="C310" t="inlineStr">
+        <is>
+          <t>-38.12364302991101,174.7342426144375</t>
+        </is>
+      </c>
+      <c r="D310" t="inlineStr">
+        <is>
+          <t>-38.12322280817401,174.73497295696995</t>
+        </is>
+      </c>
+      <c r="E310" t="inlineStr">
+        <is>
+          <t>-38.12281124274107,174.73563566659732</t>
+        </is>
+      </c>
+      <c r="F310" t="inlineStr">
+        <is>
+          <t>-38.12234150327376,174.73630266769</t>
+        </is>
+      </c>
+      <c r="G310" t="inlineStr">
+        <is>
+          <t>-38.1218991934408,174.7370088573321</t>
+        </is>
+      </c>
+      <c r="H310" t="inlineStr">
+        <is>
+          <t>-38.121324520602236,174.73755198600747</t>
+        </is>
+      </c>
+      <c r="I310" t="inlineStr">
+        <is>
+          <t>-38.12085810620435,174.73822831186953</t>
+        </is>
+      </c>
+      <c r="J310" t="inlineStr">
+        <is>
+          <t>-38.12039896952796,174.73891528090047</t>
+        </is>
+      </c>
+      <c r="K310" t="inlineStr">
+        <is>
+          <t>-38.11995930219811,174.73962463839777</t>
+        </is>
+      </c>
+      <c r="L310" t="inlineStr">
+        <is>
+          <t>-38.11949930802723,174.74030768556545</t>
+        </is>
+      </c>
+      <c r="M310" t="inlineStr">
+        <is>
+          <t>-38.11897713261762,174.74091210042852</t>
+        </is>
+      </c>
+      <c r="N310" t="inlineStr">
+        <is>
+          <t>-38.11842054294813,174.74144954268272</t>
+        </is>
+      </c>
+      <c r="O310" t="inlineStr">
+        <is>
+          <t>-38.117927779407275,174.74208489614608</t>
+        </is>
+      </c>
+      <c r="P310" t="inlineStr">
+        <is>
+          <t>-38.117385054240685,174.7426603113893</t>
+        </is>
+      </c>
+      <c r="Q310" t="inlineStr">
+        <is>
+          <t>L8</t>
+        </is>
+      </c>
+    </row>
+    <row r="311">
+      <c r="A311" s="1" t="inlineStr">
+        <is>
+          <t>2025-04-12 22:05:36+00:00</t>
+        </is>
+      </c>
+      <c r="B311" t="inlineStr">
+        <is>
+          <t>-38.123825122868766,174.73337382957763</t>
+        </is>
+      </c>
+      <c r="C311" t="inlineStr">
+        <is>
+          <t>-38.12353726921489,174.73420050034986</t>
+        </is>
+      </c>
+      <c r="D311" t="inlineStr">
+        <is>
+          <t>-38.123184032423595,174.73494521533095</t>
+        </is>
+      </c>
+      <c r="E311" t="inlineStr">
+        <is>
+          <t>-38.122779883900655,174.73559871349738</t>
+        </is>
+      </c>
+      <c r="F311" t="inlineStr">
+        <is>
+          <t>-38.12231774525199,174.73627333473254</t>
+        </is>
+      </c>
+      <c r="G311" t="inlineStr">
+        <is>
+          <t>-38.12185004587557,174.73694826445876</t>
+        </is>
+      </c>
+      <c r="H311" t="inlineStr">
+        <is>
+          <t>-38.12127159452593,174.7374868571839</t>
+        </is>
+      </c>
+      <c r="I311" t="inlineStr">
+        <is>
+          <t>-38.12084087459866,174.7382071163947</t>
+        </is>
+      </c>
+      <c r="J311" t="inlineStr">
+        <is>
+          <t>-38.12039170196698,174.73890651268252</t>
+        </is>
+      </c>
+      <c r="K311" t="inlineStr">
+        <is>
+          <t>-38.11996300002522,174.73962892777908</t>
+        </is>
+      </c>
+      <c r="L311" t="inlineStr">
+        <is>
+          <t>-38.1194621887706,174.7402654805426</t>
+        </is>
+      </c>
+      <c r="M311" t="inlineStr">
+        <is>
+          <t>-38.11897431679083,174.7409086768154</t>
+        </is>
+      </c>
+      <c r="N311" t="inlineStr">
+        <is>
+          <t>-38.11844408775461,174.74148228857973</t>
+        </is>
+      </c>
+      <c r="O311" t="inlineStr">
+        <is>
+          <t>-38.1179323660498,174.7420917220526</t>
+        </is>
+      </c>
+      <c r="P311" t="inlineStr"/>
+      <c r="Q311" t="inlineStr">
+        <is>
+          <t>L8</t>
+        </is>
+      </c>
+    </row>
   </sheetData>
   <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
 </worksheet>

--- a/data/nzd0246/nzd0246.xlsx
+++ b/data/nzd0246/nzd0246.xlsx
@@ -428,7 +428,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:Q311"/>
+  <dimension ref="A1:Q313"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -16301,6 +16301,120 @@
         </is>
       </c>
     </row>
+    <row r="312">
+      <c r="A312" s="1" t="inlineStr">
+        <is>
+          <t>2025-04-28 22:05:51+00:00</t>
+        </is>
+      </c>
+      <c r="B312" t="n">
+        <v>350.04</v>
+      </c>
+      <c r="C312" t="n">
+        <v>357.87</v>
+      </c>
+      <c r="D312" t="n">
+        <v>377.9033333333334</v>
+      </c>
+      <c r="E312" t="n">
+        <v>377.81</v>
+      </c>
+      <c r="F312" t="n">
+        <v>375.3133333333333</v>
+      </c>
+      <c r="G312" t="n">
+        <v>370.2614285714286</v>
+      </c>
+      <c r="H312" t="n">
+        <v>391.5622222222222</v>
+      </c>
+      <c r="I312" t="n">
+        <v>376.6466666666667</v>
+      </c>
+      <c r="J312" t="n">
+        <v>366.4114285714285</v>
+      </c>
+      <c r="K312" t="n">
+        <v>363.4533333333333</v>
+      </c>
+      <c r="L312" t="n">
+        <v>366.1915384615385</v>
+      </c>
+      <c r="M312" t="n">
+        <v>372.1533333333334</v>
+      </c>
+      <c r="N312" t="n">
+        <v>381.8015384615384</v>
+      </c>
+      <c r="O312" t="n">
+        <v>377.2714285714285</v>
+      </c>
+      <c r="P312" t="n">
+        <v>374.5414285714286</v>
+      </c>
+      <c r="Q312" t="inlineStr">
+        <is>
+          <t>L8</t>
+        </is>
+      </c>
+    </row>
+    <row r="313">
+      <c r="A313" s="1" t="inlineStr">
+        <is>
+          <t>2025-05-06 22:05:42+00:00</t>
+        </is>
+      </c>
+      <c r="B313" t="n">
+        <v>351.57</v>
+      </c>
+      <c r="C313" t="n">
+        <v>348.325</v>
+      </c>
+      <c r="D313" t="n">
+        <v>370.1733333333333</v>
+      </c>
+      <c r="E313" t="n">
+        <v>365.925</v>
+      </c>
+      <c r="F313" t="n">
+        <v>362.4733333333334</v>
+      </c>
+      <c r="G313" t="n">
+        <v>357.9757142857143</v>
+      </c>
+      <c r="H313" t="n">
+        <v>365.2855555555556</v>
+      </c>
+      <c r="I313" t="n">
+        <v>366.5966666666667</v>
+      </c>
+      <c r="J313" t="n">
+        <v>362.2957142857143</v>
+      </c>
+      <c r="K313" t="n">
+        <v>362.1333333333333</v>
+      </c>
+      <c r="L313" t="n">
+        <v>359.4792307692308</v>
+      </c>
+      <c r="M313" t="n">
+        <v>369.8933333333334</v>
+      </c>
+      <c r="N313" t="n">
+        <v>367.5692307692308</v>
+      </c>
+      <c r="O313" t="n">
+        <v>365.1557142857143</v>
+      </c>
+      <c r="P313" t="n">
+        <v>363.2457142857143</v>
+      </c>
+      <c r="Q313" t="inlineStr">
+        <is>
+          <t>L9</t>
+        </is>
+      </c>
+    </row>
   </sheetData>
   <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
 </worksheet>
@@ -16312,7 +16426,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:B319"/>
+  <dimension ref="A1:B321"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -19510,6 +19624,26 @@
       </c>
       <c r="B319" t="n">
         <v>1.33</v>
+      </c>
+    </row>
+    <row r="320">
+      <c r="A320" t="inlineStr">
+        <is>
+          <t>2025-04-28 22:10:00+00:00</t>
+        </is>
+      </c>
+      <c r="B320" t="n">
+        <v>1.72</v>
+      </c>
+    </row>
+    <row r="321">
+      <c r="A321" t="inlineStr">
+        <is>
+          <t>2025-05-06 22:10:00+00:00</t>
+        </is>
+      </c>
+      <c r="B321" t="n">
+        <v>-0.47</v>
       </c>
     </row>
   </sheetData>
@@ -19683,28 +19817,28 @@
         <v>0.1182</v>
       </c>
       <c r="I2" t="n">
-        <v>-0.109253446248077</v>
+        <v>-0.09499352484210297</v>
       </c>
       <c r="J2" t="n">
-        <v>310</v>
+        <v>312</v>
       </c>
       <c r="K2" t="n">
-        <v>241</v>
+        <v>243</v>
       </c>
       <c r="L2" t="n">
-        <v>0.005943225793966556</v>
+        <v>0.004552970323602468</v>
       </c>
       <c r="M2" t="n">
-        <v>8.250137944557556</v>
+        <v>8.261267337805135</v>
       </c>
       <c r="N2" t="n">
-        <v>114.6460028283648</v>
+        <v>114.3676954250382</v>
       </c>
       <c r="O2" t="n">
-        <v>10.70728737021496</v>
+        <v>10.69428330581522</v>
       </c>
       <c r="P2" t="n">
-        <v>344.5477629637253</v>
+        <v>344.4124881531737</v>
       </c>
       <c r="Q2" t="inlineStr"/>
       <c r="R2" t="inlineStr">
@@ -19761,28 +19895,28 @@
         <v>0.0892</v>
       </c>
       <c r="I3" t="n">
-        <v>-0.09463035649639115</v>
+        <v>-0.09335068221868106</v>
       </c>
       <c r="J3" t="n">
-        <v>310</v>
+        <v>312</v>
       </c>
       <c r="K3" t="n">
-        <v>247</v>
+        <v>249</v>
       </c>
       <c r="L3" t="n">
-        <v>0.005231385361808893</v>
+        <v>0.005173400584922661</v>
       </c>
       <c r="M3" t="n">
-        <v>8.010772380644275</v>
+        <v>7.984702836052874</v>
       </c>
       <c r="N3" t="n">
-        <v>95.46375592595702</v>
+        <v>94.88500783443534</v>
       </c>
       <c r="O3" t="n">
-        <v>9.770555558716046</v>
+        <v>9.740893585007248</v>
       </c>
       <c r="P3" t="n">
-        <v>354.7259147763879</v>
+        <v>354.7137310806361</v>
       </c>
       <c r="Q3" t="inlineStr"/>
       <c r="R3" t="inlineStr">
@@ -19839,28 +19973,28 @@
         <v>0.0868</v>
       </c>
       <c r="I4" t="n">
-        <v>-0.008993268626204009</v>
+        <v>-0.006144272405829798</v>
       </c>
       <c r="J4" t="n">
-        <v>310</v>
+        <v>312</v>
       </c>
       <c r="K4" t="n">
-        <v>246</v>
+        <v>248</v>
       </c>
       <c r="L4" t="n">
-        <v>4.84200778609889e-05</v>
+        <v>2.298660494615135e-05</v>
       </c>
       <c r="M4" t="n">
-        <v>7.321478869893909</v>
+        <v>7.293886450135139</v>
       </c>
       <c r="N4" t="n">
-        <v>93.55296712163238</v>
+        <v>92.94374914694642</v>
       </c>
       <c r="O4" t="n">
-        <v>9.672278279786639</v>
+        <v>9.640733848984029</v>
       </c>
       <c r="P4" t="n">
-        <v>372.4940773561678</v>
+        <v>372.4670607004878</v>
       </c>
       <c r="Q4" t="inlineStr"/>
       <c r="R4" t="inlineStr">
@@ -19917,28 +20051,28 @@
         <v>0.0888</v>
       </c>
       <c r="I5" t="n">
-        <v>-0.0115198244634451</v>
+        <v>-0.005225676506312025</v>
       </c>
       <c r="J5" t="n">
-        <v>310</v>
+        <v>312</v>
       </c>
       <c r="K5" t="n">
-        <v>239</v>
+        <v>241</v>
       </c>
       <c r="L5" t="n">
-        <v>9.185341402251357e-05</v>
+        <v>1.917597929113057e-05</v>
       </c>
       <c r="M5" t="n">
-        <v>6.651972670498353</v>
+        <v>6.646372890835594</v>
       </c>
       <c r="N5" t="n">
-        <v>79.82047093127068</v>
+        <v>79.56399798209499</v>
       </c>
       <c r="O5" t="n">
-        <v>8.934230293162958</v>
+        <v>8.919865356724561</v>
       </c>
       <c r="P5" t="n">
-        <v>368.4247543136523</v>
+        <v>368.3648892178806</v>
       </c>
       <c r="Q5" t="inlineStr"/>
       <c r="R5" t="inlineStr">
@@ -19995,28 +20129,28 @@
         <v>0.08119999999999999</v>
       </c>
       <c r="I6" t="n">
-        <v>-0.01957746678483489</v>
+        <v>-0.01106408636109039</v>
       </c>
       <c r="J6" t="n">
-        <v>310</v>
+        <v>312</v>
       </c>
       <c r="K6" t="n">
-        <v>257</v>
+        <v>259</v>
       </c>
       <c r="L6" t="n">
-        <v>0.0002188646765155511</v>
+        <v>7.076731313460094e-05</v>
       </c>
       <c r="M6" t="n">
-        <v>7.0382781889709</v>
+        <v>7.03026381343151</v>
       </c>
       <c r="N6" t="n">
-        <v>96.55235012724953</v>
+        <v>96.35031799860454</v>
       </c>
       <c r="O6" t="n">
-        <v>9.826105542240503</v>
+        <v>9.815819782300638</v>
       </c>
       <c r="P6" t="n">
-        <v>363.9274622267226</v>
+        <v>363.8458196581626</v>
       </c>
       <c r="Q6" t="inlineStr"/>
       <c r="R6" t="inlineStr">
@@ -20073,28 +20207,28 @@
         <v>0.08069999999999999</v>
       </c>
       <c r="I7" t="n">
-        <v>-0.01386019944782299</v>
+        <v>-0.005552907331328238</v>
       </c>
       <c r="J7" t="n">
-        <v>310</v>
+        <v>312</v>
       </c>
       <c r="K7" t="n">
-        <v>255</v>
+        <v>257</v>
       </c>
       <c r="L7" t="n">
-        <v>0.0001288868033100243</v>
+        <v>2.094825801524092e-05</v>
       </c>
       <c r="M7" t="n">
-        <v>7.133845672518674</v>
+        <v>7.127742586710582</v>
       </c>
       <c r="N7" t="n">
-        <v>81.38523348500945</v>
+        <v>81.24940643393325</v>
       </c>
       <c r="O7" t="n">
-        <v>9.021376473965015</v>
+        <v>9.013845263478469</v>
       </c>
       <c r="P7" t="n">
-        <v>359.2897581585347</v>
+        <v>359.2103613390329</v>
       </c>
       <c r="Q7" t="inlineStr"/>
       <c r="R7" t="inlineStr">
@@ -20151,28 +20285,28 @@
         <v>0.0502</v>
       </c>
       <c r="I8" t="n">
-        <v>0.0009055503016621076</v>
+        <v>0.01060624876084915</v>
       </c>
       <c r="J8" t="n">
-        <v>310</v>
+        <v>312</v>
       </c>
       <c r="K8" t="n">
-        <v>257</v>
+        <v>259</v>
       </c>
       <c r="L8" t="n">
-        <v>3.329739262092346e-07</v>
+        <v>4.599612048061807e-05</v>
       </c>
       <c r="M8" t="n">
-        <v>8.940962172658734</v>
+        <v>8.977710707490537</v>
       </c>
       <c r="N8" t="n">
-        <v>132.0948312158753</v>
+        <v>132.6735385063167</v>
       </c>
       <c r="O8" t="n">
-        <v>11.49325155105705</v>
+        <v>11.51839999766967</v>
       </c>
       <c r="P8" t="n">
-        <v>372.454485696856</v>
+        <v>372.3616352452677</v>
       </c>
       <c r="Q8" t="inlineStr"/>
       <c r="R8" t="inlineStr">
@@ -20229,28 +20363,28 @@
         <v>0.0673</v>
       </c>
       <c r="I9" t="n">
-        <v>0.05965983685173867</v>
+        <v>0.06600405777527986</v>
       </c>
       <c r="J9" t="n">
-        <v>310</v>
+        <v>312</v>
       </c>
       <c r="K9" t="n">
-        <v>254</v>
+        <v>256</v>
       </c>
       <c r="L9" t="n">
-        <v>0.001912835481884256</v>
+        <v>0.002376641668745405</v>
       </c>
       <c r="M9" t="n">
-        <v>7.542618477191176</v>
+        <v>7.52623236683233</v>
       </c>
       <c r="N9" t="n">
-        <v>101.6985984817937</v>
+        <v>101.2204719951519</v>
       </c>
       <c r="O9" t="n">
-        <v>10.08457230039002</v>
+        <v>10.06083853340028</v>
       </c>
       <c r="P9" t="n">
-        <v>366.1271711056938</v>
+        <v>366.0666296309857</v>
       </c>
       <c r="Q9" t="inlineStr"/>
       <c r="R9" t="inlineStr">
@@ -20307,28 +20441,28 @@
         <v>0.0764</v>
       </c>
       <c r="I10" t="n">
-        <v>0.1246848121516276</v>
+        <v>0.1276839532085653</v>
       </c>
       <c r="J10" t="n">
-        <v>310</v>
+        <v>312</v>
       </c>
       <c r="K10" t="n">
-        <v>243</v>
+        <v>245</v>
       </c>
       <c r="L10" t="n">
-        <v>0.01055467659459008</v>
+        <v>0.0112719237747666</v>
       </c>
       <c r="M10" t="n">
-        <v>6.752574531719166</v>
+        <v>6.713448694352542</v>
       </c>
       <c r="N10" t="n">
-        <v>80.97852168349678</v>
+        <v>80.37758058064875</v>
       </c>
       <c r="O10" t="n">
-        <v>8.998806681082597</v>
+        <v>8.965354459286523</v>
       </c>
       <c r="P10" t="n">
-        <v>359.3459594990166</v>
+        <v>359.3178373045645</v>
       </c>
       <c r="Q10" t="inlineStr"/>
       <c r="R10" t="inlineStr">
@@ -20385,28 +20519,28 @@
         <v>0.0815</v>
       </c>
       <c r="I11" t="n">
-        <v>0.1766650587539124</v>
+        <v>0.1909896434810084</v>
       </c>
       <c r="J11" t="n">
-        <v>310</v>
+        <v>312</v>
       </c>
       <c r="K11" t="n">
-        <v>247</v>
+        <v>249</v>
       </c>
       <c r="L11" t="n">
-        <v>0.01916413542285589</v>
+        <v>0.02259814832065188</v>
       </c>
       <c r="M11" t="n">
-        <v>7.338205979606583</v>
+        <v>7.340336512618995</v>
       </c>
       <c r="N11" t="n">
-        <v>88.03132075852396</v>
+        <v>87.91815096250041</v>
       </c>
       <c r="O11" t="n">
-        <v>9.382500773169378</v>
+        <v>9.3764679364087</v>
       </c>
       <c r="P11" t="n">
-        <v>349.546023194449</v>
+        <v>349.4102063348907</v>
       </c>
       <c r="Q11" t="inlineStr"/>
       <c r="R11" t="inlineStr">
@@ -20463,28 +20597,28 @@
         <v>0.07539999999999999</v>
       </c>
       <c r="I12" t="n">
-        <v>0.1493140558441343</v>
+        <v>0.1640382015499825</v>
       </c>
       <c r="J12" t="n">
-        <v>310</v>
+        <v>312</v>
       </c>
       <c r="K12" t="n">
-        <v>247</v>
+        <v>249</v>
       </c>
       <c r="L12" t="n">
-        <v>0.01023681786608555</v>
+        <v>0.0124988136943478</v>
       </c>
       <c r="M12" t="n">
-        <v>8.049958408659675</v>
+        <v>8.051510391538011</v>
       </c>
       <c r="N12" t="n">
-        <v>117.3528068783451</v>
+        <v>117.1000689216948</v>
       </c>
       <c r="O12" t="n">
-        <v>10.8329500542717</v>
+        <v>10.8212785252804</v>
       </c>
       <c r="P12" t="n">
-        <v>350.2257775312071</v>
+        <v>350.0861878813698</v>
       </c>
       <c r="Q12" t="inlineStr"/>
       <c r="R12" t="inlineStr">
@@ -20541,28 +20675,28 @@
         <v>0.0871</v>
       </c>
       <c r="I13" t="n">
-        <v>0.2128199863895609</v>
+        <v>0.2289072388256446</v>
       </c>
       <c r="J13" t="n">
-        <v>310</v>
+        <v>312</v>
       </c>
       <c r="K13" t="n">
-        <v>245</v>
+        <v>247</v>
       </c>
       <c r="L13" t="n">
-        <v>0.02798447750567812</v>
+        <v>0.0325866150415377</v>
       </c>
       <c r="M13" t="n">
-        <v>7.356703641528166</v>
+        <v>7.359008190712252</v>
       </c>
       <c r="N13" t="n">
-        <v>86.2112340735935</v>
+        <v>86.24288984528006</v>
       </c>
       <c r="O13" t="n">
-        <v>9.285000488615685</v>
+        <v>9.286705004751688</v>
       </c>
       <c r="P13" t="n">
-        <v>355.9768569665063</v>
+        <v>355.8247681829419</v>
       </c>
       <c r="Q13" t="inlineStr"/>
       <c r="R13" t="inlineStr">
@@ -20619,28 +20753,28 @@
         <v>0.0713</v>
       </c>
       <c r="I14" t="n">
-        <v>0.2099696340654825</v>
+        <v>0.2179382539957758</v>
       </c>
       <c r="J14" t="n">
-        <v>310</v>
+        <v>312</v>
       </c>
       <c r="K14" t="n">
-        <v>240</v>
+        <v>242</v>
       </c>
       <c r="L14" t="n">
-        <v>0.02828204033430937</v>
+        <v>0.03080635710262125</v>
       </c>
       <c r="M14" t="n">
-        <v>7.111562573780327</v>
+        <v>7.107468864569609</v>
       </c>
       <c r="N14" t="n">
-        <v>85.40001751440241</v>
+        <v>85.2878028515975</v>
       </c>
       <c r="O14" t="n">
-        <v>9.241212989343033</v>
+        <v>9.23513956860412</v>
       </c>
       <c r="P14" t="n">
-        <v>364.6045217440196</v>
+        <v>364.5316907360335</v>
       </c>
       <c r="Q14" t="inlineStr"/>
       <c r="R14" t="inlineStr">
@@ -20697,28 +20831,28 @@
         <v>0.0808</v>
       </c>
       <c r="I15" t="n">
-        <v>0.1407448658062588</v>
+        <v>0.1514819199308754</v>
       </c>
       <c r="J15" t="n">
-        <v>310</v>
+        <v>312</v>
       </c>
       <c r="K15" t="n">
-        <v>253</v>
+        <v>255</v>
       </c>
       <c r="L15" t="n">
-        <v>0.01034581495387965</v>
+        <v>0.01210216368795325</v>
       </c>
       <c r="M15" t="n">
-        <v>7.932711332663582</v>
+        <v>7.915416965674897</v>
       </c>
       <c r="N15" t="n">
-        <v>106.089434888082</v>
+        <v>105.9103961517911</v>
       </c>
       <c r="O15" t="n">
-        <v>10.29997256734609</v>
+        <v>10.2912776734374</v>
       </c>
       <c r="P15" t="n">
-        <v>360.6734520102801</v>
+        <v>360.5711080314432</v>
       </c>
       <c r="Q15" t="inlineStr"/>
       <c r="R15" t="inlineStr">
@@ -20769,28 +20903,28 @@
       <c r="G16" t="inlineStr"/>
       <c r="H16" t="inlineStr"/>
       <c r="I16" t="n">
-        <v>0.9709524709433622</v>
+        <v>0.9566227131691653</v>
       </c>
       <c r="J16" t="n">
-        <v>310</v>
+        <v>312</v>
       </c>
       <c r="K16" t="n">
-        <v>233</v>
+        <v>235</v>
       </c>
       <c r="L16" t="n">
-        <v>0.1249778485557164</v>
+        <v>0.1237135627347709</v>
       </c>
       <c r="M16" t="n">
-        <v>15.58035291415478</v>
+        <v>15.4999950182482</v>
       </c>
       <c r="N16" t="n">
-        <v>365.4010989442219</v>
+        <v>363.1208554656366</v>
       </c>
       <c r="O16" t="n">
-        <v>19.11546753140561</v>
+        <v>19.0557302527517</v>
       </c>
       <c r="P16" t="n">
-        <v>352.0606426282723</v>
+        <v>352.195801549018</v>
       </c>
       <c r="Q16" t="inlineStr"/>
       <c r="R16" t="inlineStr">
@@ -20828,7 +20962,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:Q311"/>
+  <dimension ref="A1:Q313"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -44109,6 +44243,180 @@
         </is>
       </c>
     </row>
+    <row r="312">
+      <c r="A312" s="1" t="inlineStr">
+        <is>
+          <t>2025-04-28 22:05:51+00:00</t>
+        </is>
+      </c>
+      <c r="B312" t="inlineStr">
+        <is>
+          <t>-38.12382658401105,174.7333744113969</t>
+        </is>
+      </c>
+      <c r="C312" t="inlineStr">
+        <is>
+          <t>-38.12355579130492,174.73420787586764</t>
+        </is>
+      </c>
+      <c r="D312" t="inlineStr">
+        <is>
+          <t>-38.123197602629766,174.7349549239659</t>
+        </is>
+      </c>
+      <c r="E312" t="inlineStr">
+        <is>
+          <t>-38.122768507662066,174.73558530780653</t>
+        </is>
+      </c>
+      <c r="F312" t="inlineStr">
+        <is>
+          <t>-38.12230097487894,174.736252629127</t>
+        </is>
+      </c>
+      <c r="G312" t="inlineStr">
+        <is>
+          <t>-38.12184668023432,174.7369441150436</t>
+        </is>
+      </c>
+      <c r="H312" t="inlineStr">
+        <is>
+          <t>-38.121222903649944,174.73742694016272</t>
+        </is>
+      </c>
+      <c r="I312" t="inlineStr">
+        <is>
+          <t>-38.120833378848886,174.73819789636627</t>
+        </is>
+      </c>
+      <c r="J312" t="inlineStr">
+        <is>
+          <t>-38.120413020143836,174.73893223279345</t>
+        </is>
+      </c>
+      <c r="K312" t="inlineStr">
+        <is>
+          <t>-38.11995562651351,174.73962037470181</t>
+        </is>
+      </c>
+      <c r="L312" t="inlineStr">
+        <is>
+          <t>-38.11947143893832,174.74027599808423</t>
+        </is>
+      </c>
+      <c r="M312" t="inlineStr">
+        <is>
+          <t>-38.118969443244204,174.74090275133173</t>
+        </is>
+      </c>
+      <c r="N312" t="inlineStr">
+        <is>
+          <t>-38.118419162075476,174.741447622179</t>
+        </is>
+      </c>
+      <c r="O312" t="inlineStr">
+        <is>
+          <t>-38.11791910648209,174.74207198897972</t>
+        </is>
+      </c>
+      <c r="P312" t="inlineStr">
+        <is>
+          <t>-38.11740270856082,174.74268658481503</t>
+        </is>
+      </c>
+      <c r="Q312" t="inlineStr">
+        <is>
+          <t>L8</t>
+        </is>
+      </c>
+    </row>
+    <row r="313">
+      <c r="A313" s="1" t="inlineStr">
+        <is>
+          <t>2025-05-06 22:05:42+00:00</t>
+        </is>
+      </c>
+      <c r="B313" t="inlineStr">
+        <is>
+          <t>-38.12381343373033,174.73336917502425</t>
+        </is>
+      </c>
+      <c r="C313" t="inlineStr">
+        <is>
+          <t>-38.12363782997477,174.73424054381098</t>
+        </is>
+      </c>
+      <c r="D313" t="inlineStr">
+        <is>
+          <t>-38.123258237123494,174.73499830421179</t>
+        </is>
+      </c>
+      <c r="E313" t="inlineStr">
+        <is>
+          <t>-38.12284688826371,174.73567767115844</t>
+        </is>
+      </c>
+      <c r="F313" t="inlineStr">
+        <is>
+          <t>-38.122383794683074,174.7363548830559</t>
+        </is>
+      </c>
+      <c r="G313" t="inlineStr">
+        <is>
+          <t>-38.121925980232845,174.73704188218758</t>
+        </is>
+      </c>
+      <c r="H313" t="inlineStr">
+        <is>
+          <t>-38.1213926647526,174.73763584182524</t>
+        </is>
+      </c>
+      <c r="I313" t="inlineStr">
+        <is>
+          <t>-38.12089832044814,174.73827777684772</t>
+        </is>
+      </c>
+      <c r="J313" t="inlineStr">
+        <is>
+          <t>-38.120439863521376,174.73896461902083</t>
+        </is>
+      </c>
+      <c r="K313" t="inlineStr">
+        <is>
+          <t>-38.11996439501385,174.739630545929</t>
+        </is>
+      </c>
+      <c r="L313" t="inlineStr">
+        <is>
+          <t>-38.11951643165709,174.74032715535083</t>
+        </is>
+      </c>
+      <c r="M313" t="inlineStr">
+        <is>
+          <t>-38.11898412886374,174.74092060679155</t>
+        </is>
+      </c>
+      <c r="N313" t="inlineStr">
+        <is>
+          <t>-38.118505475881726,174.74156766677612</t>
+        </is>
+      </c>
+      <c r="O313" t="inlineStr">
+        <is>
+          <t>-38.11798983247525,174.74217724452788</t>
+        </is>
+      </c>
+      <c r="P313" t="inlineStr">
+        <is>
+          <t>-38.117468647433064,174.74278471623353</t>
+        </is>
+      </c>
+      <c r="Q313" t="inlineStr">
+        <is>
+          <t>L9</t>
+        </is>
+      </c>
+    </row>
   </sheetData>
   <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
 </worksheet>

--- a/data/nzd0246/nzd0246.xlsx
+++ b/data/nzd0246/nzd0246.xlsx
@@ -1,16 +1,16 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
-<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
+<workbook xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
   <workbookPr/>
   <workbookProtection/>
   <bookViews>
     <workbookView visibility="visible" minimized="0" showHorizontalScroll="1" showVerticalScroll="1" showSheetTabs="1" tabRatio="600" firstSheet="0" activeTab="0" autoFilterDateGrouping="1"/>
   </bookViews>
   <sheets>
-    <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="Intersects" sheetId="1" state="visible" r:id="rId1"/>
-    <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="Tides" sheetId="2" state="visible" r:id="rId2"/>
-    <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="Transects" sheetId="3" state="visible" r:id="rId3"/>
-    <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="Intersect points" sheetId="4" state="visible" r:id="rId4"/>
+    <sheet name="Intersects" sheetId="1" state="visible" r:id="rId1"/>
+    <sheet name="Tides" sheetId="2" state="visible" r:id="rId2"/>
+    <sheet name="Transects" sheetId="3" state="visible" r:id="rId3"/>
+    <sheet name="Intersect points" sheetId="4" state="visible" r:id="rId4"/>
   </sheets>
   <definedNames/>
   <calcPr calcId="124519" fullCalcOnLoad="1"/>
@@ -428,7 +428,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:Q313"/>
+  <dimension ref="A1:Q315"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -16415,6 +16415,120 @@
         </is>
       </c>
     </row>
+    <row r="314">
+      <c r="A314" s="1" t="inlineStr">
+        <is>
+          <t>2025-05-30 22:05:54+00:00</t>
+        </is>
+      </c>
+      <c r="B314" t="n">
+        <v>347.81</v>
+      </c>
+      <c r="C314" t="n">
+        <v>357.47</v>
+      </c>
+      <c r="D314" t="n">
+        <v>374.62</v>
+      </c>
+      <c r="E314" t="n">
+        <v>366.72</v>
+      </c>
+      <c r="F314" t="n">
+        <v>364.94</v>
+      </c>
+      <c r="G314" t="n">
+        <v>358.4828571428571</v>
+      </c>
+      <c r="H314" t="n">
+        <v>368.87</v>
+      </c>
+      <c r="I314" t="n">
+        <v>364.95</v>
+      </c>
+      <c r="J314" t="n">
+        <v>359.5728571428572</v>
+      </c>
+      <c r="K314" t="n">
+        <v>354.77</v>
+      </c>
+      <c r="L314" t="n">
+        <v>360.6584615384616</v>
+      </c>
+      <c r="M314" t="n">
+        <v>367.67</v>
+      </c>
+      <c r="N314" t="n">
+        <v>372.5284615384616</v>
+      </c>
+      <c r="O314" t="n">
+        <v>367.8528571428572</v>
+      </c>
+      <c r="P314" t="n">
+        <v>349.7328571428571</v>
+      </c>
+      <c r="Q314" t="inlineStr">
+        <is>
+          <t>L8</t>
+        </is>
+      </c>
+    </row>
+    <row r="315">
+      <c r="A315" s="1" t="inlineStr">
+        <is>
+          <t>2025-06-07 22:05:53+00:00</t>
+        </is>
+      </c>
+      <c r="B315" t="n">
+        <v>361.36</v>
+      </c>
+      <c r="C315" t="n">
+        <v>368.105</v>
+      </c>
+      <c r="D315" t="n">
+        <v>377.55</v>
+      </c>
+      <c r="E315" t="n">
+        <v>371.575</v>
+      </c>
+      <c r="F315" t="n">
+        <v>371.36</v>
+      </c>
+      <c r="G315" t="n">
+        <v>361.8928571428572</v>
+      </c>
+      <c r="H315" t="n">
+        <v>371.9533333333333</v>
+      </c>
+      <c r="I315" t="n">
+        <v>366.01</v>
+      </c>
+      <c r="J315" t="n">
+        <v>362.4728571428572</v>
+      </c>
+      <c r="K315" t="n">
+        <v>358.25</v>
+      </c>
+      <c r="L315" t="n">
+        <v>358.0276923076923</v>
+      </c>
+      <c r="M315" t="n">
+        <v>362.88</v>
+      </c>
+      <c r="N315" t="n">
+        <v>368.9476923076923</v>
+      </c>
+      <c r="O315" t="n">
+        <v>364.6328571428572</v>
+      </c>
+      <c r="P315" t="n">
+        <v>356.1428571428572</v>
+      </c>
+      <c r="Q315" t="inlineStr">
+        <is>
+          <t>L9</t>
+        </is>
+      </c>
+    </row>
   </sheetData>
   <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
 </worksheet>
@@ -16426,7 +16540,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:B321"/>
+  <dimension ref="A1:B323"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -19644,6 +19758,26 @@
       </c>
       <c r="B321" t="n">
         <v>-0.47</v>
+      </c>
+    </row>
+    <row r="322">
+      <c r="A322" t="inlineStr">
+        <is>
+          <t>2025-05-30 22:10:00+00:00</t>
+        </is>
+      </c>
+      <c r="B322" t="n">
+        <v>0.36</v>
+      </c>
+    </row>
+    <row r="323">
+      <c r="A323" t="inlineStr">
+        <is>
+          <t>2025-06-07 22:10:00+00:00</t>
+        </is>
+      </c>
+      <c r="B323" t="n">
+        <v>0.15</v>
       </c>
     </row>
   </sheetData>
@@ -19817,28 +19951,28 @@
         <v>0.1182</v>
       </c>
       <c r="I2" t="n">
-        <v>-0.09499352484210297</v>
+        <v>-0.07548523099290894</v>
       </c>
       <c r="J2" t="n">
-        <v>312</v>
+        <v>314</v>
       </c>
       <c r="K2" t="n">
-        <v>243</v>
+        <v>245</v>
       </c>
       <c r="L2" t="n">
-        <v>0.004552970323602468</v>
+        <v>0.002888346742611625</v>
       </c>
       <c r="M2" t="n">
-        <v>8.261267337805135</v>
+        <v>8.300185193667689</v>
       </c>
       <c r="N2" t="n">
-        <v>114.3676954250382</v>
+        <v>115.0783373391667</v>
       </c>
       <c r="O2" t="n">
-        <v>10.69428330581522</v>
+        <v>10.72745717023222</v>
       </c>
       <c r="P2" t="n">
-        <v>344.4124881531737</v>
+        <v>344.2265764834391</v>
       </c>
       <c r="Q2" t="inlineStr"/>
       <c r="R2" t="inlineStr">
@@ -19895,28 +20029,28 @@
         <v>0.0892</v>
       </c>
       <c r="I3" t="n">
-        <v>-0.09335068221868106</v>
+        <v>-0.07701344509838233</v>
       </c>
       <c r="J3" t="n">
-        <v>312</v>
+        <v>314</v>
       </c>
       <c r="K3" t="n">
-        <v>249</v>
+        <v>251</v>
       </c>
       <c r="L3" t="n">
-        <v>0.005173400584922661</v>
+        <v>0.003549020761531296</v>
       </c>
       <c r="M3" t="n">
-        <v>7.984702836052874</v>
+        <v>8.002520980889305</v>
       </c>
       <c r="N3" t="n">
-        <v>94.88500783443534</v>
+        <v>95.20883016311313</v>
       </c>
       <c r="O3" t="n">
-        <v>9.740893585007248</v>
+        <v>9.757501225370824</v>
       </c>
       <c r="P3" t="n">
-        <v>354.7137310806361</v>
+        <v>354.5570198488002</v>
       </c>
       <c r="Q3" t="inlineStr"/>
       <c r="R3" t="inlineStr">
@@ -19973,28 +20107,28 @@
         <v>0.0868</v>
       </c>
       <c r="I4" t="n">
-        <v>-0.006144272405829798</v>
+        <v>-0.0001817048577484418</v>
       </c>
       <c r="J4" t="n">
-        <v>312</v>
+        <v>314</v>
       </c>
       <c r="K4" t="n">
-        <v>248</v>
+        <v>250</v>
       </c>
       <c r="L4" t="n">
-        <v>2.298660494615135e-05</v>
+        <v>2.04425135708064e-08</v>
       </c>
       <c r="M4" t="n">
-        <v>7.293886450135139</v>
+        <v>7.265612822128315</v>
       </c>
       <c r="N4" t="n">
-        <v>92.94374914694642</v>
+        <v>92.32854749230566</v>
       </c>
       <c r="O4" t="n">
-        <v>9.640733848984029</v>
+        <v>9.608774505227275</v>
       </c>
       <c r="P4" t="n">
-        <v>372.4670607004878</v>
+        <v>372.4102131824468</v>
       </c>
       <c r="Q4" t="inlineStr"/>
       <c r="R4" t="inlineStr">
@@ -20051,28 +20185,28 @@
         <v>0.0888</v>
       </c>
       <c r="I5" t="n">
-        <v>-0.005225676506312025</v>
+        <v>-0.003704819549299832</v>
       </c>
       <c r="J5" t="n">
-        <v>312</v>
+        <v>314</v>
       </c>
       <c r="K5" t="n">
-        <v>241</v>
+        <v>243</v>
       </c>
       <c r="L5" t="n">
-        <v>1.917597929113057e-05</v>
+        <v>9.817342442208776e-06</v>
       </c>
       <c r="M5" t="n">
-        <v>6.646372890835594</v>
+        <v>6.611721788704307</v>
       </c>
       <c r="N5" t="n">
-        <v>79.56399798209499</v>
+        <v>78.96439850298704</v>
       </c>
       <c r="O5" t="n">
-        <v>8.919865356724561</v>
+        <v>8.886191450952824</v>
       </c>
       <c r="P5" t="n">
-        <v>368.3648892178806</v>
+        <v>368.3503358411834</v>
       </c>
       <c r="Q5" t="inlineStr"/>
       <c r="R5" t="inlineStr">
@@ -20129,28 +20263,28 @@
         <v>0.08119999999999999</v>
       </c>
       <c r="I6" t="n">
-        <v>-0.01106408636109039</v>
+        <v>-0.004031099527503047</v>
       </c>
       <c r="J6" t="n">
-        <v>312</v>
+        <v>314</v>
       </c>
       <c r="K6" t="n">
-        <v>259</v>
+        <v>261</v>
       </c>
       <c r="L6" t="n">
-        <v>7.076731313460094e-05</v>
+        <v>9.536732678561144e-06</v>
       </c>
       <c r="M6" t="n">
-        <v>7.03026381343151</v>
+        <v>7.009469628069872</v>
       </c>
       <c r="N6" t="n">
-        <v>96.35031799860454</v>
+        <v>95.84842264399035</v>
       </c>
       <c r="O6" t="n">
-        <v>9.815819782300638</v>
+        <v>9.790220765845392</v>
       </c>
       <c r="P6" t="n">
-        <v>363.8458196581626</v>
+        <v>363.778040406356</v>
       </c>
       <c r="Q6" t="inlineStr"/>
       <c r="R6" t="inlineStr">
@@ -20207,28 +20341,28 @@
         <v>0.08069999999999999</v>
       </c>
       <c r="I7" t="n">
-        <v>-0.005552907331328238</v>
+        <v>-0.00378494951490493</v>
       </c>
       <c r="J7" t="n">
-        <v>312</v>
+        <v>314</v>
       </c>
       <c r="K7" t="n">
-        <v>257</v>
+        <v>259</v>
       </c>
       <c r="L7" t="n">
-        <v>2.094825801524092e-05</v>
+        <v>9.907632639194475e-06</v>
       </c>
       <c r="M7" t="n">
-        <v>7.127742586710582</v>
+        <v>7.086277812532369</v>
       </c>
       <c r="N7" t="n">
-        <v>81.24940643393325</v>
+        <v>80.65390541691507</v>
       </c>
       <c r="O7" t="n">
-        <v>9.013845263478469</v>
+        <v>8.980751940506712</v>
       </c>
       <c r="P7" t="n">
-        <v>359.2103613390329</v>
+        <v>359.1933760585166</v>
       </c>
       <c r="Q7" t="inlineStr"/>
       <c r="R7" t="inlineStr">
@@ -20285,28 +20419,28 @@
         <v>0.0502</v>
       </c>
       <c r="I8" t="n">
-        <v>0.01060624876084915</v>
+        <v>0.007039739758794353</v>
       </c>
       <c r="J8" t="n">
-        <v>312</v>
+        <v>314</v>
       </c>
       <c r="K8" t="n">
-        <v>259</v>
+        <v>261</v>
       </c>
       <c r="L8" t="n">
-        <v>4.599612048061807e-05</v>
+        <v>2.063858359868664e-05</v>
       </c>
       <c r="M8" t="n">
-        <v>8.977710707490537</v>
+        <v>8.923790473696181</v>
       </c>
       <c r="N8" t="n">
-        <v>132.6735385063167</v>
+        <v>131.7120212428286</v>
       </c>
       <c r="O8" t="n">
-        <v>11.51839999766967</v>
+        <v>11.47658578336034</v>
       </c>
       <c r="P8" t="n">
-        <v>372.3616352452677</v>
+        <v>372.395923986677</v>
       </c>
       <c r="Q8" t="inlineStr"/>
       <c r="R8" t="inlineStr">
@@ -20363,28 +20497,28 @@
         <v>0.0673</v>
       </c>
       <c r="I9" t="n">
-        <v>0.06600405777527986</v>
+        <v>0.06238720509449287</v>
       </c>
       <c r="J9" t="n">
-        <v>312</v>
+        <v>314</v>
       </c>
       <c r="K9" t="n">
-        <v>256</v>
+        <v>258</v>
       </c>
       <c r="L9" t="n">
-        <v>0.002376641668745405</v>
+        <v>0.0021619547792604</v>
       </c>
       <c r="M9" t="n">
-        <v>7.52623236683233</v>
+        <v>7.483095277831876</v>
       </c>
       <c r="N9" t="n">
-        <v>101.2204719951519</v>
+        <v>100.4777593917196</v>
       </c>
       <c r="O9" t="n">
-        <v>10.06083853340028</v>
+        <v>10.02385950578516</v>
       </c>
       <c r="P9" t="n">
-        <v>366.0666296309857</v>
+        <v>366.1012965249441</v>
       </c>
       <c r="Q9" t="inlineStr"/>
       <c r="R9" t="inlineStr">
@@ -20441,28 +20575,28 @@
         <v>0.0764</v>
       </c>
       <c r="I10" t="n">
-        <v>0.1276839532085653</v>
+        <v>0.1250593416461936</v>
       </c>
       <c r="J10" t="n">
-        <v>312</v>
+        <v>314</v>
       </c>
       <c r="K10" t="n">
-        <v>245</v>
+        <v>247</v>
       </c>
       <c r="L10" t="n">
-        <v>0.0112719237747666</v>
+        <v>0.01102142972705367</v>
       </c>
       <c r="M10" t="n">
-        <v>6.713448694352542</v>
+        <v>6.672394653682657</v>
       </c>
       <c r="N10" t="n">
-        <v>80.37758058064875</v>
+        <v>79.76389043585206</v>
       </c>
       <c r="O10" t="n">
-        <v>8.965354459286523</v>
+        <v>8.931063230984991</v>
       </c>
       <c r="P10" t="n">
-        <v>359.3178373045645</v>
+        <v>359.3425468316373</v>
       </c>
       <c r="Q10" t="inlineStr"/>
       <c r="R10" t="inlineStr">
@@ -20519,28 +20653,28 @@
         <v>0.0815</v>
       </c>
       <c r="I11" t="n">
-        <v>0.1909896434810084</v>
+        <v>0.1944807749291685</v>
       </c>
       <c r="J11" t="n">
-        <v>312</v>
+        <v>314</v>
       </c>
       <c r="K11" t="n">
-        <v>249</v>
+        <v>251</v>
       </c>
       <c r="L11" t="n">
-        <v>0.02259814832065188</v>
+        <v>0.02383022506745558</v>
       </c>
       <c r="M11" t="n">
-        <v>7.340336512618995</v>
+        <v>7.296473557084973</v>
       </c>
       <c r="N11" t="n">
-        <v>87.91815096250041</v>
+        <v>87.2777765175105</v>
       </c>
       <c r="O11" t="n">
-        <v>9.3764679364087</v>
+        <v>9.342257570711189</v>
       </c>
       <c r="P11" t="n">
-        <v>349.4102063348907</v>
+        <v>349.3769617387979</v>
       </c>
       <c r="Q11" t="inlineStr"/>
       <c r="R11" t="inlineStr">
@@ -20597,28 +20731,28 @@
         <v>0.07539999999999999</v>
       </c>
       <c r="I12" t="n">
-        <v>0.1640382015499825</v>
+        <v>0.1722995609272297</v>
       </c>
       <c r="J12" t="n">
-        <v>312</v>
+        <v>314</v>
       </c>
       <c r="K12" t="n">
-        <v>249</v>
+        <v>251</v>
       </c>
       <c r="L12" t="n">
-        <v>0.0124988136943478</v>
+        <v>0.01401209893604749</v>
       </c>
       <c r="M12" t="n">
-        <v>8.051510391538011</v>
+        <v>8.024003994353045</v>
       </c>
       <c r="N12" t="n">
-        <v>117.1000689216948</v>
+        <v>116.3755791324812</v>
       </c>
       <c r="O12" t="n">
-        <v>10.8212785252804</v>
+        <v>10.78775134736064</v>
       </c>
       <c r="P12" t="n">
-        <v>350.0861878813698</v>
+        <v>350.0075656286722</v>
       </c>
       <c r="Q12" t="inlineStr"/>
       <c r="R12" t="inlineStr">
@@ -20675,28 +20809,28 @@
         <v>0.0871</v>
       </c>
       <c r="I13" t="n">
-        <v>0.2289072388256446</v>
+        <v>0.2347232481102748</v>
       </c>
       <c r="J13" t="n">
-        <v>312</v>
+        <v>314</v>
       </c>
       <c r="K13" t="n">
-        <v>247</v>
+        <v>249</v>
       </c>
       <c r="L13" t="n">
-        <v>0.0325866150415377</v>
+        <v>0.03479501307383126</v>
       </c>
       <c r="M13" t="n">
-        <v>7.359008190712252</v>
+        <v>7.321907966733487</v>
       </c>
       <c r="N13" t="n">
-        <v>86.24288984528006</v>
+        <v>85.69353689708024</v>
       </c>
       <c r="O13" t="n">
-        <v>9.286705004751688</v>
+        <v>9.257080365702798</v>
       </c>
       <c r="P13" t="n">
-        <v>355.8247681829419</v>
+        <v>355.7695877780322</v>
       </c>
       <c r="Q13" t="inlineStr"/>
       <c r="R13" t="inlineStr">
@@ -20753,28 +20887,28 @@
         <v>0.0713</v>
       </c>
       <c r="I14" t="n">
-        <v>0.2179382539957758</v>
+        <v>0.2188843517466738</v>
       </c>
       <c r="J14" t="n">
-        <v>312</v>
+        <v>314</v>
       </c>
       <c r="K14" t="n">
-        <v>242</v>
+        <v>244</v>
       </c>
       <c r="L14" t="n">
-        <v>0.03080635710262125</v>
+        <v>0.03166733395071397</v>
       </c>
       <c r="M14" t="n">
-        <v>7.107468864569609</v>
+        <v>7.063417312643935</v>
       </c>
       <c r="N14" t="n">
-        <v>85.2878028515975</v>
+        <v>84.61762465468654</v>
       </c>
       <c r="O14" t="n">
-        <v>9.23513956860412</v>
+        <v>9.198783868245114</v>
       </c>
       <c r="P14" t="n">
-        <v>364.5316907360335</v>
+        <v>364.5230171628896</v>
       </c>
       <c r="Q14" t="inlineStr"/>
       <c r="R14" t="inlineStr">
@@ -20831,28 +20965,28 @@
         <v>0.0808</v>
       </c>
       <c r="I15" t="n">
-        <v>0.1514819199308754</v>
+        <v>0.1541564723655797</v>
       </c>
       <c r="J15" t="n">
-        <v>312</v>
+        <v>314</v>
       </c>
       <c r="K15" t="n">
-        <v>255</v>
+        <v>257</v>
       </c>
       <c r="L15" t="n">
-        <v>0.01210216368795325</v>
+        <v>0.0127399906271175</v>
       </c>
       <c r="M15" t="n">
-        <v>7.915416965674897</v>
+        <v>7.86512908541539</v>
       </c>
       <c r="N15" t="n">
-        <v>105.9103961517911</v>
+        <v>105.1296884547301</v>
       </c>
       <c r="O15" t="n">
-        <v>10.2912776734374</v>
+        <v>10.25327696176837</v>
       </c>
       <c r="P15" t="n">
-        <v>360.5711080314432</v>
+        <v>360.5455106942683</v>
       </c>
       <c r="Q15" t="inlineStr"/>
       <c r="R15" t="inlineStr">
@@ -20903,28 +21037,28 @@
       <c r="G16" t="inlineStr"/>
       <c r="H16" t="inlineStr"/>
       <c r="I16" t="n">
-        <v>0.9566227131691653</v>
+        <v>0.9155984172848236</v>
       </c>
       <c r="J16" t="n">
-        <v>312</v>
+        <v>314</v>
       </c>
       <c r="K16" t="n">
-        <v>235</v>
+        <v>237</v>
       </c>
       <c r="L16" t="n">
-        <v>0.1237135627347709</v>
+        <v>0.1151986442133105</v>
       </c>
       <c r="M16" t="n">
-        <v>15.4999950182482</v>
+        <v>15.52037061423573</v>
       </c>
       <c r="N16" t="n">
-        <v>363.1208554656366</v>
+        <v>364.8724902389342</v>
       </c>
       <c r="O16" t="n">
-        <v>19.0557302527517</v>
+        <v>19.10163580008095</v>
       </c>
       <c r="P16" t="n">
-        <v>352.195801549018</v>
+        <v>352.5841026479146</v>
       </c>
       <c r="Q16" t="inlineStr"/>
       <c r="R16" t="inlineStr">
@@ -20962,7 +21096,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:Q313"/>
+  <dimension ref="A1:Q315"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -22189,7 +22323,7 @@
       </c>
       <c r="L16" t="inlineStr">
         <is>
-          <t>-38.11959488784608,174.74041636120504</t>
+          <t>-38.11959488784607,174.74041636120504</t>
         </is>
       </c>
       <c r="M16" t="inlineStr">
@@ -22670,7 +22804,7 @@
       </c>
       <c r="K22" t="inlineStr">
         <is>
-          <t>-38.12000511538553,174.73967778052358</t>
+          <t>-38.12000511538554,174.73967778052358</t>
         </is>
       </c>
       <c r="L22" t="inlineStr">
@@ -34902,7 +35036,7 @@
       </c>
       <c r="K178" t="inlineStr">
         <is>
-          <t>-38.12000511538553,174.73967778052358</t>
+          <t>-38.12000511538554,174.73967778052358</t>
         </is>
       </c>
       <c r="L178" t="inlineStr">
@@ -43746,7 +43880,7 @@
       </c>
       <c r="C306" t="inlineStr">
         <is>
-          <t>-38.123604610546245,174.73422731576605</t>
+          <t>-38.12360461054625,174.73422731576605</t>
         </is>
       </c>
       <c r="D306" t="inlineStr">
@@ -44412,6 +44546,180 @@
         </is>
       </c>
       <c r="Q313" t="inlineStr">
+        <is>
+          <t>L9</t>
+        </is>
+      </c>
+    </row>
+    <row r="314">
+      <c r="A314" s="1" t="inlineStr">
+        <is>
+          <t>2025-05-30 22:05:54+00:00</t>
+        </is>
+      </c>
+      <c r="B314" t="inlineStr">
+        <is>
+          <t>-38.12384575075955,174.73338204349915</t>
+        </is>
+      </c>
+      <c r="C314" t="inlineStr">
+        <is>
+          <t>-38.12355922927979,174.73420924487368</t>
+        </is>
+      </c>
+      <c r="D314" t="inlineStr">
+        <is>
+          <t>-38.12322335725741,174.73497334980524</t>
+        </is>
+      </c>
+      <c r="E314" t="inlineStr">
+        <is>
+          <t>-38.12284164530625,174.7356714928717</t>
+        </is>
+      </c>
+      <c r="F314" t="inlineStr">
+        <is>
+          <t>-38.12236788434392,174.7363352392406</t>
+        </is>
+      </c>
+      <c r="G314" t="inlineStr">
+        <is>
+          <t>-38.12192270680438,174.7370378464466</t>
+        </is>
+      </c>
+      <c r="H314" t="inlineStr">
+        <is>
+          <t>-38.121369507377636,174.73760734513988</t>
+        </is>
+      </c>
+      <c r="I314" t="inlineStr">
+        <is>
+          <t>-38.12090896095667,174.7382908650728</t>
+        </is>
+      </c>
+      <c r="J314" t="inlineStr">
+        <is>
+          <t>-38.12045762244617,174.73898604497958</t>
+        </is>
+      </c>
+      <c r="K314" t="inlineStr">
+        <is>
+          <t>-38.120013308171266,174.73968728395573</t>
+        </is>
+      </c>
+      <c r="L314" t="inlineStr">
+        <is>
+          <t>-38.119508527253856,174.74031816794198</t>
+        </is>
+      </c>
+      <c r="M314" t="inlineStr">
+        <is>
+          <t>-38.11899857621816,174.74093817256798</t>
+        </is>
+      </c>
+      <c r="N314" t="inlineStr">
+        <is>
+          <t>-38.118475399952956,174.74152583734636</t>
+        </is>
+      </c>
+      <c r="O314" t="inlineStr">
+        <is>
+          <t>-38.117974087798714,174.74215381301943</t>
+        </is>
+      </c>
+      <c r="P314" t="inlineStr">
+        <is>
+          <t>-38.11754752878996,174.74290210929192</t>
+        </is>
+      </c>
+      <c r="Q314" t="inlineStr">
+        <is>
+          <t>L8</t>
+        </is>
+      </c>
+    </row>
+    <row r="315">
+      <c r="A315" s="1" t="inlineStr">
+        <is>
+          <t>2025-06-07 22:05:53+00:00</t>
+        </is>
+      </c>
+      <c r="B315" t="inlineStr">
+        <is>
+          <t>-38.123729289116255,174.73333566913055</t>
+        </is>
+      </c>
+      <c r="C315" t="inlineStr">
+        <is>
+          <t>-38.123467822115536,174.734172846471</t>
+        </is>
+      </c>
+      <c r="D315" t="inlineStr">
+        <is>
+          <t>-38.12320037419391,174.73495690684746</t>
+        </is>
+      </c>
+      <c r="E315" t="inlineStr">
+        <is>
+          <t>-38.122809626986204,174.73563376259875</t>
+        </is>
+      </c>
+      <c r="F315" t="inlineStr">
+        <is>
+          <t>-38.12232647444461,174.73628411226946</t>
+        </is>
+      </c>
+      <c r="G315" t="inlineStr">
+        <is>
+          <t>-38.121900696452116,174.73701071036123</t>
+        </is>
+      </c>
+      <c r="H315" t="inlineStr">
+        <is>
+          <t>-38.12134958743508,174.73758283235148</t>
+        </is>
+      </c>
+      <c r="I315" t="inlineStr">
+        <is>
+          <t>-38.12090211139873,174.73828243985864</t>
+        </is>
+      </c>
+      <c r="J315" t="inlineStr">
+        <is>
+          <t>-38.12043870816621,174.73896322509736</t>
+        </is>
+      </c>
+      <c r="K315" t="inlineStr">
+        <is>
+          <t>-38.11999019122777,174.73966046887162</t>
+        </is>
+      </c>
+      <c r="L315" t="inlineStr">
+        <is>
+          <t>-38.11952616134224,174.74033821813265</t>
+        </is>
+      </c>
+      <c r="M315" t="inlineStr">
+        <is>
+          <t>-38.11902970191815,174.7409760167006</t>
+        </is>
+      </c>
+      <c r="N315" t="inlineStr">
+        <is>
+          <t>-38.118497116016044,174.74155603991707</t>
+        </is>
+      </c>
+      <c r="O315" t="inlineStr">
+        <is>
+          <t>-38.117992884673626,174.74218178686596</t>
+        </is>
+      </c>
+      <c r="P315" t="inlineStr">
+        <is>
+          <t>-38.11751011040519,174.74284642233246</t>
+        </is>
+      </c>
+      <c r="Q315" t="inlineStr">
         <is>
           <t>L9</t>
         </is>

--- a/data/nzd0246/nzd0246.xlsx
+++ b/data/nzd0246/nzd0246.xlsx
@@ -428,7 +428,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:Q315"/>
+  <dimension ref="A1:Q316"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -16529,6 +16529,63 @@
         </is>
       </c>
     </row>
+    <row r="316">
+      <c r="A316" s="1" t="inlineStr">
+        <is>
+          <t>2025-06-15 22:06:04+00:00</t>
+        </is>
+      </c>
+      <c r="B316" t="n">
+        <v>371.29</v>
+      </c>
+      <c r="C316" t="n">
+        <v>381.565</v>
+      </c>
+      <c r="D316" t="n">
+        <v>386.1333333333334</v>
+      </c>
+      <c r="E316" t="n">
+        <v>380.295</v>
+      </c>
+      <c r="F316" t="n">
+        <v>376.2233333333334</v>
+      </c>
+      <c r="G316" t="n">
+        <v>368.7242857142857</v>
+      </c>
+      <c r="H316" t="n">
+        <v>373.8622222222222</v>
+      </c>
+      <c r="I316" t="n">
+        <v>371.3066666666667</v>
+      </c>
+      <c r="J316" t="n">
+        <v>367.2942857142857</v>
+      </c>
+      <c r="K316" t="n">
+        <v>364.6833333333333</v>
+      </c>
+      <c r="L316" t="n">
+        <v>370.7630769230769</v>
+      </c>
+      <c r="M316" t="n">
+        <v>371.7633333333334</v>
+      </c>
+      <c r="N316" t="n">
+        <v>373.4130769230769</v>
+      </c>
+      <c r="O316" t="n">
+        <v>365.7642857142857</v>
+      </c>
+      <c r="P316" t="n">
+        <v>395.7742857142857</v>
+      </c>
+      <c r="Q316" t="inlineStr">
+        <is>
+          <t>L8</t>
+        </is>
+      </c>
+    </row>
   </sheetData>
   <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
 </worksheet>
@@ -16540,7 +16597,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:B323"/>
+  <dimension ref="A1:B324"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -19778,6 +19835,16 @@
       </c>
       <c r="B323" t="n">
         <v>0.15</v>
+      </c>
+    </row>
+    <row r="324">
+      <c r="A324" t="inlineStr">
+        <is>
+          <t>2025-06-15 22:10:00+00:00</t>
+        </is>
+      </c>
+      <c r="B324" t="n">
+        <v>0.19</v>
       </c>
     </row>
   </sheetData>
@@ -19951,28 +20018,28 @@
         <v>0.1182</v>
       </c>
       <c r="I2" t="n">
-        <v>-0.07548523099290894</v>
+        <v>-0.05330145286025417</v>
       </c>
       <c r="J2" t="n">
-        <v>314</v>
+        <v>315</v>
       </c>
       <c r="K2" t="n">
-        <v>245</v>
+        <v>246</v>
       </c>
       <c r="L2" t="n">
-        <v>0.002888346742611625</v>
+        <v>0.001412930735755769</v>
       </c>
       <c r="M2" t="n">
-        <v>8.300185193667689</v>
+        <v>8.390694964291443</v>
       </c>
       <c r="N2" t="n">
-        <v>115.0783373391667</v>
+        <v>117.9909614820294</v>
       </c>
       <c r="O2" t="n">
-        <v>10.72745717023222</v>
+        <v>10.8623644517218</v>
       </c>
       <c r="P2" t="n">
-        <v>344.2265764834391</v>
+        <v>344.0148826852515</v>
       </c>
       <c r="Q2" t="inlineStr"/>
       <c r="R2" t="inlineStr">
@@ -20029,28 +20096,28 @@
         <v>0.0892</v>
       </c>
       <c r="I3" t="n">
-        <v>-0.07701344509838233</v>
+        <v>-0.05465664661343942</v>
       </c>
       <c r="J3" t="n">
-        <v>314</v>
+        <v>315</v>
       </c>
       <c r="K3" t="n">
-        <v>251</v>
+        <v>252</v>
       </c>
       <c r="L3" t="n">
-        <v>0.003549020761531296</v>
+        <v>0.001745719313904881</v>
       </c>
       <c r="M3" t="n">
-        <v>8.002520980889305</v>
+        <v>8.08752975072982</v>
       </c>
       <c r="N3" t="n">
-        <v>95.20883016311313</v>
+        <v>98.1271613289217</v>
       </c>
       <c r="O3" t="n">
-        <v>9.757501225370824</v>
+        <v>9.90591547152113</v>
       </c>
       <c r="P3" t="n">
-        <v>354.5570198488002</v>
+        <v>354.3422885994223</v>
       </c>
       <c r="Q3" t="inlineStr"/>
       <c r="R3" t="inlineStr">
@@ -20107,28 +20174,28 @@
         <v>0.0868</v>
       </c>
       <c r="I4" t="n">
-        <v>-0.0001817048577484418</v>
+        <v>0.01054279214290037</v>
       </c>
       <c r="J4" t="n">
-        <v>314</v>
+        <v>315</v>
       </c>
       <c r="K4" t="n">
-        <v>250</v>
+        <v>251</v>
       </c>
       <c r="L4" t="n">
-        <v>2.04425135708064e-08</v>
+        <v>6.887320552140253e-05</v>
       </c>
       <c r="M4" t="n">
-        <v>7.265612822128315</v>
+        <v>7.290416540336013</v>
       </c>
       <c r="N4" t="n">
-        <v>92.32854749230566</v>
+        <v>92.70191613094829</v>
       </c>
       <c r="O4" t="n">
-        <v>9.608774505227275</v>
+        <v>9.628183428401657</v>
       </c>
       <c r="P4" t="n">
-        <v>372.4102131824468</v>
+        <v>372.3078276448309</v>
       </c>
       <c r="Q4" t="inlineStr"/>
       <c r="R4" t="inlineStr">
@@ -20185,28 +20252,28 @@
         <v>0.0888</v>
       </c>
       <c r="I5" t="n">
-        <v>-0.003704819549299832</v>
+        <v>0.006140900638494567</v>
       </c>
       <c r="J5" t="n">
-        <v>314</v>
+        <v>315</v>
       </c>
       <c r="K5" t="n">
-        <v>243</v>
+        <v>244</v>
       </c>
       <c r="L5" t="n">
-        <v>9.817342442208776e-06</v>
+        <v>2.702398447174126e-05</v>
       </c>
       <c r="M5" t="n">
-        <v>6.611721788704307</v>
+        <v>6.633774683304019</v>
       </c>
       <c r="N5" t="n">
-        <v>78.96439850298704</v>
+        <v>79.22700499918797</v>
       </c>
       <c r="O5" t="n">
-        <v>8.886191450952824</v>
+        <v>8.900955285765004</v>
       </c>
       <c r="P5" t="n">
-        <v>368.3503358411834</v>
+        <v>368.2561035034458</v>
       </c>
       <c r="Q5" t="inlineStr"/>
       <c r="R5" t="inlineStr">
@@ -20263,28 +20330,28 @@
         <v>0.08119999999999999</v>
       </c>
       <c r="I6" t="n">
-        <v>-0.004031099527503047</v>
+        <v>0.005485192625285255</v>
       </c>
       <c r="J6" t="n">
-        <v>314</v>
+        <v>315</v>
       </c>
       <c r="K6" t="n">
-        <v>261</v>
+        <v>262</v>
       </c>
       <c r="L6" t="n">
-        <v>9.536732678561144e-06</v>
+        <v>1.769981582377955e-05</v>
       </c>
       <c r="M6" t="n">
-        <v>7.009469628069872</v>
+        <v>7.028404841599186</v>
       </c>
       <c r="N6" t="n">
-        <v>95.84842264399035</v>
+        <v>96.0763060024149</v>
       </c>
       <c r="O6" t="n">
-        <v>9.790220765845392</v>
+        <v>9.801852172034369</v>
       </c>
       <c r="P6" t="n">
-        <v>363.778040406356</v>
+        <v>363.6862223179967</v>
       </c>
       <c r="Q6" t="inlineStr"/>
       <c r="R6" t="inlineStr">
@@ -20341,28 +20408,28 @@
         <v>0.08069999999999999</v>
       </c>
       <c r="I7" t="n">
-        <v>-0.00378494951490493</v>
+        <v>0.003721005126952713</v>
       </c>
       <c r="J7" t="n">
-        <v>314</v>
+        <v>315</v>
       </c>
       <c r="K7" t="n">
-        <v>259</v>
+        <v>260</v>
       </c>
       <c r="L7" t="n">
-        <v>9.907632639194475e-06</v>
+        <v>9.619450765718796e-06</v>
       </c>
       <c r="M7" t="n">
-        <v>7.086277812532369</v>
+        <v>7.0973154278683</v>
       </c>
       <c r="N7" t="n">
-        <v>80.65390541691507</v>
+        <v>80.6957728623149</v>
       </c>
       <c r="O7" t="n">
-        <v>8.980751940506712</v>
+        <v>8.983082592424212</v>
       </c>
       <c r="P7" t="n">
-        <v>359.1933760585166</v>
+        <v>359.1212119846335</v>
       </c>
       <c r="Q7" t="inlineStr"/>
       <c r="R7" t="inlineStr">
@@ -20419,28 +20486,28 @@
         <v>0.0502</v>
       </c>
       <c r="I8" t="n">
-        <v>0.007039739758794353</v>
+        <v>0.008059264383558093</v>
       </c>
       <c r="J8" t="n">
-        <v>314</v>
+        <v>315</v>
       </c>
       <c r="K8" t="n">
-        <v>261</v>
+        <v>262</v>
       </c>
       <c r="L8" t="n">
-        <v>2.063858359868664e-05</v>
+        <v>2.729759430064593e-05</v>
       </c>
       <c r="M8" t="n">
-        <v>8.923790473696181</v>
+        <v>8.895139258057895</v>
       </c>
       <c r="N8" t="n">
-        <v>131.7120212428286</v>
+        <v>131.2155137841973</v>
       </c>
       <c r="O8" t="n">
-        <v>11.47658578336034</v>
+        <v>11.4549340366585</v>
       </c>
       <c r="P8" t="n">
-        <v>372.395923986677</v>
+        <v>372.3861050742734</v>
       </c>
       <c r="Q8" t="inlineStr"/>
       <c r="R8" t="inlineStr">
@@ -20497,28 +20564,28 @@
         <v>0.0673</v>
       </c>
       <c r="I9" t="n">
-        <v>0.06238720509449287</v>
+        <v>0.06518822825611038</v>
       </c>
       <c r="J9" t="n">
-        <v>314</v>
+        <v>315</v>
       </c>
       <c r="K9" t="n">
-        <v>258</v>
+        <v>259</v>
       </c>
       <c r="L9" t="n">
-        <v>0.0021619547792604</v>
+        <v>0.002379962851340012</v>
       </c>
       <c r="M9" t="n">
-        <v>7.483095277831876</v>
+        <v>7.469792941151748</v>
       </c>
       <c r="N9" t="n">
-        <v>100.4777593917196</v>
+        <v>100.1389105450456</v>
       </c>
       <c r="O9" t="n">
-        <v>10.02385950578516</v>
+        <v>10.00694311690866</v>
       </c>
       <c r="P9" t="n">
-        <v>366.1012965249441</v>
+        <v>366.0744064889182</v>
       </c>
       <c r="Q9" t="inlineStr"/>
       <c r="R9" t="inlineStr">
@@ -20575,28 +20642,28 @@
         <v>0.0764</v>
       </c>
       <c r="I10" t="n">
-        <v>0.1250593416461936</v>
+        <v>0.1288878384045094</v>
       </c>
       <c r="J10" t="n">
-        <v>314</v>
+        <v>315</v>
       </c>
       <c r="K10" t="n">
-        <v>247</v>
+        <v>248</v>
       </c>
       <c r="L10" t="n">
-        <v>0.01102142972705367</v>
+        <v>0.01179524837613599</v>
       </c>
       <c r="M10" t="n">
-        <v>6.672394653682657</v>
+        <v>6.66371291868654</v>
       </c>
       <c r="N10" t="n">
-        <v>79.76389043585206</v>
+        <v>79.53056567400938</v>
       </c>
       <c r="O10" t="n">
-        <v>8.931063230984991</v>
+        <v>8.917991123230017</v>
       </c>
       <c r="P10" t="n">
-        <v>359.3425468316373</v>
+        <v>359.3064333967212</v>
       </c>
       <c r="Q10" t="inlineStr"/>
       <c r="R10" t="inlineStr">
@@ -20653,28 +20720,28 @@
         <v>0.0815</v>
       </c>
       <c r="I11" t="n">
-        <v>0.1944807749291685</v>
+        <v>0.2026966179822594</v>
       </c>
       <c r="J11" t="n">
-        <v>314</v>
+        <v>315</v>
       </c>
       <c r="K11" t="n">
-        <v>251</v>
+        <v>252</v>
       </c>
       <c r="L11" t="n">
-        <v>0.02383022506745558</v>
+        <v>0.02594600662507018</v>
       </c>
       <c r="M11" t="n">
-        <v>7.296473557084973</v>
+        <v>7.302037609786816</v>
       </c>
       <c r="N11" t="n">
-        <v>87.2777765175105</v>
+        <v>87.34426692564553</v>
       </c>
       <c r="O11" t="n">
-        <v>9.342257570711189</v>
+        <v>9.345815476759935</v>
       </c>
       <c r="P11" t="n">
-        <v>349.3769617387979</v>
+        <v>349.2986408756339</v>
       </c>
       <c r="Q11" t="inlineStr"/>
       <c r="R11" t="inlineStr">
@@ -20731,28 +20798,28 @@
         <v>0.07539999999999999</v>
       </c>
       <c r="I12" t="n">
-        <v>0.1722995609272297</v>
+        <v>0.1855879698099338</v>
       </c>
       <c r="J12" t="n">
-        <v>314</v>
+        <v>315</v>
       </c>
       <c r="K12" t="n">
-        <v>251</v>
+        <v>252</v>
       </c>
       <c r="L12" t="n">
-        <v>0.01401209893604749</v>
+        <v>0.01622914423977728</v>
       </c>
       <c r="M12" t="n">
-        <v>8.024003994353045</v>
+        <v>8.05068030117925</v>
       </c>
       <c r="N12" t="n">
-        <v>116.3755791324812</v>
+        <v>116.9528690219505</v>
       </c>
       <c r="O12" t="n">
-        <v>10.78775134736064</v>
+        <v>10.81447497671295</v>
       </c>
       <c r="P12" t="n">
-        <v>350.0075656286722</v>
+        <v>349.8809030650207</v>
       </c>
       <c r="Q12" t="inlineStr"/>
       <c r="R12" t="inlineStr">
@@ -20809,28 +20876,28 @@
         <v>0.0871</v>
       </c>
       <c r="I13" t="n">
-        <v>0.2347232481102748</v>
+        <v>0.2428153640434345</v>
       </c>
       <c r="J13" t="n">
-        <v>314</v>
+        <v>315</v>
       </c>
       <c r="K13" t="n">
-        <v>249</v>
+        <v>250</v>
       </c>
       <c r="L13" t="n">
-        <v>0.03479501307383126</v>
+        <v>0.03732208846556817</v>
       </c>
       <c r="M13" t="n">
-        <v>7.321907966733487</v>
+        <v>7.322992631944956</v>
       </c>
       <c r="N13" t="n">
-        <v>85.69353689708024</v>
+        <v>85.73847633137792</v>
       </c>
       <c r="O13" t="n">
-        <v>9.257080365702798</v>
+        <v>9.259507348200438</v>
       </c>
       <c r="P13" t="n">
-        <v>355.7695877780322</v>
+        <v>355.6926749402431</v>
       </c>
       <c r="Q13" t="inlineStr"/>
       <c r="R13" t="inlineStr">
@@ -20887,28 +20954,28 @@
         <v>0.0713</v>
       </c>
       <c r="I14" t="n">
-        <v>0.2188843517466738</v>
+        <v>0.2215497515973217</v>
       </c>
       <c r="J14" t="n">
-        <v>314</v>
+        <v>315</v>
       </c>
       <c r="K14" t="n">
-        <v>244</v>
+        <v>245</v>
       </c>
       <c r="L14" t="n">
-        <v>0.03166733395071397</v>
+        <v>0.03271283004362713</v>
       </c>
       <c r="M14" t="n">
-        <v>7.063417312643935</v>
+        <v>7.046283610445892</v>
       </c>
       <c r="N14" t="n">
-        <v>84.61762465468654</v>
+        <v>84.31394301691225</v>
       </c>
       <c r="O14" t="n">
-        <v>9.198783868245114</v>
+        <v>9.182262412766924</v>
       </c>
       <c r="P14" t="n">
-        <v>364.5230171628896</v>
+        <v>364.4985068573382</v>
       </c>
       <c r="Q14" t="inlineStr"/>
       <c r="R14" t="inlineStr">
@@ -20965,28 +21032,28 @@
         <v>0.0808</v>
       </c>
       <c r="I15" t="n">
-        <v>0.1541564723655797</v>
+        <v>0.1550832220552102</v>
       </c>
       <c r="J15" t="n">
-        <v>314</v>
+        <v>315</v>
       </c>
       <c r="K15" t="n">
-        <v>257</v>
+        <v>258</v>
       </c>
       <c r="L15" t="n">
-        <v>0.0127399906271175</v>
+        <v>0.01300015812977762</v>
       </c>
       <c r="M15" t="n">
-        <v>7.86512908541539</v>
+        <v>7.838530651058779</v>
       </c>
       <c r="N15" t="n">
-        <v>105.1296884547301</v>
+        <v>104.7279481635334</v>
       </c>
       <c r="O15" t="n">
-        <v>10.25327696176837</v>
+        <v>10.23366738581694</v>
       </c>
       <c r="P15" t="n">
-        <v>360.5455106942683</v>
+        <v>360.5366230163384</v>
       </c>
       <c r="Q15" t="inlineStr"/>
       <c r="R15" t="inlineStr">
@@ -21037,28 +21104,28 @@
       <c r="G16" t="inlineStr"/>
       <c r="H16" t="inlineStr"/>
       <c r="I16" t="n">
-        <v>0.9155984172848236</v>
+        <v>0.9320443642487994</v>
       </c>
       <c r="J16" t="n">
-        <v>314</v>
+        <v>315</v>
       </c>
       <c r="K16" t="n">
-        <v>237</v>
+        <v>238</v>
       </c>
       <c r="L16" t="n">
-        <v>0.1151986442133105</v>
+        <v>0.1194505818019922</v>
       </c>
       <c r="M16" t="n">
-        <v>15.52037061423573</v>
+        <v>15.5559783375305</v>
       </c>
       <c r="N16" t="n">
-        <v>364.8724902389342</v>
+        <v>364.9094486377146</v>
       </c>
       <c r="O16" t="n">
-        <v>19.10163580008095</v>
+        <v>19.10260319008157</v>
       </c>
       <c r="P16" t="n">
-        <v>352.5841026479146</v>
+        <v>352.4281970520304</v>
       </c>
       <c r="Q16" t="inlineStr"/>
       <c r="R16" t="inlineStr">
@@ -21096,7 +21163,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:Q315"/>
+  <dimension ref="A1:Q316"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -44725,6 +44792,93 @@
         </is>
       </c>
     </row>
+    <row r="316">
+      <c r="A316" s="1" t="inlineStr">
+        <is>
+          <t>2025-06-15 22:06:04+00:00</t>
+        </is>
+      </c>
+      <c r="B316" t="inlineStr">
+        <is>
+          <t>-38.12364394119559,174.7333016841744</t>
+        </is>
+      </c>
+      <c r="C316" t="inlineStr">
+        <is>
+          <t>-38.12335213423054,174.7341267796112</t>
+        </is>
+      </c>
+      <c r="D316" t="inlineStr">
+        <is>
+          <t>-38.123133046091695,174.73490873783362</t>
+        </is>
+      </c>
+      <c r="E316" t="inlineStr">
+        <is>
+          <t>-38.12275211928067,174.7355659958476</t>
+        </is>
+      </c>
+      <c r="F316" t="inlineStr">
+        <is>
+          <t>-38.122295105247446,174.7362453821673</t>
+        </is>
+      </c>
+      <c r="G316" t="inlineStr">
+        <is>
+          <t>-38.12185660195986,174.73695634729327</t>
+        </is>
+      </c>
+      <c r="H316" t="inlineStr">
+        <is>
+          <t>-38.12133725501381,174.7375676565129</t>
+        </is>
+      </c>
+      <c r="I316" t="inlineStr">
+        <is>
+          <t>-38.12086788513876,174.73824034030596</t>
+        </is>
+      </c>
+      <c r="J316" t="inlineStr">
+        <is>
+          <t>-38.12040726200051,174.7389252856641</t>
+        </is>
+      </c>
+      <c r="K316" t="inlineStr">
+        <is>
+          <t>-38.119947455864605,174.7396108969696</t>
+        </is>
+      </c>
+      <c r="L316" t="inlineStr">
+        <is>
+          <t>-38.11944079582025,174.74024115653935</t>
+        </is>
+      </c>
+      <c r="M316" t="inlineStr">
+        <is>
+          <t>-38.11897197748848,174.7409058325831</t>
+        </is>
+      </c>
+      <c r="N316" t="inlineStr">
+        <is>
+          <t>-38.1184700350811,174.74151837591916</t>
+        </is>
+      </c>
+      <c r="O316" t="inlineStr">
+        <is>
+          <t>-38.11798627991626,174.74217195754468</t>
+        </is>
+      </c>
+      <c r="P316" t="inlineStr">
+        <is>
+          <t>-38.11727876125844,174.74250212503094</t>
+        </is>
+      </c>
+      <c r="Q316" t="inlineStr">
+        <is>
+          <t>L8</t>
+        </is>
+      </c>
+    </row>
   </sheetData>
   <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
 </worksheet>

--- a/data/nzd0246/nzd0246.xlsx
+++ b/data/nzd0246/nzd0246.xlsx
@@ -428,7 +428,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:Q316"/>
+  <dimension ref="A1:Q318"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -16586,6 +16586,90 @@
         </is>
       </c>
     </row>
+    <row r="317">
+      <c r="A317" s="1" t="inlineStr">
+        <is>
+          <t>2025-07-09 22:05:45+00:00</t>
+        </is>
+      </c>
+      <c r="B317" t="inlineStr"/>
+      <c r="C317" t="inlineStr"/>
+      <c r="D317" t="inlineStr"/>
+      <c r="E317" t="inlineStr"/>
+      <c r="F317" t="inlineStr"/>
+      <c r="G317" t="inlineStr"/>
+      <c r="H317" t="n">
+        <v>348.0277777777778</v>
+      </c>
+      <c r="I317" t="inlineStr"/>
+      <c r="J317" t="inlineStr"/>
+      <c r="K317" t="inlineStr"/>
+      <c r="L317" t="inlineStr"/>
+      <c r="M317" t="inlineStr"/>
+      <c r="N317" t="inlineStr"/>
+      <c r="O317" t="inlineStr"/>
+      <c r="P317" t="inlineStr"/>
+      <c r="Q317" t="inlineStr">
+        <is>
+          <t>L9</t>
+        </is>
+      </c>
+    </row>
+    <row r="318">
+      <c r="A318" s="1" t="inlineStr">
+        <is>
+          <t>2025-07-25 22:06:18+00:00</t>
+        </is>
+      </c>
+      <c r="B318" t="n">
+        <v>353.64</v>
+      </c>
+      <c r="C318" t="n">
+        <v>373.675</v>
+      </c>
+      <c r="D318" t="n">
+        <v>392.0766666666667</v>
+      </c>
+      <c r="E318" t="n">
+        <v>387.965</v>
+      </c>
+      <c r="F318" t="n">
+        <v>387.4266666666667</v>
+      </c>
+      <c r="G318" t="n">
+        <v>376.1714285714286</v>
+      </c>
+      <c r="H318" t="inlineStr"/>
+      <c r="I318" t="n">
+        <v>381.1033333333333</v>
+      </c>
+      <c r="J318" t="n">
+        <v>373.6814285714286</v>
+      </c>
+      <c r="K318" t="n">
+        <v>364.8766666666667</v>
+      </c>
+      <c r="L318" t="n">
+        <v>367.1769230769231</v>
+      </c>
+      <c r="M318" t="n">
+        <v>374.4866666666667</v>
+      </c>
+      <c r="N318" t="n">
+        <v>378.6269230769231</v>
+      </c>
+      <c r="O318" t="n">
+        <v>371.7814285714285</v>
+      </c>
+      <c r="P318" t="n">
+        <v>415.3114285714286</v>
+      </c>
+      <c r="Q318" t="inlineStr">
+        <is>
+          <t>L9</t>
+        </is>
+      </c>
+    </row>
   </sheetData>
   <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
 </worksheet>
@@ -16597,7 +16681,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:B324"/>
+  <dimension ref="A1:B326"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -19845,6 +19929,26 @@
       </c>
       <c r="B324" t="n">
         <v>0.19</v>
+      </c>
+    </row>
+    <row r="325">
+      <c r="A325" t="inlineStr">
+        <is>
+          <t>2025-07-09 22:10:00+00:00</t>
+        </is>
+      </c>
+      <c r="B325" t="n">
+        <v>0.89</v>
+      </c>
+    </row>
+    <row r="326">
+      <c r="A326" t="inlineStr">
+        <is>
+          <t>2025-07-25 22:10:00+00:00</t>
+        </is>
+      </c>
+      <c r="B326" t="n">
+        <v>1.37</v>
       </c>
     </row>
   </sheetData>
@@ -20018,28 +20122,28 @@
         <v>0.1182</v>
       </c>
       <c r="I2" t="n">
-        <v>-0.05330145286025417</v>
+        <v>-0.04490634101171678</v>
       </c>
       <c r="J2" t="n">
-        <v>315</v>
+        <v>317</v>
       </c>
       <c r="K2" t="n">
-        <v>246</v>
+        <v>247</v>
       </c>
       <c r="L2" t="n">
-        <v>0.001412930735755769</v>
+        <v>0.001007759945984565</v>
       </c>
       <c r="M2" t="n">
-        <v>8.390694964291443</v>
+        <v>8.404564643877945</v>
       </c>
       <c r="N2" t="n">
-        <v>117.9909614820294</v>
+        <v>117.9980698562149</v>
       </c>
       <c r="O2" t="n">
-        <v>10.8623644517218</v>
+        <v>10.86269164876804</v>
       </c>
       <c r="P2" t="n">
-        <v>344.0148826852515</v>
+        <v>343.9343323344723</v>
       </c>
       <c r="Q2" t="inlineStr"/>
       <c r="R2" t="inlineStr">
@@ -20096,28 +20200,28 @@
         <v>0.0892</v>
       </c>
       <c r="I3" t="n">
-        <v>-0.05465664661343942</v>
+        <v>-0.03870430581456643</v>
       </c>
       <c r="J3" t="n">
-        <v>315</v>
+        <v>317</v>
       </c>
       <c r="K3" t="n">
-        <v>252</v>
+        <v>253</v>
       </c>
       <c r="L3" t="n">
-        <v>0.001745719313904881</v>
+        <v>0.0008688786266926041</v>
       </c>
       <c r="M3" t="n">
-        <v>8.08752975072982</v>
+        <v>8.137856745255093</v>
       </c>
       <c r="N3" t="n">
-        <v>98.1271613289217</v>
+        <v>99.42052281235944</v>
       </c>
       <c r="O3" t="n">
-        <v>9.90591547152113</v>
+        <v>9.970984044333811</v>
       </c>
       <c r="P3" t="n">
-        <v>354.3422885994223</v>
+        <v>354.1882723337623</v>
       </c>
       <c r="Q3" t="inlineStr"/>
       <c r="R3" t="inlineStr">
@@ -20174,28 +20278,28 @@
         <v>0.0868</v>
       </c>
       <c r="I4" t="n">
-        <v>0.01054279214290037</v>
+        <v>0.02572373462472832</v>
       </c>
       <c r="J4" t="n">
-        <v>315</v>
+        <v>317</v>
       </c>
       <c r="K4" t="n">
-        <v>251</v>
+        <v>252</v>
       </c>
       <c r="L4" t="n">
-        <v>6.887320552140253e-05</v>
+        <v>0.0004069839084200888</v>
       </c>
       <c r="M4" t="n">
-        <v>7.290416540336013</v>
+        <v>7.337047484996641</v>
       </c>
       <c r="N4" t="n">
-        <v>92.70191613094829</v>
+        <v>93.82284168271072</v>
       </c>
       <c r="O4" t="n">
-        <v>9.628183428401657</v>
+        <v>9.686219163466761</v>
       </c>
       <c r="P4" t="n">
-        <v>372.3078276448309</v>
+        <v>372.1621514978095</v>
       </c>
       <c r="Q4" t="inlineStr"/>
       <c r="R4" t="inlineStr">
@@ -20252,28 +20356,28 @@
         <v>0.0888</v>
       </c>
       <c r="I5" t="n">
-        <v>0.006140900638494567</v>
+        <v>0.02206522445119787</v>
       </c>
       <c r="J5" t="n">
-        <v>315</v>
+        <v>317</v>
       </c>
       <c r="K5" t="n">
-        <v>244</v>
+        <v>245</v>
       </c>
       <c r="L5" t="n">
-        <v>2.702398447174126e-05</v>
+        <v>0.0003453341119906694</v>
       </c>
       <c r="M5" t="n">
-        <v>6.633774683304019</v>
+        <v>6.685860485783789</v>
       </c>
       <c r="N5" t="n">
-        <v>79.22700499918797</v>
+        <v>80.44265659681825</v>
       </c>
       <c r="O5" t="n">
-        <v>8.900955285765004</v>
+        <v>8.968983030244747</v>
       </c>
       <c r="P5" t="n">
-        <v>368.2561035034458</v>
+        <v>368.1029292968491</v>
       </c>
       <c r="Q5" t="inlineStr"/>
       <c r="R5" t="inlineStr">
@@ -20330,28 +20434,28 @@
         <v>0.08119999999999999</v>
       </c>
       <c r="I6" t="n">
-        <v>0.005485192625285255</v>
+        <v>0.02333048076812146</v>
       </c>
       <c r="J6" t="n">
-        <v>315</v>
+        <v>317</v>
       </c>
       <c r="K6" t="n">
-        <v>262</v>
+        <v>263</v>
       </c>
       <c r="L6" t="n">
-        <v>1.769981582377955e-05</v>
+        <v>0.0003159774490294476</v>
       </c>
       <c r="M6" t="n">
-        <v>7.028404841599186</v>
+        <v>7.090642911910621</v>
       </c>
       <c r="N6" t="n">
-        <v>96.0763060024149</v>
+        <v>97.80216916345472</v>
       </c>
       <c r="O6" t="n">
-        <v>9.801852172034369</v>
+        <v>9.88949792271856</v>
       </c>
       <c r="P6" t="n">
-        <v>363.6862223179967</v>
+        <v>363.5131742235255</v>
       </c>
       <c r="Q6" t="inlineStr"/>
       <c r="R6" t="inlineStr">
@@ -20408,28 +20512,28 @@
         <v>0.08069999999999999</v>
       </c>
       <c r="I7" t="n">
-        <v>0.003721005126952713</v>
+        <v>0.01689422654057381</v>
       </c>
       <c r="J7" t="n">
-        <v>315</v>
+        <v>317</v>
       </c>
       <c r="K7" t="n">
-        <v>260</v>
+        <v>261</v>
       </c>
       <c r="L7" t="n">
-        <v>9.619450765718796e-06</v>
+        <v>0.000197369106012979</v>
       </c>
       <c r="M7" t="n">
-        <v>7.0973154278683</v>
+        <v>7.136428076903588</v>
       </c>
       <c r="N7" t="n">
-        <v>80.6957728623149</v>
+        <v>81.47381227040559</v>
       </c>
       <c r="O7" t="n">
-        <v>8.983082592424212</v>
+        <v>9.026284521906319</v>
       </c>
       <c r="P7" t="n">
-        <v>359.1212119846335</v>
+        <v>358.9939409697305</v>
       </c>
       <c r="Q7" t="inlineStr"/>
       <c r="R7" t="inlineStr">
@@ -20486,28 +20590,28 @@
         <v>0.0502</v>
       </c>
       <c r="I8" t="n">
-        <v>0.008059264383558093</v>
+        <v>-0.01130897996353468</v>
       </c>
       <c r="J8" t="n">
-        <v>315</v>
+        <v>317</v>
       </c>
       <c r="K8" t="n">
-        <v>262</v>
+        <v>263</v>
       </c>
       <c r="L8" t="n">
-        <v>2.729759430064593e-05</v>
+        <v>5.33182502933105e-05</v>
       </c>
       <c r="M8" t="n">
-        <v>8.895139258057895</v>
+        <v>8.944521146693258</v>
       </c>
       <c r="N8" t="n">
-        <v>131.2155137841973</v>
+        <v>132.9820177608234</v>
       </c>
       <c r="O8" t="n">
-        <v>11.4549340366585</v>
+        <v>11.5317829393734</v>
       </c>
       <c r="P8" t="n">
-        <v>372.3861050742734</v>
+        <v>372.5731682816795</v>
       </c>
       <c r="Q8" t="inlineStr"/>
       <c r="R8" t="inlineStr">
@@ -20564,28 +20668,28 @@
         <v>0.0673</v>
       </c>
       <c r="I9" t="n">
-        <v>0.06518822825611038</v>
+        <v>0.07556056452626173</v>
       </c>
       <c r="J9" t="n">
-        <v>315</v>
+        <v>317</v>
       </c>
       <c r="K9" t="n">
-        <v>259</v>
+        <v>260</v>
       </c>
       <c r="L9" t="n">
-        <v>0.002379962851340012</v>
+        <v>0.00320205881532043</v>
       </c>
       <c r="M9" t="n">
-        <v>7.469792941151748</v>
+        <v>7.499343395699898</v>
       </c>
       <c r="N9" t="n">
-        <v>100.1389105450456</v>
+        <v>100.4287472881303</v>
       </c>
       <c r="O9" t="n">
-        <v>10.00694311690866</v>
+        <v>10.02141443550412</v>
       </c>
       <c r="P9" t="n">
-        <v>366.0744064889182</v>
+        <v>365.974341501644</v>
       </c>
       <c r="Q9" t="inlineStr"/>
       <c r="R9" t="inlineStr">
@@ -20642,28 +20746,28 @@
         <v>0.0764</v>
       </c>
       <c r="I10" t="n">
-        <v>0.1288878384045094</v>
+        <v>0.1378080216407726</v>
       </c>
       <c r="J10" t="n">
-        <v>315</v>
+        <v>317</v>
       </c>
       <c r="K10" t="n">
-        <v>248</v>
+        <v>249</v>
       </c>
       <c r="L10" t="n">
-        <v>0.01179524837613599</v>
+        <v>0.01350685679303298</v>
       </c>
       <c r="M10" t="n">
-        <v>6.66371291868654</v>
+        <v>6.679290557105665</v>
       </c>
       <c r="N10" t="n">
-        <v>79.53056567400938</v>
+        <v>79.69245940530649</v>
       </c>
       <c r="O10" t="n">
-        <v>8.917991123230017</v>
+        <v>8.927063313615877</v>
       </c>
       <c r="P10" t="n">
-        <v>359.3064333967212</v>
+        <v>359.2218741594182</v>
       </c>
       <c r="Q10" t="inlineStr"/>
       <c r="R10" t="inlineStr">
@@ -20720,28 +20824,28 @@
         <v>0.0815</v>
       </c>
       <c r="I11" t="n">
-        <v>0.2026966179822594</v>
+        <v>0.2109116908491148</v>
       </c>
       <c r="J11" t="n">
-        <v>315</v>
+        <v>317</v>
       </c>
       <c r="K11" t="n">
-        <v>252</v>
+        <v>253</v>
       </c>
       <c r="L11" t="n">
-        <v>0.02594600662507018</v>
+        <v>0.02815406564751233</v>
       </c>
       <c r="M11" t="n">
-        <v>7.302037609786816</v>
+        <v>7.307808963455341</v>
       </c>
       <c r="N11" t="n">
-        <v>87.34426692564553</v>
+        <v>87.41316575655009</v>
       </c>
       <c r="O11" t="n">
-        <v>9.345815476759935</v>
+        <v>9.349500829271587</v>
       </c>
       <c r="P11" t="n">
-        <v>349.2986408756339</v>
+        <v>349.2199403610098</v>
       </c>
       <c r="Q11" t="inlineStr"/>
       <c r="R11" t="inlineStr">
@@ -20798,28 +20902,28 @@
         <v>0.07539999999999999</v>
       </c>
       <c r="I12" t="n">
-        <v>0.1855879698099338</v>
+        <v>0.1957166611870329</v>
       </c>
       <c r="J12" t="n">
-        <v>315</v>
+        <v>317</v>
       </c>
       <c r="K12" t="n">
-        <v>252</v>
+        <v>253</v>
       </c>
       <c r="L12" t="n">
-        <v>0.01622914423977728</v>
+        <v>0.01809236158930194</v>
       </c>
       <c r="M12" t="n">
-        <v>8.05068030117925</v>
+        <v>8.062953636336614</v>
       </c>
       <c r="N12" t="n">
-        <v>116.9528690219505</v>
+        <v>117.096722661991</v>
       </c>
       <c r="O12" t="n">
-        <v>10.81447497671295</v>
+        <v>10.8211239093724</v>
       </c>
       <c r="P12" t="n">
-        <v>349.8809030650207</v>
+        <v>349.7838940739533</v>
       </c>
       <c r="Q12" t="inlineStr"/>
       <c r="R12" t="inlineStr">
@@ -20876,28 +20980,28 @@
         <v>0.0871</v>
       </c>
       <c r="I13" t="n">
-        <v>0.2428153640434345</v>
+        <v>0.2529599731888806</v>
       </c>
       <c r="J13" t="n">
-        <v>315</v>
+        <v>317</v>
       </c>
       <c r="K13" t="n">
-        <v>250</v>
+        <v>251</v>
       </c>
       <c r="L13" t="n">
-        <v>0.03732208846556817</v>
+        <v>0.04046848395613623</v>
       </c>
       <c r="M13" t="n">
-        <v>7.322992631944956</v>
+        <v>7.331445160917188</v>
       </c>
       <c r="N13" t="n">
-        <v>85.73847633137792</v>
+        <v>86.00868680299975</v>
       </c>
       <c r="O13" t="n">
-        <v>9.259507348200438</v>
+        <v>9.274086844697958</v>
       </c>
       <c r="P13" t="n">
-        <v>355.6926749402431</v>
+        <v>355.5957852628248</v>
       </c>
       <c r="Q13" t="inlineStr"/>
       <c r="R13" t="inlineStr">
@@ -20954,28 +21058,28 @@
         <v>0.0713</v>
       </c>
       <c r="I14" t="n">
-        <v>0.2215497515973217</v>
+        <v>0.2284436189540799</v>
       </c>
       <c r="J14" t="n">
-        <v>315</v>
+        <v>317</v>
       </c>
       <c r="K14" t="n">
-        <v>245</v>
+        <v>246</v>
       </c>
       <c r="L14" t="n">
-        <v>0.03271283004362713</v>
+        <v>0.03492768175294425</v>
       </c>
       <c r="M14" t="n">
-        <v>7.046283610445892</v>
+        <v>7.047843403890542</v>
       </c>
       <c r="N14" t="n">
-        <v>84.31394301691225</v>
+        <v>84.25161764867373</v>
       </c>
       <c r="O14" t="n">
-        <v>9.182262412766924</v>
+        <v>9.178867993858161</v>
       </c>
       <c r="P14" t="n">
-        <v>364.4985068573382</v>
+        <v>364.4347998994009</v>
       </c>
       <c r="Q14" t="inlineStr"/>
       <c r="R14" t="inlineStr">
@@ -21032,28 +21136,28 @@
         <v>0.0808</v>
       </c>
       <c r="I15" t="n">
-        <v>0.1550832220552102</v>
+        <v>0.1605251881374834</v>
       </c>
       <c r="J15" t="n">
-        <v>315</v>
+        <v>317</v>
       </c>
       <c r="K15" t="n">
-        <v>258</v>
+        <v>259</v>
       </c>
       <c r="L15" t="n">
-        <v>0.01300015812977762</v>
+        <v>0.01400751137114786</v>
       </c>
       <c r="M15" t="n">
-        <v>7.838530651058779</v>
+        <v>7.830795040664944</v>
       </c>
       <c r="N15" t="n">
-        <v>104.7279481635334</v>
+        <v>104.5217923687528</v>
       </c>
       <c r="O15" t="n">
-        <v>10.23366738581694</v>
+        <v>10.22358999416315</v>
       </c>
       <c r="P15" t="n">
-        <v>360.5366230163384</v>
+        <v>360.4841638328293</v>
       </c>
       <c r="Q15" t="inlineStr"/>
       <c r="R15" t="inlineStr">
@@ -21104,28 +21208,28 @@
       <c r="G16" t="inlineStr"/>
       <c r="H16" t="inlineStr"/>
       <c r="I16" t="n">
-        <v>0.9320443642487994</v>
+        <v>0.9645366011376213</v>
       </c>
       <c r="J16" t="n">
-        <v>315</v>
+        <v>317</v>
       </c>
       <c r="K16" t="n">
-        <v>238</v>
+        <v>239</v>
       </c>
       <c r="L16" t="n">
-        <v>0.1194505818019922</v>
+        <v>0.1260731121759175</v>
       </c>
       <c r="M16" t="n">
-        <v>15.5559783375305</v>
+        <v>15.68917096123221</v>
       </c>
       <c r="N16" t="n">
-        <v>364.9094486377146</v>
+        <v>369.5401483064563</v>
       </c>
       <c r="O16" t="n">
-        <v>19.10260319008157</v>
+        <v>19.22342706976195</v>
       </c>
       <c r="P16" t="n">
-        <v>352.4281970520304</v>
+        <v>352.1186446800345</v>
       </c>
       <c r="Q16" t="inlineStr"/>
       <c r="R16" t="inlineStr">
@@ -21163,7 +21267,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:Q316"/>
+  <dimension ref="A1:Q318"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -44879,6 +44983,120 @@
         </is>
       </c>
     </row>
+    <row r="317">
+      <c r="A317" s="1" t="inlineStr">
+        <is>
+          <t>2025-07-09 22:05:45+00:00</t>
+        </is>
+      </c>
+      <c r="B317" t="inlineStr"/>
+      <c r="C317" t="inlineStr"/>
+      <c r="D317" t="inlineStr"/>
+      <c r="E317" t="inlineStr"/>
+      <c r="F317" t="inlineStr"/>
+      <c r="G317" t="inlineStr"/>
+      <c r="H317" t="inlineStr">
+        <is>
+          <t>-38.12150415886667,174.73777304310593</t>
+        </is>
+      </c>
+      <c r="I317" t="inlineStr"/>
+      <c r="J317" t="inlineStr"/>
+      <c r="K317" t="inlineStr"/>
+      <c r="L317" t="inlineStr"/>
+      <c r="M317" t="inlineStr"/>
+      <c r="N317" t="inlineStr"/>
+      <c r="O317" t="inlineStr"/>
+      <c r="P317" t="inlineStr"/>
+      <c r="Q317" t="inlineStr">
+        <is>
+          <t>L9</t>
+        </is>
+      </c>
+    </row>
+    <row r="318">
+      <c r="A318" s="1" t="inlineStr">
+        <is>
+          <t>2025-07-25 22:06:18+00:00</t>
+        </is>
+      </c>
+      <c r="B318" t="inlineStr">
+        <is>
+          <t>-38.12379564217355,174.7333620905232</t>
+        </is>
+      </c>
+      <c r="C318" t="inlineStr">
+        <is>
+          <t>-38.12341994830568,174.73415378312353</t>
+        </is>
+      </c>
+      <c r="D318" t="inlineStr">
+        <is>
+          <t>-38.12308642627017,174.7348753843518</t>
+        </is>
+      </c>
+      <c r="E318" t="inlineStr">
+        <is>
+          <t>-38.12270153620661,174.73550638917177</t>
+        </is>
+      </c>
+      <c r="F318" t="inlineStr">
+        <is>
+          <t>-38.122222842089144,174.73615616236668</t>
+        </is>
+      </c>
+      <c r="G318" t="inlineStr">
+        <is>
+          <t>-38.12180853321547,174.73689708457547</t>
+        </is>
+      </c>
+      <c r="H318" t="inlineStr"/>
+      <c r="I318" t="inlineStr">
+        <is>
+          <t>-38.120804580515696,174.73816247345846</t>
+        </is>
+      </c>
+      <c r="J318" t="inlineStr">
+        <is>
+          <t>-38.12036560396335,174.7388750258014</t>
+        </is>
+      </c>
+      <c r="K318" t="inlineStr">
+        <is>
+          <t>-38.1199461715891,174.73960940724493</t>
+        </is>
+      </c>
+      <c r="L318" t="inlineStr">
+        <is>
+          <t>-38.119464833885544,174.7402684880668</t>
+        </is>
+      </c>
+      <c r="M318" t="inlineStr">
+        <is>
+          <t>-38.11895428109707,174.74088431649872</t>
+        </is>
+      </c>
+      <c r="N318" t="inlineStr">
+        <is>
+          <t>-38.118438414982634,174.7414743989383</t>
+        </is>
+      </c>
+      <c r="O318" t="inlineStr">
+        <is>
+          <t>-38.117951154601045,174.7421196834567</t>
+        </is>
+      </c>
+      <c r="P318" t="inlineStr">
+        <is>
+          <t>-38.11716471245654,174.74233239726018</t>
+        </is>
+      </c>
+      <c r="Q318" t="inlineStr">
+        <is>
+          <t>L9</t>
+        </is>
+      </c>
+    </row>
   </sheetData>
   <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
 </worksheet>

--- a/data/nzd0246/nzd0246.xlsx
+++ b/data/nzd0246/nzd0246.xlsx
@@ -428,7 +428,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:Q318"/>
+  <dimension ref="A1:Q322"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -16639,7 +16639,9 @@
       <c r="G318" t="n">
         <v>376.1714285714286</v>
       </c>
-      <c r="H318" t="inlineStr"/>
+      <c r="H318" t="n">
+        <v>390.3844444444445</v>
+      </c>
       <c r="I318" t="n">
         <v>381.1033333333333</v>
       </c>
@@ -16665,6 +16667,234 @@
         <v>415.3114285714286</v>
       </c>
       <c r="Q318" t="inlineStr">
+        <is>
+          <t>L9</t>
+        </is>
+      </c>
+    </row>
+    <row r="319">
+      <c r="A319" s="1" t="inlineStr">
+        <is>
+          <t>2025-08-02 22:05:57+00:00</t>
+        </is>
+      </c>
+      <c r="B319" t="n">
+        <v>347.85</v>
+      </c>
+      <c r="C319" t="n">
+        <v>355.175</v>
+      </c>
+      <c r="D319" t="n">
+        <v>377.4566666666666</v>
+      </c>
+      <c r="E319" t="n">
+        <v>374.975</v>
+      </c>
+      <c r="F319" t="n">
+        <v>369.8266666666667</v>
+      </c>
+      <c r="G319" t="n">
+        <v>361.0014285714286</v>
+      </c>
+      <c r="H319" t="n">
+        <v>388.9877777777778</v>
+      </c>
+      <c r="I319" t="n">
+        <v>372.9533333333333</v>
+      </c>
+      <c r="J319" t="n">
+        <v>361.8214285714286</v>
+      </c>
+      <c r="K319" t="n">
+        <v>355.0166666666667</v>
+      </c>
+      <c r="L319" t="n">
+        <v>351.1092307692307</v>
+      </c>
+      <c r="M319" t="n">
+        <v>357.1066666666666</v>
+      </c>
+      <c r="N319" t="n">
+        <v>362.4592307692308</v>
+      </c>
+      <c r="O319" t="n">
+        <v>355.5114285714285</v>
+      </c>
+      <c r="P319" t="n">
+        <v>385.1514285714285</v>
+      </c>
+      <c r="Q319" t="inlineStr">
+        <is>
+          <t>L8</t>
+        </is>
+      </c>
+    </row>
+    <row r="320">
+      <c r="A320" s="1" t="inlineStr">
+        <is>
+          <t>2025-08-10 22:06:04+00:00</t>
+        </is>
+      </c>
+      <c r="B320" t="n">
+        <v>339.99</v>
+      </c>
+      <c r="C320" t="n">
+        <v>355.745</v>
+      </c>
+      <c r="D320" t="n">
+        <v>377.2</v>
+      </c>
+      <c r="E320" t="n">
+        <v>370.615</v>
+      </c>
+      <c r="F320" t="n">
+        <v>369.55</v>
+      </c>
+      <c r="G320" t="n">
+        <v>370.9628571428572</v>
+      </c>
+      <c r="H320" t="n">
+        <v>383.0833333333333</v>
+      </c>
+      <c r="I320" t="n">
+        <v>371.34</v>
+      </c>
+      <c r="J320" t="n">
+        <v>364.1628571428571</v>
+      </c>
+      <c r="K320" t="n">
+        <v>354.51</v>
+      </c>
+      <c r="L320" t="n">
+        <v>360.1723076923077</v>
+      </c>
+      <c r="M320" t="n">
+        <v>369.32</v>
+      </c>
+      <c r="N320" t="n">
+        <v>374.0323076923077</v>
+      </c>
+      <c r="O320" t="n">
+        <v>359.2728571428571</v>
+      </c>
+      <c r="P320" t="n">
+        <v>416.6928571428572</v>
+      </c>
+      <c r="Q320" t="inlineStr">
+        <is>
+          <t>L9</t>
+        </is>
+      </c>
+    </row>
+    <row r="321">
+      <c r="A321" s="1" t="inlineStr">
+        <is>
+          <t>2025-08-18 22:06:29+00:00</t>
+        </is>
+      </c>
+      <c r="B321" t="n">
+        <v>336.1</v>
+      </c>
+      <c r="C321" t="n">
+        <v>345.925</v>
+      </c>
+      <c r="D321" t="n">
+        <v>369.0133333333333</v>
+      </c>
+      <c r="E321" t="n">
+        <v>364.855</v>
+      </c>
+      <c r="F321" t="n">
+        <v>371.6933333333333</v>
+      </c>
+      <c r="G321" t="n">
+        <v>385.0214285714285</v>
+      </c>
+      <c r="H321" t="n">
+        <v>370.1788888888889</v>
+      </c>
+      <c r="I321" t="n">
+        <v>357.9766666666667</v>
+      </c>
+      <c r="J321" t="n">
+        <v>363.4914285714286</v>
+      </c>
+      <c r="K321" t="n">
+        <v>349.8233333333333</v>
+      </c>
+      <c r="L321" t="n">
+        <v>349.0230769230769</v>
+      </c>
+      <c r="M321" t="n">
+        <v>353.0133333333333</v>
+      </c>
+      <c r="N321" t="n">
+        <v>359.3430769230769</v>
+      </c>
+      <c r="O321" t="n">
+        <v>354.8314285714285</v>
+      </c>
+      <c r="P321" t="n">
+        <v>384.7014285714286</v>
+      </c>
+      <c r="Q321" t="inlineStr">
+        <is>
+          <t>L8</t>
+        </is>
+      </c>
+    </row>
+    <row r="322">
+      <c r="A322" s="1" t="inlineStr">
+        <is>
+          <t>2025-08-26 22:06:09+00:00</t>
+        </is>
+      </c>
+      <c r="B322" t="n">
+        <v>338.38</v>
+      </c>
+      <c r="C322" t="n">
+        <v>354.625</v>
+      </c>
+      <c r="D322" t="n">
+        <v>382.0566666666667</v>
+      </c>
+      <c r="E322" t="n">
+        <v>379.455</v>
+      </c>
+      <c r="F322" t="n">
+        <v>377.0066666666667</v>
+      </c>
+      <c r="G322" t="n">
+        <v>372.67</v>
+      </c>
+      <c r="H322" t="n">
+        <v>378.2711111111111</v>
+      </c>
+      <c r="I322" t="n">
+        <v>369.4633333333333</v>
+      </c>
+      <c r="J322" t="n">
+        <v>361.89</v>
+      </c>
+      <c r="K322" t="n">
+        <v>355.3866666666667</v>
+      </c>
+      <c r="L322" t="n">
+        <v>357.0661538461539</v>
+      </c>
+      <c r="M322" t="n">
+        <v>366.4966666666666</v>
+      </c>
+      <c r="N322" t="n">
+        <v>378.0061538461539</v>
+      </c>
+      <c r="O322" t="n">
+        <v>372.46</v>
+      </c>
+      <c r="P322" t="n">
+        <v>366.45</v>
+      </c>
+      <c r="Q322" t="inlineStr">
         <is>
           <t>L9</t>
         </is>
@@ -16681,7 +16911,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:B326"/>
+  <dimension ref="A1:B330"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -19949,6 +20179,46 @@
       </c>
       <c r="B326" t="n">
         <v>1.37</v>
+      </c>
+    </row>
+    <row r="327">
+      <c r="A327" t="inlineStr">
+        <is>
+          <t>2025-08-02 22:10:00+00:00</t>
+        </is>
+      </c>
+      <c r="B327" t="n">
+        <v>-0.73</v>
+      </c>
+    </row>
+    <row r="328">
+      <c r="A328" t="inlineStr">
+        <is>
+          <t>2025-08-10 22:10:00+00:00</t>
+        </is>
+      </c>
+      <c r="B328" t="n">
+        <v>1.41</v>
+      </c>
+    </row>
+    <row r="329">
+      <c r="A329" t="inlineStr">
+        <is>
+          <t>2025-08-18 22:10:00+00:00</t>
+        </is>
+      </c>
+      <c r="B329" t="n">
+        <v>-0.59</v>
+      </c>
+    </row>
+    <row r="330">
+      <c r="A330" t="inlineStr">
+        <is>
+          <t>2025-08-26 22:10:00+00:00</t>
+        </is>
+      </c>
+      <c r="B330" t="n">
+        <v>0.77</v>
       </c>
     </row>
   </sheetData>
@@ -20122,28 +20392,28 @@
         <v>0.1182</v>
       </c>
       <c r="I2" t="n">
-        <v>-0.04490634101171678</v>
+        <v>-0.05129950049493444</v>
       </c>
       <c r="J2" t="n">
-        <v>317</v>
+        <v>321</v>
       </c>
       <c r="K2" t="n">
-        <v>247</v>
+        <v>251</v>
       </c>
       <c r="L2" t="n">
-        <v>0.001007759945984565</v>
+        <v>0.001354482753454844</v>
       </c>
       <c r="M2" t="n">
-        <v>8.404564643877945</v>
+        <v>8.342604937264152</v>
       </c>
       <c r="N2" t="n">
-        <v>117.9980698562149</v>
+        <v>116.5010028926609</v>
       </c>
       <c r="O2" t="n">
-        <v>10.86269164876804</v>
+        <v>10.79356303046686</v>
       </c>
       <c r="P2" t="n">
-        <v>343.9343323344723</v>
+        <v>343.9959687380243</v>
       </c>
       <c r="Q2" t="inlineStr"/>
       <c r="R2" t="inlineStr">
@@ -20200,28 +20470,28 @@
         <v>0.0892</v>
       </c>
       <c r="I3" t="n">
-        <v>-0.03870430581456643</v>
+        <v>-0.03962871209824063</v>
       </c>
       <c r="J3" t="n">
-        <v>317</v>
+        <v>321</v>
       </c>
       <c r="K3" t="n">
-        <v>253</v>
+        <v>257</v>
       </c>
       <c r="L3" t="n">
-        <v>0.0008688786266926041</v>
+        <v>0.0009396178056925164</v>
       </c>
       <c r="M3" t="n">
-        <v>8.137856745255093</v>
+        <v>8.062902088909579</v>
       </c>
       <c r="N3" t="n">
-        <v>99.42052281235944</v>
+        <v>98.12701759702468</v>
       </c>
       <c r="O3" t="n">
-        <v>9.970984044333811</v>
+        <v>9.905908216666692</v>
       </c>
       <c r="P3" t="n">
-        <v>354.1882723337623</v>
+        <v>354.1972643390624</v>
       </c>
       <c r="Q3" t="inlineStr"/>
       <c r="R3" t="inlineStr">
@@ -20278,28 +20548,28 @@
         <v>0.0868</v>
       </c>
       <c r="I4" t="n">
-        <v>0.02572373462472832</v>
+        <v>0.03644011811456867</v>
       </c>
       <c r="J4" t="n">
-        <v>317</v>
+        <v>321</v>
       </c>
       <c r="K4" t="n">
-        <v>252</v>
+        <v>256</v>
       </c>
       <c r="L4" t="n">
-        <v>0.0004069839084200888</v>
+        <v>0.0008401018928778647</v>
       </c>
       <c r="M4" t="n">
-        <v>7.337047484996641</v>
+        <v>7.306490775722098</v>
       </c>
       <c r="N4" t="n">
-        <v>93.82284168271072</v>
+        <v>92.89426491283098</v>
       </c>
       <c r="O4" t="n">
-        <v>9.686219163466761</v>
+        <v>9.638167093012601</v>
       </c>
       <c r="P4" t="n">
-        <v>372.1621514978095</v>
+        <v>372.0590331286008</v>
       </c>
       <c r="Q4" t="inlineStr"/>
       <c r="R4" t="inlineStr">
@@ -20356,28 +20626,28 @@
         <v>0.0888</v>
       </c>
       <c r="I5" t="n">
-        <v>0.02206522445119787</v>
+        <v>0.03386679703230436</v>
       </c>
       <c r="J5" t="n">
-        <v>317</v>
+        <v>321</v>
       </c>
       <c r="K5" t="n">
-        <v>245</v>
+        <v>249</v>
       </c>
       <c r="L5" t="n">
-        <v>0.0003453341119906694</v>
+        <v>0.000835846106408078</v>
       </c>
       <c r="M5" t="n">
-        <v>6.685860485783789</v>
+        <v>6.670517288676426</v>
       </c>
       <c r="N5" t="n">
-        <v>80.44265659681825</v>
+        <v>79.83797585910955</v>
       </c>
       <c r="O5" t="n">
-        <v>8.968983030244747</v>
+        <v>8.935209894518961</v>
       </c>
       <c r="P5" t="n">
-        <v>368.1029292968491</v>
+        <v>367.9890984845502</v>
       </c>
       <c r="Q5" t="inlineStr"/>
       <c r="R5" t="inlineStr">
@@ -20434,28 +20704,28 @@
         <v>0.08119999999999999</v>
       </c>
       <c r="I6" t="n">
-        <v>0.02333048076812146</v>
+        <v>0.04621601620220292</v>
       </c>
       <c r="J6" t="n">
-        <v>317</v>
+        <v>321</v>
       </c>
       <c r="K6" t="n">
-        <v>263</v>
+        <v>267</v>
       </c>
       <c r="L6" t="n">
-        <v>0.0003159774490294476</v>
+        <v>0.00126735893038965</v>
       </c>
       <c r="M6" t="n">
-        <v>7.090642911910621</v>
+        <v>7.102273741402721</v>
       </c>
       <c r="N6" t="n">
-        <v>97.80216916345472</v>
+        <v>97.36145359401164</v>
       </c>
       <c r="O6" t="n">
-        <v>9.88949792271856</v>
+        <v>9.867190765056264</v>
       </c>
       <c r="P6" t="n">
-        <v>363.5131742235255</v>
+        <v>363.2906082212093</v>
       </c>
       <c r="Q6" t="inlineStr"/>
       <c r="R6" t="inlineStr">
@@ -20512,28 +20782,28 @@
         <v>0.08069999999999999</v>
       </c>
       <c r="I7" t="n">
-        <v>0.01689422654057381</v>
+        <v>0.05549047468965993</v>
       </c>
       <c r="J7" t="n">
-        <v>317</v>
+        <v>321</v>
       </c>
       <c r="K7" t="n">
-        <v>261</v>
+        <v>265</v>
       </c>
       <c r="L7" t="n">
-        <v>0.000197369106012979</v>
+        <v>0.002107887031462363</v>
       </c>
       <c r="M7" t="n">
-        <v>7.136428076903588</v>
+        <v>7.219449342424877</v>
       </c>
       <c r="N7" t="n">
-        <v>81.47381227040559</v>
+        <v>83.76235173714956</v>
       </c>
       <c r="O7" t="n">
-        <v>9.026284521906319</v>
+        <v>9.152177431472227</v>
       </c>
       <c r="P7" t="n">
-        <v>358.9939409697305</v>
+        <v>358.6199626182481</v>
       </c>
       <c r="Q7" t="inlineStr"/>
       <c r="R7" t="inlineStr">
@@ -20590,28 +20860,28 @@
         <v>0.0502</v>
       </c>
       <c r="I8" t="n">
-        <v>-0.01130897996353468</v>
+        <v>0.02556010531536241</v>
       </c>
       <c r="J8" t="n">
-        <v>317</v>
+        <v>321</v>
       </c>
       <c r="K8" t="n">
-        <v>263</v>
+        <v>268</v>
       </c>
       <c r="L8" t="n">
-        <v>5.33182502933105e-05</v>
+        <v>0.0002787478773080831</v>
       </c>
       <c r="M8" t="n">
-        <v>8.944521146693258</v>
+        <v>8.992697432074083</v>
       </c>
       <c r="N8" t="n">
-        <v>132.9820177608234</v>
+        <v>133.2406130762897</v>
       </c>
       <c r="O8" t="n">
-        <v>11.5317829393734</v>
+        <v>11.5429897806543</v>
       </c>
       <c r="P8" t="n">
-        <v>372.5731682816795</v>
+        <v>372.2160421814768</v>
       </c>
       <c r="Q8" t="inlineStr"/>
       <c r="R8" t="inlineStr">
@@ -20668,28 +20938,28 @@
         <v>0.0673</v>
       </c>
       <c r="I9" t="n">
-        <v>0.07556056452626173</v>
+        <v>0.07550986853423351</v>
       </c>
       <c r="J9" t="n">
-        <v>317</v>
+        <v>321</v>
       </c>
       <c r="K9" t="n">
-        <v>260</v>
+        <v>264</v>
       </c>
       <c r="L9" t="n">
-        <v>0.00320205881532043</v>
+        <v>0.003293102602624831</v>
       </c>
       <c r="M9" t="n">
-        <v>7.499343395699898</v>
+        <v>7.461045129648343</v>
       </c>
       <c r="N9" t="n">
-        <v>100.4287472881303</v>
+        <v>99.43104584399431</v>
       </c>
       <c r="O9" t="n">
-        <v>10.02141443550412</v>
+        <v>9.97151171307512</v>
       </c>
       <c r="P9" t="n">
-        <v>365.974341501644</v>
+        <v>365.9749192510732</v>
       </c>
       <c r="Q9" t="inlineStr"/>
       <c r="R9" t="inlineStr">
@@ -20746,28 +21016,28 @@
         <v>0.0764</v>
       </c>
       <c r="I10" t="n">
-        <v>0.1378080216407726</v>
+        <v>0.1378884267131559</v>
       </c>
       <c r="J10" t="n">
-        <v>317</v>
+        <v>321</v>
       </c>
       <c r="K10" t="n">
-        <v>249</v>
+        <v>253</v>
       </c>
       <c r="L10" t="n">
-        <v>0.01350685679303298</v>
+        <v>0.0140161037293125</v>
       </c>
       <c r="M10" t="n">
-        <v>6.679290557105665</v>
+        <v>6.589257116454077</v>
       </c>
       <c r="N10" t="n">
-        <v>79.69245940530649</v>
+        <v>78.44877760172423</v>
       </c>
       <c r="O10" t="n">
-        <v>8.927063313615877</v>
+        <v>8.857131454467876</v>
       </c>
       <c r="P10" t="n">
-        <v>359.2218741594182</v>
+        <v>359.2211119532485</v>
       </c>
       <c r="Q10" t="inlineStr"/>
       <c r="R10" t="inlineStr">
@@ -20824,28 +21094,28 @@
         <v>0.0815</v>
       </c>
       <c r="I11" t="n">
-        <v>0.2109116908491148</v>
+        <v>0.2077577018288307</v>
       </c>
       <c r="J11" t="n">
-        <v>317</v>
+        <v>321</v>
       </c>
       <c r="K11" t="n">
-        <v>253</v>
+        <v>257</v>
       </c>
       <c r="L11" t="n">
-        <v>0.02815406564751233</v>
+        <v>0.02827785934949023</v>
       </c>
       <c r="M11" t="n">
-        <v>7.307808963455341</v>
+        <v>7.219987939300287</v>
       </c>
       <c r="N11" t="n">
-        <v>87.41316575655009</v>
+        <v>86.1474019431818</v>
       </c>
       <c r="O11" t="n">
-        <v>9.349500829271587</v>
+        <v>9.281562473160529</v>
       </c>
       <c r="P11" t="n">
-        <v>349.2199403610098</v>
+        <v>349.250243416288</v>
       </c>
       <c r="Q11" t="inlineStr"/>
       <c r="R11" t="inlineStr">
@@ -20902,28 +21172,28 @@
         <v>0.07539999999999999</v>
       </c>
       <c r="I12" t="n">
-        <v>0.1957166611870329</v>
+        <v>0.1940342699794699</v>
       </c>
       <c r="J12" t="n">
-        <v>317</v>
+        <v>321</v>
       </c>
       <c r="K12" t="n">
-        <v>253</v>
+        <v>257</v>
       </c>
       <c r="L12" t="n">
-        <v>0.01809236158930194</v>
+        <v>0.01839150664271061</v>
       </c>
       <c r="M12" t="n">
-        <v>8.062953636336614</v>
+        <v>8.004774142875114</v>
       </c>
       <c r="N12" t="n">
-        <v>117.096722661991</v>
+        <v>115.5903629328557</v>
       </c>
       <c r="O12" t="n">
-        <v>10.8211239093724</v>
+        <v>10.75129587225911</v>
       </c>
       <c r="P12" t="n">
-        <v>349.7838940739533</v>
+        <v>349.8000210909325</v>
       </c>
       <c r="Q12" t="inlineStr"/>
       <c r="R12" t="inlineStr">
@@ -20980,28 +21250,28 @@
         <v>0.0871</v>
       </c>
       <c r="I13" t="n">
-        <v>0.2529599731888806</v>
+        <v>0.2507745685713387</v>
       </c>
       <c r="J13" t="n">
-        <v>317</v>
+        <v>321</v>
       </c>
       <c r="K13" t="n">
-        <v>251</v>
+        <v>255</v>
       </c>
       <c r="L13" t="n">
-        <v>0.04046848395613623</v>
+        <v>0.04090122981804922</v>
       </c>
       <c r="M13" t="n">
-        <v>7.331445160917188</v>
+        <v>7.319639422862318</v>
       </c>
       <c r="N13" t="n">
-        <v>86.00868680299975</v>
+        <v>85.36258346344519</v>
       </c>
       <c r="O13" t="n">
-        <v>9.274086844697958</v>
+        <v>9.239187381119899</v>
       </c>
       <c r="P13" t="n">
-        <v>355.5957852628248</v>
+        <v>355.6166638588718</v>
       </c>
       <c r="Q13" t="inlineStr"/>
       <c r="R13" t="inlineStr">
@@ -21058,28 +21328,28 @@
         <v>0.0713</v>
       </c>
       <c r="I14" t="n">
-        <v>0.2284436189540799</v>
+        <v>0.2224072194176336</v>
       </c>
       <c r="J14" t="n">
-        <v>317</v>
+        <v>321</v>
       </c>
       <c r="K14" t="n">
-        <v>246</v>
+        <v>250</v>
       </c>
       <c r="L14" t="n">
-        <v>0.03492768175294425</v>
+        <v>0.03400459895114183</v>
       </c>
       <c r="M14" t="n">
-        <v>7.047843403890542</v>
+        <v>7.059214120738297</v>
       </c>
       <c r="N14" t="n">
-        <v>84.25161764867373</v>
+        <v>83.92473163120206</v>
       </c>
       <c r="O14" t="n">
-        <v>9.178867993858161</v>
+        <v>9.161044243491135</v>
       </c>
       <c r="P14" t="n">
-        <v>364.4347998994009</v>
+        <v>364.4906005366112</v>
       </c>
       <c r="Q14" t="inlineStr"/>
       <c r="R14" t="inlineStr">
@@ -21136,28 +21406,28 @@
         <v>0.0808</v>
       </c>
       <c r="I15" t="n">
-        <v>0.1605251881374834</v>
+        <v>0.1485612710688081</v>
       </c>
       <c r="J15" t="n">
-        <v>317</v>
+        <v>321</v>
       </c>
       <c r="K15" t="n">
-        <v>259</v>
+        <v>263</v>
       </c>
       <c r="L15" t="n">
-        <v>0.01400751137114786</v>
+        <v>0.0123032314686653</v>
       </c>
       <c r="M15" t="n">
-        <v>7.830795040664944</v>
+        <v>7.844240398245252</v>
       </c>
       <c r="N15" t="n">
-        <v>104.5217923687528</v>
+        <v>103.9475717461167</v>
       </c>
       <c r="O15" t="n">
-        <v>10.22358999416315</v>
+        <v>10.19546819651342</v>
       </c>
       <c r="P15" t="n">
-        <v>360.4841638328293</v>
+        <v>360.5996157801976</v>
       </c>
       <c r="Q15" t="inlineStr"/>
       <c r="R15" t="inlineStr">
@@ -21208,28 +21478,28 @@
       <c r="G16" t="inlineStr"/>
       <c r="H16" t="inlineStr"/>
       <c r="I16" t="n">
-        <v>0.9645366011376213</v>
+        <v>0.9996204773649899</v>
       </c>
       <c r="J16" t="n">
-        <v>317</v>
+        <v>321</v>
       </c>
       <c r="K16" t="n">
-        <v>239</v>
+        <v>243</v>
       </c>
       <c r="L16" t="n">
-        <v>0.1260731121759175</v>
+        <v>0.1362597661904061</v>
       </c>
       <c r="M16" t="n">
-        <v>15.68917096123221</v>
+        <v>15.73818317793141</v>
       </c>
       <c r="N16" t="n">
-        <v>369.5401483064563</v>
+        <v>370.7208276748179</v>
       </c>
       <c r="O16" t="n">
-        <v>19.22342706976195</v>
+        <v>19.25411196796201</v>
       </c>
       <c r="P16" t="n">
-        <v>352.1186446800345</v>
+        <v>351.7839257835647</v>
       </c>
       <c r="Q16" t="inlineStr"/>
       <c r="R16" t="inlineStr">
@@ -21267,7 +21537,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:Q318"/>
+  <dimension ref="A1:Q322"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -45050,7 +45320,11 @@
           <t>-38.12180853321547,174.73689708457547</t>
         </is>
       </c>
-      <c r="H318" t="inlineStr"/>
+      <c r="H318" t="inlineStr">
+        <is>
+          <t>-38.12123051272312,174.73743630357225</t>
+        </is>
+      </c>
       <c r="I318" t="inlineStr">
         <is>
           <t>-38.120804580515696,174.73816247345846</t>
@@ -45092,6 +45366,354 @@
         </is>
       </c>
       <c r="Q318" t="inlineStr">
+        <is>
+          <t>L9</t>
+        </is>
+      </c>
+    </row>
+    <row r="319">
+      <c r="A319" s="1" t="inlineStr">
+        <is>
+          <t>2025-08-02 22:05:57+00:00</t>
+        </is>
+      </c>
+      <c r="B319" t="inlineStr">
+        <is>
+          <t>-38.12384540696137,174.7333819066004</t>
+        </is>
+      </c>
+      <c r="C319" t="inlineStr">
+        <is>
+          <t>-38.123578954660275,174.73421709954846</t>
+        </is>
+      </c>
+      <c r="D319" t="inlineStr">
+        <is>
+          <t>-38.123201106305196,174.7349574306275</t>
+        </is>
+      </c>
+      <c r="E319" t="inlineStr">
+        <is>
+          <t>-38.122787204261996,174.73560733977027</t>
+        </is>
+      </c>
+      <c r="F319" t="inlineStr">
+        <is>
+          <t>-38.122336364661585,174.73629632327496</t>
+        </is>
+      </c>
+      <c r="G319" t="inlineStr">
+        <is>
+          <t>-38.1219064503111,174.73701780416664</t>
+        </is>
+      </c>
+      <c r="H319" t="inlineStr">
+        <is>
+          <t>-38.1212395359343,174.73744740716512</t>
+        </is>
+      </c>
+      <c r="I319" t="inlineStr">
+        <is>
+          <t>-38.120857244624155,174.73822725209556</t>
+        </is>
+      </c>
+      <c r="J319" t="inlineStr">
+        <is>
+          <t>-38.12044295689157,174.73896835113882</t>
+        </is>
+      </c>
+      <c r="K319" t="inlineStr">
+        <is>
+          <t>-38.12001166961417,174.73968538326912</t>
+        </is>
+      </c>
+      <c r="L319" t="inlineStr">
+        <is>
+          <t>-38.1195725358833,174.74039094666279</t>
+        </is>
+      </c>
+      <c r="M319" t="inlineStr">
+        <is>
+          <t>-38.119067217358165,174.74102162985247</t>
+        </is>
+      </c>
+      <c r="N319" t="inlineStr">
+        <is>
+          <t>-38.11853646615439,174.74161076792907</t>
+        </is>
+      </c>
+      <c r="O319" t="inlineStr">
+        <is>
+          <t>-38.11804613132834,174.74226102962763</t>
+        </is>
+      </c>
+      <c r="P319" t="inlineStr">
+        <is>
+          <t>-38.11734077247499,174.74259441069339</t>
+        </is>
+      </c>
+      <c r="Q319" t="inlineStr">
+        <is>
+          <t>L8</t>
+        </is>
+      </c>
+    </row>
+    <row r="320">
+      <c r="A320" s="1" t="inlineStr">
+        <is>
+          <t>2025-08-10 22:06:04+00:00</t>
+        </is>
+      </c>
+      <c r="B320" t="inlineStr">
+        <is>
+          <t>-38.12391296329846,174.7334088072269</t>
+        </is>
+      </c>
+      <c r="C320" t="inlineStr">
+        <is>
+          <t>-38.123574055546236,174.7342151487138</t>
+        </is>
+      </c>
+      <c r="D320" t="inlineStr">
+        <is>
+          <t>-38.12320311961119,174.73495887102274</t>
+        </is>
+      </c>
+      <c r="E320" t="inlineStr">
+        <is>
+          <t>-38.12281595810717,174.73564122316503</t>
+        </is>
+      </c>
+      <c r="F320" t="inlineStr">
+        <is>
+          <t>-38.12233814920058,174.73629852656543</t>
+        </is>
+      </c>
+      <c r="G320" t="inlineStr">
+        <is>
+          <t>-38.12184215275503,174.73693853322817</t>
+        </is>
+      </c>
+      <c r="H320" t="inlineStr">
+        <is>
+          <t>-38.121277681780406,174.73749434792134</t>
+        </is>
+      </c>
+      <c r="I320" t="inlineStr">
+        <is>
+          <t>-38.120867669743745,174.73824007536237</t>
+        </is>
+      </c>
+      <c r="J320" t="inlineStr">
+        <is>
+          <t>-38.12042768570429,174.7389499266197</t>
+        </is>
+      </c>
+      <c r="K320" t="inlineStr">
+        <is>
+          <t>-38.12001503529897,174.73968928738225</t>
+        </is>
+      </c>
+      <c r="L320" t="inlineStr">
+        <is>
+          <t>-38.11951178595116,174.7403218731227</t>
+        </is>
+      </c>
+      <c r="M320" t="inlineStr">
+        <is>
+          <t>-38.11898785441868,174.74092513649634</t>
+        </is>
+      </c>
+      <c r="N320" t="inlineStr">
+        <is>
+          <t>-38.1184662796705,174.7415131529208</t>
+        </is>
+      </c>
+      <c r="O320" t="inlineStr">
+        <is>
+          <t>-38.118024173865855,174.7422283520583</t>
+        </is>
+      </c>
+      <c r="P320" t="inlineStr">
+        <is>
+          <t>-38.11715664830576,174.74232039620125</t>
+        </is>
+      </c>
+      <c r="Q320" t="inlineStr">
+        <is>
+          <t>L9</t>
+        </is>
+      </c>
+    </row>
+    <row r="321">
+      <c r="A321" s="1" t="inlineStr">
+        <is>
+          <t>2025-08-18 22:06:29+00:00</t>
+        </is>
+      </c>
+      <c r="B321" t="inlineStr">
+        <is>
+          <t>-38.12394639766585,174.73342212066044</t>
+        </is>
+      </c>
+      <c r="C321" t="inlineStr">
+        <is>
+          <t>-38.12365845782074,174.73424875786844</t>
+        </is>
+      </c>
+      <c r="D321" t="inlineStr">
+        <is>
+          <t>-38.123267336218,174.73500481406091</t>
+        </is>
+      </c>
+      <c r="E321" t="inlineStr">
+        <is>
+          <t>-38.12285394482222,174.73568598658983</t>
+        </is>
+      </c>
+      <c r="F321" t="inlineStr">
+        <is>
+          <t>-38.12232432439727,174.73628145770348</t>
+        </is>
+      </c>
+      <c r="G321" t="inlineStr">
+        <is>
+          <t>-38.12175140946919,174.73682665833158</t>
+        </is>
+      </c>
+      <c r="H321" t="inlineStr">
+        <is>
+          <t>-38.12136105127297,174.73759693934915</t>
+        </is>
+      </c>
+      <c r="I321" t="inlineStr">
+        <is>
+          <t>-38.12095402155437,174.73834629136363</t>
+        </is>
+      </c>
+      <c r="J321" t="inlineStr">
+        <is>
+          <t>-38.12043206487365,174.73895521003806</t>
+        </is>
+      </c>
+      <c r="K321" t="inlineStr">
+        <is>
+          <t>-38.120046167876495,174.73972540044548</t>
+        </is>
+      </c>
+      <c r="L321" t="inlineStr">
+        <is>
+          <t>-38.119586519395654,174.7404068461393</t>
+        </is>
+      </c>
+      <c r="M321" t="inlineStr">
+        <is>
+          <t>-38.1190938160535,174.7410539699215</t>
+        </is>
+      </c>
+      <c r="N321" t="inlineStr">
+        <is>
+          <t>-38.118555364474354,174.7416370516697</t>
+        </is>
+      </c>
+      <c r="O321" t="inlineStr">
+        <is>
+          <t>-38.11805010084958,174.74226693715838</t>
+        </is>
+      </c>
+      <c r="P321" t="inlineStr">
+        <is>
+          <t>-38.117343399360486,174.7425983200545</t>
+        </is>
+      </c>
+      <c r="Q321" t="inlineStr">
+        <is>
+          <t>L8</t>
+        </is>
+      </c>
+    </row>
+    <row r="322">
+      <c r="A322" s="1" t="inlineStr">
+        <is>
+          <t>2025-08-26 22:06:09+00:00</t>
+        </is>
+      </c>
+      <c r="B322" t="inlineStr">
+        <is>
+          <t>-38.12392680117312,174.73341431741252</t>
+        </is>
+      </c>
+      <c r="C322" t="inlineStr">
+        <is>
+          <t>-38.12358368187554,174.73421898193303</t>
+        </is>
+      </c>
+      <c r="D322" t="inlineStr">
+        <is>
+          <t>-38.123165023674716,174.73493161576565</t>
+        </is>
+      </c>
+      <c r="E322" t="inlineStr">
+        <is>
+          <t>-38.122757659015605,174.73557252383273</t>
+        </is>
+      </c>
+      <c r="F322" t="inlineStr">
+        <is>
+          <t>-38.12229005263386,174.73623914394287</t>
+        </is>
+      </c>
+      <c r="G322" t="inlineStr">
+        <is>
+          <t>-38.121831133735974,174.7369249481609</t>
+        </is>
+      </c>
+      <c r="H322" t="inlineStr">
+        <is>
+          <t>-38.12130877127612,174.73753260546883</t>
+        </is>
+      </c>
+      <c r="I322" t="inlineStr">
+        <is>
+          <t>-38.12087979648218,174.73825499168765</t>
+        </is>
+      </c>
+      <c r="J322" t="inlineStr">
+        <is>
+          <t>-38.12044250965733,174.73896781155548</t>
+        </is>
+      </c>
+      <c r="K322" t="inlineStr">
+        <is>
+          <t>-38.120009211778516,174.7396825322394</t>
+        </is>
+      </c>
+      <c r="L322" t="inlineStr">
+        <is>
+          <t>-38.11953260654906,174.74034554642114</t>
+        </is>
+      </c>
+      <c r="M322" t="inlineStr">
+        <is>
+          <t>-38.11900620060796,174.7409474426657</t>
+        </is>
+      </c>
+      <c r="N322" t="inlineStr">
+        <is>
+          <t>-38.118442179725285,174.7414796349091</t>
+        </is>
+      </c>
+      <c r="O322" t="inlineStr">
+        <is>
+          <t>-38.11794719341129,174.74211378835255</t>
+        </is>
+      </c>
+      <c r="P322" t="inlineStr">
+        <is>
+          <t>-38.1174499423843,174.74275687901172</t>
+        </is>
+      </c>
+      <c r="Q322" t="inlineStr">
         <is>
           <t>L9</t>
         </is>

--- a/data/nzd0246/nzd0246.xlsx
+++ b/data/nzd0246/nzd0246.xlsx
@@ -428,7 +428,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:Q322"/>
+  <dimension ref="A1:Q323"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -16900,6 +16900,61 @@
         </is>
       </c>
     </row>
+    <row r="323">
+      <c r="A323" s="1" t="inlineStr">
+        <is>
+          <t>2025-09-03 22:06:33+00:00</t>
+        </is>
+      </c>
+      <c r="B323" t="n">
+        <v>333.84</v>
+      </c>
+      <c r="C323" t="n">
+        <v>346.02</v>
+      </c>
+      <c r="D323" t="n">
+        <v>374.7866666666667</v>
+      </c>
+      <c r="E323" t="n">
+        <v>369.67</v>
+      </c>
+      <c r="F323" t="n">
+        <v>366.7766666666666</v>
+      </c>
+      <c r="G323" t="n">
+        <v>356.8371428571429</v>
+      </c>
+      <c r="H323" t="n">
+        <v>364.0511111111111</v>
+      </c>
+      <c r="I323" t="n">
+        <v>359.4533333333333</v>
+      </c>
+      <c r="J323" t="n">
+        <v>361.6871428571428</v>
+      </c>
+      <c r="K323" t="n">
+        <v>350.2566666666667</v>
+      </c>
+      <c r="L323" t="n">
+        <v>350.0753846153846</v>
+      </c>
+      <c r="M323" t="n">
+        <v>356.8966666666666</v>
+      </c>
+      <c r="N323" t="n">
+        <v>364.0053846153846</v>
+      </c>
+      <c r="O323" t="n">
+        <v>358.2171428571428</v>
+      </c>
+      <c r="P323" t="inlineStr"/>
+      <c r="Q323" t="inlineStr">
+        <is>
+          <t>L8</t>
+        </is>
+      </c>
+    </row>
   </sheetData>
   <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
 </worksheet>
@@ -16911,7 +16966,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:B330"/>
+  <dimension ref="A1:B331"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -20219,6 +20274,16 @@
       </c>
       <c r="B330" t="n">
         <v>0.77</v>
+      </c>
+    </row>
+    <row r="331">
+      <c r="A331" t="inlineStr">
+        <is>
+          <t>2025-09-03 22:10:00+00:00</t>
+        </is>
+      </c>
+      <c r="B331" t="n">
+        <v>-0.22</v>
       </c>
     </row>
   </sheetData>
@@ -20392,28 +20457,28 @@
         <v>0.1182</v>
       </c>
       <c r="I2" t="n">
-        <v>-0.05129950049493444</v>
+        <v>-0.05768387662148524</v>
       </c>
       <c r="J2" t="n">
-        <v>321</v>
+        <v>322</v>
       </c>
       <c r="K2" t="n">
-        <v>251</v>
+        <v>252</v>
       </c>
       <c r="L2" t="n">
-        <v>0.001354482753454844</v>
+        <v>0.001721258179430141</v>
       </c>
       <c r="M2" t="n">
-        <v>8.342604937264152</v>
+        <v>8.341144648811076</v>
       </c>
       <c r="N2" t="n">
-        <v>116.5010028926609</v>
+        <v>116.3434020427304</v>
       </c>
       <c r="O2" t="n">
-        <v>10.79356303046686</v>
+        <v>10.78625987276083</v>
       </c>
       <c r="P2" t="n">
-        <v>343.9959687380243</v>
+        <v>344.0575653381974</v>
       </c>
       <c r="Q2" t="inlineStr"/>
       <c r="R2" t="inlineStr">
@@ -20470,28 +20535,28 @@
         <v>0.0892</v>
       </c>
       <c r="I3" t="n">
-        <v>-0.03962871209824063</v>
+        <v>-0.04484140925251941</v>
       </c>
       <c r="J3" t="n">
-        <v>321</v>
+        <v>322</v>
       </c>
       <c r="K3" t="n">
-        <v>257</v>
+        <v>258</v>
       </c>
       <c r="L3" t="n">
-        <v>0.0009396178056925164</v>
+        <v>0.001210197900009979</v>
       </c>
       <c r="M3" t="n">
-        <v>8.062902088909579</v>
+        <v>8.059587464837435</v>
       </c>
       <c r="N3" t="n">
-        <v>98.12701759702468</v>
+        <v>97.94200339431841</v>
       </c>
       <c r="O3" t="n">
-        <v>9.905908216666692</v>
+        <v>9.896565232155973</v>
       </c>
       <c r="P3" t="n">
-        <v>354.1972643390624</v>
+        <v>354.2478573162421</v>
       </c>
       <c r="Q3" t="inlineStr"/>
       <c r="R3" t="inlineStr">
@@ -20548,28 +20613,28 @@
         <v>0.0868</v>
       </c>
       <c r="I4" t="n">
-        <v>0.03644011811456867</v>
+        <v>0.03775163843007106</v>
       </c>
       <c r="J4" t="n">
-        <v>321</v>
+        <v>322</v>
       </c>
       <c r="K4" t="n">
-        <v>256</v>
+        <v>257</v>
       </c>
       <c r="L4" t="n">
-        <v>0.0008401018928778647</v>
+        <v>0.0009090437084048331</v>
       </c>
       <c r="M4" t="n">
-        <v>7.306490775722098</v>
+        <v>7.284678032664893</v>
       </c>
       <c r="N4" t="n">
-        <v>92.89426491283098</v>
+        <v>92.54492475492502</v>
       </c>
       <c r="O4" t="n">
-        <v>9.638167093012601</v>
+        <v>9.620027274125839</v>
       </c>
       <c r="P4" t="n">
-        <v>372.0590331286008</v>
+        <v>372.0463821707736</v>
       </c>
       <c r="Q4" t="inlineStr"/>
       <c r="R4" t="inlineStr">
@@ -20626,28 +20691,28 @@
         <v>0.0888</v>
       </c>
       <c r="I5" t="n">
-        <v>0.03386679703230436</v>
+        <v>0.03448015243572704</v>
       </c>
       <c r="J5" t="n">
-        <v>321</v>
+        <v>322</v>
       </c>
       <c r="K5" t="n">
-        <v>249</v>
+        <v>250</v>
       </c>
       <c r="L5" t="n">
-        <v>0.000835846106408078</v>
+        <v>0.0008739569190744367</v>
       </c>
       <c r="M5" t="n">
-        <v>6.670517288676426</v>
+        <v>6.64699768700515</v>
       </c>
       <c r="N5" t="n">
-        <v>79.83797585910955</v>
+        <v>79.52112602028147</v>
       </c>
       <c r="O5" t="n">
-        <v>8.935209894518961</v>
+        <v>8.917461859760403</v>
       </c>
       <c r="P5" t="n">
-        <v>367.9890984845502</v>
+        <v>367.9831686427054</v>
       </c>
       <c r="Q5" t="inlineStr"/>
       <c r="R5" t="inlineStr">
@@ -20704,28 +20769,28 @@
         <v>0.08119999999999999</v>
       </c>
       <c r="I6" t="n">
-        <v>0.04621601620220292</v>
+        <v>0.04785395350026415</v>
       </c>
       <c r="J6" t="n">
-        <v>321</v>
+        <v>322</v>
       </c>
       <c r="K6" t="n">
-        <v>267</v>
+        <v>268</v>
       </c>
       <c r="L6" t="n">
-        <v>0.00126735893038965</v>
+        <v>0.001369437017378794</v>
       </c>
       <c r="M6" t="n">
-        <v>7.102273741402721</v>
+        <v>7.084156763476894</v>
       </c>
       <c r="N6" t="n">
-        <v>97.36145359401164</v>
+        <v>97.01730678692077</v>
       </c>
       <c r="O6" t="n">
-        <v>9.867190765056264</v>
+        <v>9.849736381595234</v>
       </c>
       <c r="P6" t="n">
-        <v>363.2906082212093</v>
+        <v>363.2746438977721</v>
       </c>
       <c r="Q6" t="inlineStr"/>
       <c r="R6" t="inlineStr">
@@ -20782,28 +20847,28 @@
         <v>0.08069999999999999</v>
       </c>
       <c r="I7" t="n">
-        <v>0.05549047468965993</v>
+        <v>0.05310697034671755</v>
       </c>
       <c r="J7" t="n">
-        <v>321</v>
+        <v>322</v>
       </c>
       <c r="K7" t="n">
-        <v>265</v>
+        <v>266</v>
       </c>
       <c r="L7" t="n">
-        <v>0.002107887031462363</v>
+        <v>0.001946417833628478</v>
       </c>
       <c r="M7" t="n">
-        <v>7.219449342424877</v>
+        <v>7.204422709236177</v>
       </c>
       <c r="N7" t="n">
-        <v>83.76235173714956</v>
+        <v>83.48626918943998</v>
       </c>
       <c r="O7" t="n">
-        <v>9.152177431472227</v>
+        <v>9.137082093832801</v>
       </c>
       <c r="P7" t="n">
-        <v>358.6199626182481</v>
+        <v>358.643104861537</v>
       </c>
       <c r="Q7" t="inlineStr"/>
       <c r="R7" t="inlineStr">
@@ -20860,28 +20925,28 @@
         <v>0.0502</v>
       </c>
       <c r="I8" t="n">
-        <v>0.02556010531536241</v>
+        <v>0.01901440143824036</v>
       </c>
       <c r="J8" t="n">
-        <v>321</v>
+        <v>322</v>
       </c>
       <c r="K8" t="n">
-        <v>268</v>
+        <v>269</v>
       </c>
       <c r="L8" t="n">
-        <v>0.0002787478773080831</v>
+        <v>0.000155261615656932</v>
       </c>
       <c r="M8" t="n">
-        <v>8.992697432074083</v>
+        <v>8.988238007790413</v>
       </c>
       <c r="N8" t="n">
-        <v>133.2406130762897</v>
+        <v>133.0318007304005</v>
       </c>
       <c r="O8" t="n">
-        <v>11.5429897806543</v>
+        <v>11.53394124878398</v>
       </c>
       <c r="P8" t="n">
-        <v>372.2160421814768</v>
+        <v>372.2796891588556</v>
       </c>
       <c r="Q8" t="inlineStr"/>
       <c r="R8" t="inlineStr">
@@ -20938,28 +21003,28 @@
         <v>0.0673</v>
       </c>
       <c r="I9" t="n">
-        <v>0.07550986853423351</v>
+        <v>0.06924006376482837</v>
       </c>
       <c r="J9" t="n">
-        <v>321</v>
+        <v>322</v>
       </c>
       <c r="K9" t="n">
-        <v>264</v>
+        <v>265</v>
       </c>
       <c r="L9" t="n">
-        <v>0.003293102602624831</v>
+        <v>0.002786211852423559</v>
       </c>
       <c r="M9" t="n">
-        <v>7.461045129648343</v>
+        <v>7.461199817740888</v>
       </c>
       <c r="N9" t="n">
-        <v>99.43104584399431</v>
+        <v>99.3248305111198</v>
       </c>
       <c r="O9" t="n">
-        <v>9.97151171307512</v>
+        <v>9.966184350648938</v>
       </c>
       <c r="P9" t="n">
-        <v>365.9749192510732</v>
+        <v>366.0357075899572</v>
       </c>
       <c r="Q9" t="inlineStr"/>
       <c r="R9" t="inlineStr">
@@ -21016,28 +21081,28 @@
         <v>0.0764</v>
       </c>
       <c r="I10" t="n">
-        <v>0.1378884267131559</v>
+        <v>0.1370181298444208</v>
       </c>
       <c r="J10" t="n">
-        <v>321</v>
+        <v>322</v>
       </c>
       <c r="K10" t="n">
-        <v>253</v>
+        <v>254</v>
       </c>
       <c r="L10" t="n">
-        <v>0.0140161037293125</v>
+        <v>0.01396254933479568</v>
       </c>
       <c r="M10" t="n">
-        <v>6.589257116454077</v>
+        <v>6.567911892022492</v>
       </c>
       <c r="N10" t="n">
-        <v>78.44877760172423</v>
+        <v>78.14494911022645</v>
       </c>
       <c r="O10" t="n">
-        <v>8.857131454467876</v>
+        <v>8.8399631848909</v>
       </c>
       <c r="P10" t="n">
-        <v>359.2211119532485</v>
+        <v>359.2294035117135</v>
       </c>
       <c r="Q10" t="inlineStr"/>
       <c r="R10" t="inlineStr">
@@ -21094,28 +21159,28 @@
         <v>0.0815</v>
       </c>
       <c r="I11" t="n">
-        <v>0.2077577018288307</v>
+        <v>0.2044185604639356</v>
       </c>
       <c r="J11" t="n">
-        <v>321</v>
+        <v>322</v>
       </c>
       <c r="K11" t="n">
-        <v>257</v>
+        <v>258</v>
       </c>
       <c r="L11" t="n">
-        <v>0.02827785934949023</v>
+        <v>0.0276090727744035</v>
       </c>
       <c r="M11" t="n">
-        <v>7.219987939300287</v>
+        <v>7.211354888303706</v>
       </c>
       <c r="N11" t="n">
-        <v>86.1474019431818</v>
+        <v>85.88835394296272</v>
       </c>
       <c r="O11" t="n">
-        <v>9.281562473160529</v>
+        <v>9.267596988592173</v>
       </c>
       <c r="P11" t="n">
-        <v>349.250243416288</v>
+        <v>349.2823929197219</v>
       </c>
       <c r="Q11" t="inlineStr"/>
       <c r="R11" t="inlineStr">
@@ -21172,28 +21237,28 @@
         <v>0.07539999999999999</v>
       </c>
       <c r="I12" t="n">
-        <v>0.1940342699794699</v>
+        <v>0.1903497322884884</v>
       </c>
       <c r="J12" t="n">
-        <v>321</v>
+        <v>322</v>
       </c>
       <c r="K12" t="n">
-        <v>257</v>
+        <v>258</v>
       </c>
       <c r="L12" t="n">
-        <v>0.01839150664271061</v>
+        <v>0.01785370133758302</v>
       </c>
       <c r="M12" t="n">
-        <v>8.004774142875114</v>
+        <v>7.99394626790201</v>
       </c>
       <c r="N12" t="n">
-        <v>115.5903629328557</v>
+        <v>115.2303155555151</v>
       </c>
       <c r="O12" t="n">
-        <v>10.75129587225911</v>
+        <v>10.73453844166181</v>
       </c>
       <c r="P12" t="n">
-        <v>349.8000210909325</v>
+        <v>349.8354827306975</v>
       </c>
       <c r="Q12" t="inlineStr"/>
       <c r="R12" t="inlineStr">
@@ -21250,28 +21315,28 @@
         <v>0.0871</v>
       </c>
       <c r="I13" t="n">
-        <v>0.2507745685713387</v>
+        <v>0.2467198485740322</v>
       </c>
       <c r="J13" t="n">
-        <v>321</v>
+        <v>322</v>
       </c>
       <c r="K13" t="n">
-        <v>255</v>
+        <v>256</v>
       </c>
       <c r="L13" t="n">
-        <v>0.04090122981804922</v>
+        <v>0.03993241363243505</v>
       </c>
       <c r="M13" t="n">
-        <v>7.319639422862318</v>
+        <v>7.316140181218083</v>
       </c>
       <c r="N13" t="n">
-        <v>85.36258346344519</v>
+        <v>85.13635630921149</v>
       </c>
       <c r="O13" t="n">
-        <v>9.239187381119899</v>
+        <v>9.226936453081894</v>
       </c>
       <c r="P13" t="n">
-        <v>355.6166638588718</v>
+        <v>355.6555811627377</v>
       </c>
       <c r="Q13" t="inlineStr"/>
       <c r="R13" t="inlineStr">
@@ -21328,28 +21393,28 @@
         <v>0.0713</v>
       </c>
       <c r="I14" t="n">
-        <v>0.2224072194176336</v>
+        <v>0.2175099592260674</v>
       </c>
       <c r="J14" t="n">
-        <v>321</v>
+        <v>322</v>
       </c>
       <c r="K14" t="n">
-        <v>250</v>
+        <v>251</v>
       </c>
       <c r="L14" t="n">
-        <v>0.03400459895114183</v>
+        <v>0.03280359242800235</v>
       </c>
       <c r="M14" t="n">
-        <v>7.059214120738297</v>
+        <v>7.058801199494058</v>
       </c>
       <c r="N14" t="n">
-        <v>83.92473163120206</v>
+        <v>83.74626419686707</v>
       </c>
       <c r="O14" t="n">
-        <v>9.161044243491135</v>
+        <v>9.151298497856306</v>
       </c>
       <c r="P14" t="n">
-        <v>364.4906005366112</v>
+        <v>364.536083953938</v>
       </c>
       <c r="Q14" t="inlineStr"/>
       <c r="R14" t="inlineStr">
@@ -21406,28 +21471,28 @@
         <v>0.0808</v>
       </c>
       <c r="I15" t="n">
-        <v>0.1485612710688081</v>
+        <v>0.1440664822407487</v>
       </c>
       <c r="J15" t="n">
-        <v>321</v>
+        <v>322</v>
       </c>
       <c r="K15" t="n">
-        <v>263</v>
+        <v>264</v>
       </c>
       <c r="L15" t="n">
-        <v>0.0123032314686653</v>
+        <v>0.01165489563395017</v>
       </c>
       <c r="M15" t="n">
-        <v>7.844240398245252</v>
+        <v>7.842278328573357</v>
       </c>
       <c r="N15" t="n">
-        <v>103.9475717461167</v>
+        <v>103.7007234993178</v>
       </c>
       <c r="O15" t="n">
-        <v>10.19546819651342</v>
+        <v>10.18335521816448</v>
       </c>
       <c r="P15" t="n">
-        <v>360.5996157801976</v>
+        <v>360.6431712268135</v>
       </c>
       <c r="Q15" t="inlineStr"/>
       <c r="R15" t="inlineStr">
@@ -21481,7 +21546,7 @@
         <v>0.9996204773649899</v>
       </c>
       <c r="J16" t="n">
-        <v>321</v>
+        <v>322</v>
       </c>
       <c r="K16" t="n">
         <v>243</v>
@@ -21537,7 +21602,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:Q322"/>
+  <dimension ref="A1:Q323"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -45719,6 +45784,89 @@
         </is>
       </c>
     </row>
+    <row r="323">
+      <c r="A323" s="1" t="inlineStr">
+        <is>
+          <t>2025-09-03 22:06:33+00:00</t>
+        </is>
+      </c>
+      <c r="B323" t="inlineStr">
+        <is>
+          <t>-38.12396582225884,174.73342985546313</t>
+        </is>
+      </c>
+      <c r="C323" t="inlineStr">
+        <is>
+          <t>-38.12365764130185,174.73424843272858</t>
+        </is>
+      </c>
+      <c r="D323" t="inlineStr">
+        <is>
+          <t>-38.12322204991599,174.73497241448314</t>
+        </is>
+      </c>
+      <c r="E323" t="inlineStr">
+        <is>
+          <t>-38.122822190303864,174.73564856716123</t>
+        </is>
+      </c>
+      <c r="F323" t="inlineStr">
+        <is>
+          <t>-38.12235603758908,174.73632061256745</t>
+        </is>
+      </c>
+      <c r="G323" t="inlineStr">
+        <is>
+          <t>-38.12193332930967,174.73705094271153</t>
+        </is>
+      </c>
+      <c r="H323" t="inlineStr">
+        <is>
+          <t>-38.121400639903875,174.737645655784</t>
+        </is>
+      </c>
+      <c r="I323" t="inlineStr">
+        <is>
+          <t>-38.1209444795659,174.73833455433748</t>
+        </is>
+      </c>
+      <c r="J323" t="inlineStr">
+        <is>
+          <t>-38.12044383272528,174.7389694078229</t>
+        </is>
+      </c>
+      <c r="K323" t="inlineStr">
+        <is>
+          <t>-38.120043289331434,174.7397220613985</t>
+        </is>
+      </c>
+      <c r="L323" t="inlineStr">
+        <is>
+          <t>-38.11957946576582,174.74039882604862</t>
+        </is>
+      </c>
+      <c r="M323" t="inlineStr">
+        <is>
+          <t>-38.11906858194944,174.74102328899224</t>
+        </is>
+      </c>
+      <c r="N323" t="inlineStr">
+        <is>
+          <t>-38.11852708930113,174.74159772663103</t>
+        </is>
+      </c>
+      <c r="O323" t="inlineStr">
+        <is>
+          <t>-38.11803033663356,174.7422375236187</t>
+        </is>
+      </c>
+      <c r="P323" t="inlineStr"/>
+      <c r="Q323" t="inlineStr">
+        <is>
+          <t>L8</t>
+        </is>
+      </c>
+    </row>
   </sheetData>
   <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
 </worksheet>

--- a/data/nzd0246/nzd0246.xlsx
+++ b/data/nzd0246/nzd0246.xlsx
@@ -428,7 +428,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:Q323"/>
+  <dimension ref="A1:Q324"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -16955,6 +16955,63 @@
         </is>
       </c>
     </row>
+    <row r="324">
+      <c r="A324" s="1" t="inlineStr">
+        <is>
+          <t>2025-09-19 22:06:15+00:00</t>
+        </is>
+      </c>
+      <c r="B324" t="n">
+        <v>333.69</v>
+      </c>
+      <c r="C324" t="n">
+        <v>352.02</v>
+      </c>
+      <c r="D324" t="n">
+        <v>375.2666666666667</v>
+      </c>
+      <c r="E324" t="n">
+        <v>370.93</v>
+      </c>
+      <c r="F324" t="n">
+        <v>367.6966666666667</v>
+      </c>
+      <c r="G324" t="n">
+        <v>361.9514285714286</v>
+      </c>
+      <c r="H324" t="n">
+        <v>376.2044444444445</v>
+      </c>
+      <c r="I324" t="n">
+        <v>364.9933333333333</v>
+      </c>
+      <c r="J324" t="n">
+        <v>356.4114285714285</v>
+      </c>
+      <c r="K324" t="n">
+        <v>353.5566666666667</v>
+      </c>
+      <c r="L324" t="n">
+        <v>350.9246153846154</v>
+      </c>
+      <c r="M324" t="n">
+        <v>360.2666666666667</v>
+      </c>
+      <c r="N324" t="n">
+        <v>361.6846153846154</v>
+      </c>
+      <c r="O324" t="n">
+        <v>352.9114285714285</v>
+      </c>
+      <c r="P324" t="n">
+        <v>355.0814285714285</v>
+      </c>
+      <c r="Q324" t="inlineStr">
+        <is>
+          <t>L8</t>
+        </is>
+      </c>
+    </row>
   </sheetData>
   <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
 </worksheet>
@@ -16966,7 +17023,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:B331"/>
+  <dimension ref="A1:B332"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -20284,6 +20341,16 @@
       </c>
       <c r="B331" t="n">
         <v>-0.22</v>
+      </c>
+    </row>
+    <row r="332">
+      <c r="A332" t="inlineStr">
+        <is>
+          <t>2025-09-19 22:10:00+00:00</t>
+        </is>
+      </c>
+      <c r="B332" t="n">
+        <v>0.74</v>
       </c>
     </row>
   </sheetData>
@@ -21602,7 +21669,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:Q323"/>
+  <dimension ref="A1:Q324"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -45867,6 +45934,93 @@
         </is>
       </c>
     </row>
+    <row r="324">
+      <c r="A324" s="1" t="inlineStr">
+        <is>
+          <t>2025-09-19 22:06:15+00:00</t>
+        </is>
+      </c>
+      <c r="B324" t="inlineStr">
+        <is>
+          <t>-38.12396711150171,174.73343036883514</t>
+        </is>
+      </c>
+      <c r="C324" t="inlineStr">
+        <is>
+          <t>-38.123606071685444,174.7342278975944</t>
+        </is>
+      </c>
+      <c r="D324" t="inlineStr">
+        <is>
+          <t>-38.12321828477264,174.73496972075566</t>
+        </is>
+      </c>
+      <c r="E324" t="inlineStr">
+        <is>
+          <t>-38.12281388070815,174.7356387751666</t>
+        </is>
+      </c>
+      <c r="F324" t="inlineStr">
+        <is>
+          <t>-38.12235010346071,174.73631328595982</t>
+        </is>
+      </c>
+      <c r="G324" t="inlineStr">
+        <is>
+          <t>-38.12190031839406,174.73701024426188</t>
+        </is>
+      </c>
+      <c r="H324" t="inlineStr">
+        <is>
+          <t>-38.121322123029564,174.73754903564233</t>
+        </is>
+      </c>
+      <c r="I324" t="inlineStr">
+        <is>
+          <t>-38.120908680943316,174.7382905206458</t>
+        </is>
+      </c>
+      <c r="J324" t="inlineStr">
+        <is>
+          <t>-38.1204782418011,174.73901092203704</t>
+        </is>
+      </c>
+      <c r="K324" t="inlineStr">
+        <is>
+          <t>-38.12002136810021,174.73969663328023</t>
+        </is>
+      </c>
+      <c r="L324" t="inlineStr">
+        <is>
+          <t>-38.11957377336237,174.74039235369585</t>
+        </is>
+      </c>
+      <c r="M324" t="inlineStr">
+        <is>
+          <t>-38.11904668350537,174.74099666375665</t>
+        </is>
+      </c>
+      <c r="N324" t="inlineStr">
+        <is>
+          <t>-38.11854116391064,174.74161730155575</t>
+        </is>
+      </c>
+      <c r="O324" t="inlineStr">
+        <is>
+          <t>-38.11806130890787,174.74228361724866</t>
+        </is>
+      </c>
+      <c r="P324" t="inlineStr">
+        <is>
+          <t>-38.11751630649804,174.74285564350325</t>
+        </is>
+      </c>
+      <c r="Q324" t="inlineStr">
+        <is>
+          <t>L8</t>
+        </is>
+      </c>
+    </row>
   </sheetData>
   <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
 </worksheet>

--- a/data/nzd0246/nzd0246.xlsx
+++ b/data/nzd0246/nzd0246.xlsx
@@ -20524,28 +20524,28 @@
         <v>0.1182</v>
       </c>
       <c r="I2" t="n">
-        <v>-0.05768387662148524</v>
+        <v>-0.0640480172553638</v>
       </c>
       <c r="J2" t="n">
-        <v>322</v>
+        <v>323</v>
       </c>
       <c r="K2" t="n">
-        <v>252</v>
+        <v>253</v>
       </c>
       <c r="L2" t="n">
-        <v>0.001721258179430141</v>
+        <v>0.002132471712637307</v>
       </c>
       <c r="M2" t="n">
-        <v>8.341144648811076</v>
+        <v>8.339510450040086</v>
       </c>
       <c r="N2" t="n">
-        <v>116.3434020427304</v>
+        <v>116.1899872994553</v>
       </c>
       <c r="O2" t="n">
-        <v>10.78625987276083</v>
+        <v>10.77914594480728</v>
       </c>
       <c r="P2" t="n">
-        <v>344.0575653381974</v>
+        <v>344.119104990461</v>
       </c>
       <c r="Q2" t="inlineStr"/>
       <c r="R2" t="inlineStr">
@@ -20602,28 +20602,28 @@
         <v>0.0892</v>
       </c>
       <c r="I3" t="n">
-        <v>-0.04484140925251941</v>
+        <v>-0.04560468123734204</v>
       </c>
       <c r="J3" t="n">
-        <v>322</v>
+        <v>323</v>
       </c>
       <c r="K3" t="n">
-        <v>258</v>
+        <v>259</v>
       </c>
       <c r="L3" t="n">
-        <v>0.001210197900009979</v>
+        <v>0.001261822285788639</v>
       </c>
       <c r="M3" t="n">
-        <v>8.059587464837435</v>
+        <v>8.032528892907445</v>
       </c>
       <c r="N3" t="n">
-        <v>97.94200339431841</v>
+        <v>97.56808860012715</v>
       </c>
       <c r="O3" t="n">
-        <v>9.896565232155973</v>
+        <v>9.877656027627564</v>
       </c>
       <c r="P3" t="n">
-        <v>354.2478573162421</v>
+        <v>354.2552813332305</v>
       </c>
       <c r="Q3" t="inlineStr"/>
       <c r="R3" t="inlineStr">
@@ -20680,28 +20680,28 @@
         <v>0.0868</v>
       </c>
       <c r="I4" t="n">
-        <v>0.03775163843007106</v>
+        <v>0.03938696241692591</v>
       </c>
       <c r="J4" t="n">
-        <v>322</v>
+        <v>323</v>
       </c>
       <c r="K4" t="n">
-        <v>257</v>
+        <v>258</v>
       </c>
       <c r="L4" t="n">
-        <v>0.0009090437084048331</v>
+        <v>0.0009974414359010808</v>
       </c>
       <c r="M4" t="n">
-        <v>7.284678032664893</v>
+        <v>7.264630084536783</v>
       </c>
       <c r="N4" t="n">
-        <v>92.54492475492502</v>
+        <v>92.20530242708769</v>
       </c>
       <c r="O4" t="n">
-        <v>9.620027274125839</v>
+        <v>9.602359211521286</v>
       </c>
       <c r="P4" t="n">
-        <v>372.0463821707736</v>
+        <v>372.0305742840836</v>
       </c>
       <c r="Q4" t="inlineStr"/>
       <c r="R4" t="inlineStr">
@@ -20758,28 +20758,28 @@
         <v>0.0888</v>
       </c>
       <c r="I5" t="n">
-        <v>0.03448015243572704</v>
+        <v>0.03604170838663901</v>
       </c>
       <c r="J5" t="n">
-        <v>322</v>
+        <v>323</v>
       </c>
       <c r="K5" t="n">
-        <v>250</v>
+        <v>251</v>
       </c>
       <c r="L5" t="n">
-        <v>0.0008739569190744367</v>
+        <v>0.0009629494125515947</v>
       </c>
       <c r="M5" t="n">
-        <v>6.64699768700515</v>
+        <v>6.628504941798491</v>
       </c>
       <c r="N5" t="n">
-        <v>79.52112602028147</v>
+        <v>79.22075001901705</v>
       </c>
       <c r="O5" t="n">
-        <v>8.917461859760403</v>
+        <v>8.900603913163255</v>
       </c>
       <c r="P5" t="n">
-        <v>367.9831686427054</v>
+        <v>367.9680403378064</v>
       </c>
       <c r="Q5" t="inlineStr"/>
       <c r="R5" t="inlineStr">
@@ -20836,28 +20836,28 @@
         <v>0.08119999999999999</v>
       </c>
       <c r="I6" t="n">
-        <v>0.04785395350026415</v>
+        <v>0.05011461827303378</v>
       </c>
       <c r="J6" t="n">
-        <v>322</v>
+        <v>323</v>
       </c>
       <c r="K6" t="n">
-        <v>268</v>
+        <v>269</v>
       </c>
       <c r="L6" t="n">
-        <v>0.001369437017378794</v>
+        <v>0.001513218733388277</v>
       </c>
       <c r="M6" t="n">
-        <v>7.084156763476894</v>
+        <v>7.069304931624814</v>
       </c>
       <c r="N6" t="n">
-        <v>97.01730678692077</v>
+        <v>96.69355536238733</v>
       </c>
       <c r="O6" t="n">
-        <v>9.849736381595234</v>
+        <v>9.833288125667188</v>
       </c>
       <c r="P6" t="n">
-        <v>363.2746438977721</v>
+        <v>363.2525643540819</v>
       </c>
       <c r="Q6" t="inlineStr"/>
       <c r="R6" t="inlineStr">
@@ -20914,28 +20914,28 @@
         <v>0.08069999999999999</v>
       </c>
       <c r="I7" t="n">
-        <v>0.05310697034671755</v>
+        <v>0.05450972055274389</v>
       </c>
       <c r="J7" t="n">
-        <v>322</v>
+        <v>323</v>
       </c>
       <c r="K7" t="n">
-        <v>266</v>
+        <v>267</v>
       </c>
       <c r="L7" t="n">
-        <v>0.001946417833628478</v>
+        <v>0.002067196607816069</v>
       </c>
       <c r="M7" t="n">
-        <v>7.204422709236177</v>
+        <v>7.184560285662881</v>
       </c>
       <c r="N7" t="n">
-        <v>83.48626918943998</v>
+        <v>83.1872032383952</v>
       </c>
       <c r="O7" t="n">
-        <v>9.137082093832801</v>
+        <v>9.120701904919116</v>
       </c>
       <c r="P7" t="n">
-        <v>358.643104861537</v>
+        <v>358.6294575216373</v>
       </c>
       <c r="Q7" t="inlineStr"/>
       <c r="R7" t="inlineStr">
@@ -20992,28 +20992,28 @@
         <v>0.0502</v>
       </c>
       <c r="I8" t="n">
-        <v>0.01901440143824036</v>
+        <v>0.02153307207939257</v>
       </c>
       <c r="J8" t="n">
-        <v>322</v>
+        <v>323</v>
       </c>
       <c r="K8" t="n">
-        <v>269</v>
+        <v>270</v>
       </c>
       <c r="L8" t="n">
-        <v>0.000155261615656932</v>
+        <v>0.0002007313118693732</v>
       </c>
       <c r="M8" t="n">
-        <v>8.988238007790413</v>
+        <v>8.968966129898243</v>
       </c>
       <c r="N8" t="n">
-        <v>133.0318007304005</v>
+        <v>132.5820644888352</v>
       </c>
       <c r="O8" t="n">
-        <v>11.53394124878398</v>
+        <v>11.51442853505267</v>
       </c>
       <c r="P8" t="n">
-        <v>372.2796891588556</v>
+        <v>372.2551505265477</v>
       </c>
       <c r="Q8" t="inlineStr"/>
       <c r="R8" t="inlineStr">
@@ -21070,28 +21070,28 @@
         <v>0.0673</v>
       </c>
       <c r="I9" t="n">
-        <v>0.06924006376482837</v>
+        <v>0.0671504106722796</v>
       </c>
       <c r="J9" t="n">
-        <v>322</v>
+        <v>323</v>
       </c>
       <c r="K9" t="n">
-        <v>265</v>
+        <v>266</v>
       </c>
       <c r="L9" t="n">
-        <v>0.002786211852423559</v>
+        <v>0.002642134417614961</v>
       </c>
       <c r="M9" t="n">
-        <v>7.461199817740888</v>
+        <v>7.442511585867204</v>
       </c>
       <c r="N9" t="n">
-        <v>99.3248305111198</v>
+        <v>98.98169530849061</v>
       </c>
       <c r="O9" t="n">
-        <v>9.966184350648938</v>
+        <v>9.948954483185187</v>
       </c>
       <c r="P9" t="n">
-        <v>366.0357075899572</v>
+        <v>366.0560088137292</v>
       </c>
       <c r="Q9" t="inlineStr"/>
       <c r="R9" t="inlineStr">
@@ -21148,28 +21148,28 @@
         <v>0.0764</v>
       </c>
       <c r="I10" t="n">
-        <v>0.1370181298444208</v>
+        <v>0.1321594291907521</v>
       </c>
       <c r="J10" t="n">
-        <v>322</v>
+        <v>323</v>
       </c>
       <c r="K10" t="n">
-        <v>254</v>
+        <v>255</v>
       </c>
       <c r="L10" t="n">
-        <v>0.01396254933479568</v>
+        <v>0.01308913698115932</v>
       </c>
       <c r="M10" t="n">
-        <v>6.567911892022492</v>
+        <v>6.567623365418569</v>
       </c>
       <c r="N10" t="n">
-        <v>78.14494911022645</v>
+        <v>77.99731114730191</v>
       </c>
       <c r="O10" t="n">
-        <v>8.8399631848909</v>
+        <v>8.831608638708008</v>
       </c>
       <c r="P10" t="n">
-        <v>359.2294035117135</v>
+        <v>359.275788862834</v>
       </c>
       <c r="Q10" t="inlineStr"/>
       <c r="R10" t="inlineStr">
@@ -21226,28 +21226,28 @@
         <v>0.0815</v>
       </c>
       <c r="I11" t="n">
-        <v>0.2044185604639356</v>
+        <v>0.2036129543198193</v>
       </c>
       <c r="J11" t="n">
-        <v>322</v>
+        <v>323</v>
       </c>
       <c r="K11" t="n">
-        <v>258</v>
+        <v>259</v>
       </c>
       <c r="L11" t="n">
-        <v>0.0276090727744035</v>
+        <v>0.02762601876693915</v>
       </c>
       <c r="M11" t="n">
-        <v>7.211354888303706</v>
+        <v>7.188146360324705</v>
       </c>
       <c r="N11" t="n">
-        <v>85.88835394296272</v>
+        <v>85.56115476402518</v>
       </c>
       <c r="O11" t="n">
-        <v>9.267596988592173</v>
+        <v>9.249927284256087</v>
       </c>
       <c r="P11" t="n">
-        <v>349.2823929197219</v>
+        <v>349.2901652292745</v>
       </c>
       <c r="Q11" t="inlineStr"/>
       <c r="R11" t="inlineStr">
@@ -21304,28 +21304,28 @@
         <v>0.07539999999999999</v>
       </c>
       <c r="I12" t="n">
-        <v>0.1903497322884884</v>
+        <v>0.1873844893716522</v>
       </c>
       <c r="J12" t="n">
-        <v>322</v>
+        <v>323</v>
       </c>
       <c r="K12" t="n">
-        <v>258</v>
+        <v>259</v>
       </c>
       <c r="L12" t="n">
-        <v>0.01785370133758302</v>
+        <v>0.01745308737275397</v>
       </c>
       <c r="M12" t="n">
-        <v>7.99394626790201</v>
+        <v>7.97925349053455</v>
       </c>
       <c r="N12" t="n">
-        <v>115.2303155555151</v>
+        <v>114.8431909483067</v>
       </c>
       <c r="O12" t="n">
-        <v>10.73453844166181</v>
+        <v>10.71649154099917</v>
       </c>
       <c r="P12" t="n">
-        <v>349.8354827306975</v>
+        <v>349.8640784995887</v>
       </c>
       <c r="Q12" t="inlineStr"/>
       <c r="R12" t="inlineStr">
@@ -21382,28 +21382,28 @@
         <v>0.0871</v>
       </c>
       <c r="I13" t="n">
-        <v>0.2467198485740322</v>
+        <v>0.2453124362615649</v>
       </c>
       <c r="J13" t="n">
-        <v>322</v>
+        <v>323</v>
       </c>
       <c r="K13" t="n">
-        <v>256</v>
+        <v>257</v>
       </c>
       <c r="L13" t="n">
-        <v>0.03993241363243505</v>
+        <v>0.03982539011831809</v>
       </c>
       <c r="M13" t="n">
-        <v>7.316140181218083</v>
+        <v>7.296323460989041</v>
       </c>
       <c r="N13" t="n">
-        <v>85.13635630921149</v>
+        <v>84.81818613830097</v>
       </c>
       <c r="O13" t="n">
-        <v>9.226936453081894</v>
+        <v>9.209678937851253</v>
       </c>
       <c r="P13" t="n">
-        <v>355.6555811627377</v>
+        <v>355.6691167830306</v>
       </c>
       <c r="Q13" t="inlineStr"/>
       <c r="R13" t="inlineStr">
@@ -21460,28 +21460,28 @@
         <v>0.0713</v>
       </c>
       <c r="I14" t="n">
-        <v>0.2175099592260674</v>
+        <v>0.2109263189071494</v>
       </c>
       <c r="J14" t="n">
-        <v>322</v>
+        <v>323</v>
       </c>
       <c r="K14" t="n">
-        <v>251</v>
+        <v>252</v>
       </c>
       <c r="L14" t="n">
-        <v>0.03280359242800235</v>
+        <v>0.03107896339190963</v>
       </c>
       <c r="M14" t="n">
-        <v>7.058801199494058</v>
+        <v>7.067972297192793</v>
       </c>
       <c r="N14" t="n">
-        <v>83.74626419686707</v>
+        <v>83.69989152421434</v>
       </c>
       <c r="O14" t="n">
-        <v>9.151298497856306</v>
+        <v>9.148764480748991</v>
       </c>
       <c r="P14" t="n">
-        <v>364.536083953938</v>
+        <v>364.5973552506908</v>
       </c>
       <c r="Q14" t="inlineStr"/>
       <c r="R14" t="inlineStr">
@@ -21538,28 +21538,28 @@
         <v>0.0808</v>
       </c>
       <c r="I15" t="n">
-        <v>0.1440664822407487</v>
+        <v>0.1358779693310802</v>
       </c>
       <c r="J15" t="n">
-        <v>322</v>
+        <v>323</v>
       </c>
       <c r="K15" t="n">
-        <v>264</v>
+        <v>265</v>
       </c>
       <c r="L15" t="n">
-        <v>0.01165489563395017</v>
+        <v>0.01041439336216954</v>
       </c>
       <c r="M15" t="n">
-        <v>7.842278328573357</v>
+        <v>7.863404279244015</v>
       </c>
       <c r="N15" t="n">
-        <v>103.7007234993178</v>
+        <v>103.8028237374777</v>
       </c>
       <c r="O15" t="n">
-        <v>10.18335521816448</v>
+        <v>10.18836707905038</v>
       </c>
       <c r="P15" t="n">
-        <v>360.6431712268135</v>
+        <v>360.722688643079</v>
       </c>
       <c r="Q15" t="inlineStr"/>
       <c r="R15" t="inlineStr">
@@ -21610,28 +21610,28 @@
       <c r="G16" t="inlineStr"/>
       <c r="H16" t="inlineStr"/>
       <c r="I16" t="n">
-        <v>0.9996204773649899</v>
+        <v>0.9814039504827794</v>
       </c>
       <c r="J16" t="n">
-        <v>322</v>
+        <v>323</v>
       </c>
       <c r="K16" t="n">
-        <v>243</v>
+        <v>244</v>
       </c>
       <c r="L16" t="n">
-        <v>0.1362597661904061</v>
+        <v>0.132387243831626</v>
       </c>
       <c r="M16" t="n">
-        <v>15.73818317793141</v>
+        <v>15.74701405732434</v>
       </c>
       <c r="N16" t="n">
-        <v>370.7208276748179</v>
+        <v>371.3160989359455</v>
       </c>
       <c r="O16" t="n">
-        <v>19.25411196796201</v>
+        <v>19.26956405671767</v>
       </c>
       <c r="P16" t="n">
-        <v>351.7839257835647</v>
+        <v>351.9587067160072</v>
       </c>
       <c r="Q16" t="inlineStr"/>
       <c r="R16" t="inlineStr">

--- a/data/nzd0246/nzd0246.xlsx
+++ b/data/nzd0246/nzd0246.xlsx
@@ -20515,13 +20515,13 @@
         <v>1</v>
       </c>
       <c r="F2" t="n">
-        <v>0.1</v>
+        <v>0.105</v>
       </c>
       <c r="G2" t="n">
-        <v>0.08400000000000001</v>
+        <v>0.09320000000000001</v>
       </c>
       <c r="H2" t="n">
-        <v>0.1182</v>
+        <v>0.1147</v>
       </c>
       <c r="I2" t="n">
         <v>-0.06404801725536374</v>
@@ -20593,13 +20593,13 @@
         <v>0.9285081367327207</v>
       </c>
       <c r="F3" t="n">
-        <v>0.08</v>
+        <v>0.11</v>
       </c>
       <c r="G3" t="n">
-        <v>0.06950000000000001</v>
+        <v>0.0929</v>
       </c>
       <c r="H3" t="n">
-        <v>0.0892</v>
+        <v>0.131</v>
       </c>
       <c r="I3" t="n">
         <v>-0.04561051375917157</v>
@@ -20671,13 +20671,13 @@
         <v>0.8570162734652496</v>
       </c>
       <c r="F4" t="n">
-        <v>0.075</v>
+        <v>0.07000000000000001</v>
       </c>
       <c r="G4" t="n">
-        <v>0.0684</v>
+        <v>0.0546</v>
       </c>
       <c r="H4" t="n">
-        <v>0.0868</v>
+        <v>0.0895</v>
       </c>
       <c r="I4" t="n">
         <v>0.03941730860567957</v>
@@ -20749,13 +20749,13 @@
         <v>0.7862360071409479</v>
       </c>
       <c r="F5" t="n">
-        <v>0.08</v>
+        <v>0.1</v>
       </c>
       <c r="G5" t="n">
-        <v>0.06950000000000001</v>
+        <v>0.0897</v>
       </c>
       <c r="H5" t="n">
-        <v>0.0888</v>
+        <v>0.1121</v>
       </c>
       <c r="I5" t="n">
         <v>0.03605655954372512</v>
@@ -20827,13 +20827,13 @@
         <v>0.7147441438727564</v>
       </c>
       <c r="F6" t="n">
-        <v>0.075</v>
+        <v>0.07000000000000001</v>
       </c>
       <c r="G6" t="n">
-        <v>0.0664</v>
+        <v>0.0563</v>
       </c>
       <c r="H6" t="n">
-        <v>0.08119999999999999</v>
+        <v>0.0961</v>
       </c>
       <c r="I6" t="n">
         <v>0.05013898603841813</v>
@@ -20905,13 +20905,13 @@
         <v>0.6432522806094393</v>
       </c>
       <c r="F7" t="n">
-        <v>0.07000000000000001</v>
+        <v>0.095</v>
       </c>
       <c r="G7" t="n">
-        <v>0.0645</v>
+        <v>0.07190000000000001</v>
       </c>
       <c r="H7" t="n">
-        <v>0.08069999999999999</v>
+        <v>0.1439</v>
       </c>
       <c r="I7" t="n">
         <v>0.05452292089152436</v>
@@ -20983,13 +20983,13 @@
         <v>0.5717604396530169</v>
       </c>
       <c r="F8" t="n">
-        <v>0.045</v>
+        <v>0.05</v>
       </c>
       <c r="G8" t="n">
-        <v>0.0425</v>
+        <v>0.0411</v>
       </c>
       <c r="H8" t="n">
-        <v>0.0502</v>
+        <v>0.0624</v>
       </c>
       <c r="I8" t="n">
         <v>0.02156481249041799</v>
@@ -21061,13 +21061,13 @@
         <v>0.500268576386194</v>
       </c>
       <c r="F9" t="n">
-        <v>0.06</v>
+        <v>0.05</v>
       </c>
       <c r="G9" t="n">
-        <v>0.0568</v>
+        <v>0.0428</v>
       </c>
       <c r="H9" t="n">
-        <v>0.0673</v>
+        <v>0.0644</v>
       </c>
       <c r="I9" t="n">
         <v>0.06712511259306604</v>
@@ -21142,10 +21142,10 @@
         <v>0.07000000000000001</v>
       </c>
       <c r="G10" t="n">
-        <v>0.062</v>
+        <v>0.06320000000000001</v>
       </c>
       <c r="H10" t="n">
-        <v>0.0764</v>
+        <v>0.0796</v>
       </c>
       <c r="I10" t="n">
         <v>0.1321659718996596</v>
@@ -21217,13 +21217,13 @@
         <v>0.3572985921192787</v>
       </c>
       <c r="F11" t="n">
-        <v>0.075</v>
+        <v>0.08</v>
       </c>
       <c r="G11" t="n">
-        <v>0.0654</v>
+        <v>0.0718</v>
       </c>
       <c r="H11" t="n">
-        <v>0.0815</v>
+        <v>0.0946</v>
       </c>
       <c r="I11" t="n">
         <v>0.2036290149009251</v>
@@ -21295,13 +21295,13 @@
         <v>0.2858067288523964</v>
       </c>
       <c r="F12" t="n">
-        <v>0.065</v>
+        <v>0.08500000000000001</v>
       </c>
       <c r="G12" t="n">
-        <v>0.0611</v>
+        <v>0.07480000000000001</v>
       </c>
       <c r="H12" t="n">
-        <v>0.07539999999999999</v>
+        <v>0.09710000000000001</v>
       </c>
       <c r="I12" t="n">
         <v>0.1873863328828649</v>
@@ -21373,13 +21373,13 @@
         <v>0.2143148655855142</v>
       </c>
       <c r="F13" t="n">
-        <v>0.075</v>
+        <v>0.09</v>
       </c>
       <c r="G13" t="n">
-        <v>0.0694</v>
+        <v>0.0785</v>
       </c>
       <c r="H13" t="n">
-        <v>0.0871</v>
+        <v>0.1075</v>
       </c>
       <c r="I13" t="n">
         <v>0.2453270797838977</v>
@@ -21451,13 +21451,13 @@
         <v>0.1429837265326608</v>
       </c>
       <c r="F14" t="n">
-        <v>0.065</v>
+        <v>0.09</v>
       </c>
       <c r="G14" t="n">
-        <v>0.0601</v>
+        <v>0.0818</v>
       </c>
       <c r="H14" t="n">
-        <v>0.0713</v>
+        <v>0.104</v>
       </c>
       <c r="I14" t="n">
         <v>0.2109341691120377</v>
@@ -21529,13 +21529,13 @@
         <v>0.0714918632669555</v>
       </c>
       <c r="F15" t="n">
-        <v>0.07000000000000001</v>
+        <v>0.055</v>
       </c>
       <c r="G15" t="n">
-        <v>0.0658</v>
+        <v>0.046</v>
       </c>
       <c r="H15" t="n">
-        <v>0.0808</v>
+        <v>0.0723</v>
       </c>
       <c r="I15" t="n">
         <v>0.1358815504336812</v>
@@ -21606,9 +21606,15 @@
       <c r="E16" t="n">
         <v>0</v>
       </c>
-      <c r="F16" t="inlineStr"/>
-      <c r="G16" t="inlineStr"/>
-      <c r="H16" t="inlineStr"/>
+      <c r="F16" t="n">
+        <v>0.195</v>
+      </c>
+      <c r="G16" t="n">
+        <v>0.1069</v>
+      </c>
+      <c r="H16" t="n">
+        <v>0.2</v>
+      </c>
       <c r="I16" t="n">
         <v>0.9814174938572021</v>
       </c>

--- a/data/nzd0246/nzd0246.xlsx
+++ b/data/nzd0246/nzd0246.xlsx
@@ -605,7 +605,7 @@
         <v>356.47</v>
       </c>
       <c r="P3" t="n">
-        <v>347.91</v>
+        <v>347.84</v>
       </c>
       <c r="Q3" t="inlineStr">
         <is>
@@ -662,7 +662,7 @@
         <v>373.32</v>
       </c>
       <c r="P4" t="n">
-        <v>363.57</v>
+        <v>363.48</v>
       </c>
       <c r="Q4" t="inlineStr">
         <is>
@@ -719,7 +719,7 @@
         <v>383.39</v>
       </c>
       <c r="P5" t="n">
-        <v>385.01</v>
+        <v>385.09</v>
       </c>
       <c r="Q5" t="inlineStr">
         <is>
@@ -776,7 +776,7 @@
         <v>366.93</v>
       </c>
       <c r="P6" t="n">
-        <v>373.82</v>
+        <v>373.91</v>
       </c>
       <c r="Q6" t="inlineStr">
         <is>
@@ -833,7 +833,7 @@
         <v>373.6</v>
       </c>
       <c r="P7" t="n">
-        <v>376.7</v>
+        <v>376.72</v>
       </c>
       <c r="Q7" t="inlineStr">
         <is>
@@ -919,7 +919,7 @@
         <v>366.4</v>
       </c>
       <c r="P9" t="n">
-        <v>353.04</v>
+        <v>352.87</v>
       </c>
       <c r="Q9" t="inlineStr">
         <is>
@@ -974,7 +974,7 @@
         <v>373.26</v>
       </c>
       <c r="P10" t="n">
-        <v>358.01</v>
+        <v>357.93</v>
       </c>
       <c r="Q10" t="inlineStr">
         <is>
@@ -1031,7 +1031,7 @@
         <v>351.61</v>
       </c>
       <c r="P11" t="n">
-        <v>353.38</v>
+        <v>353.47</v>
       </c>
       <c r="Q11" t="inlineStr">
         <is>
@@ -1088,7 +1088,7 @@
         <v>373.01</v>
       </c>
       <c r="P12" t="n">
-        <v>364.47</v>
+        <v>364.38</v>
       </c>
       <c r="Q12" t="inlineStr">
         <is>
@@ -1145,7 +1145,7 @@
         <v>372.29</v>
       </c>
       <c r="P13" t="n">
-        <v>379.54</v>
+        <v>379.6</v>
       </c>
       <c r="Q13" t="inlineStr">
         <is>
@@ -1202,7 +1202,7 @@
         <v>370.25</v>
       </c>
       <c r="P14" t="n">
-        <v>373.79</v>
+        <v>373.86</v>
       </c>
       <c r="Q14" t="inlineStr">
         <is>
@@ -1298,7 +1298,7 @@
         <v>355.57</v>
       </c>
       <c r="P16" t="n">
-        <v>338.1</v>
+        <v>338.01</v>
       </c>
       <c r="Q16" t="inlineStr">
         <is>
@@ -1355,7 +1355,7 @@
         <v>369.96</v>
       </c>
       <c r="P17" t="n">
-        <v>336.96</v>
+        <v>336.79</v>
       </c>
       <c r="Q17" t="inlineStr">
         <is>
@@ -1412,7 +1412,7 @@
         <v>365.36</v>
       </c>
       <c r="P18" t="n">
-        <v>375.93</v>
+        <v>376.01</v>
       </c>
       <c r="Q18" t="inlineStr">
         <is>
@@ -1469,7 +1469,7 @@
         <v>366.81</v>
       </c>
       <c r="P19" t="n">
-        <v>402</v>
+        <v>402.09</v>
       </c>
       <c r="Q19" t="inlineStr">
         <is>
@@ -1508,7 +1508,7 @@
         <v>356.61</v>
       </c>
       <c r="P20" t="n">
-        <v>369.88</v>
+        <v>369.98</v>
       </c>
       <c r="Q20" t="inlineStr">
         <is>
@@ -1565,7 +1565,7 @@
         <v>375.24</v>
       </c>
       <c r="P21" t="n">
-        <v>370.81</v>
+        <v>370.78</v>
       </c>
       <c r="Q21" t="inlineStr">
         <is>
@@ -1622,7 +1622,7 @@
         <v>372.98</v>
       </c>
       <c r="P22" t="n">
-        <v>336.89</v>
+        <v>336.72</v>
       </c>
       <c r="Q22" t="inlineStr">
         <is>
@@ -1679,7 +1679,7 @@
         <v>356.98</v>
       </c>
       <c r="P23" t="n">
-        <v>348.17</v>
+        <v>347.99</v>
       </c>
       <c r="Q23" t="inlineStr">
         <is>
@@ -1736,7 +1736,7 @@
         <v>356.77</v>
       </c>
       <c r="P24" t="n">
-        <v>353.72</v>
+        <v>353.71</v>
       </c>
       <c r="Q24" t="inlineStr">
         <is>
@@ -1848,7 +1848,7 @@
         <v>372.76</v>
       </c>
       <c r="P26" t="n">
-        <v>359.53</v>
+        <v>359.46</v>
       </c>
       <c r="Q26" t="inlineStr">
         <is>
@@ -1905,7 +1905,7 @@
         <v>364.17</v>
       </c>
       <c r="P27" t="n">
-        <v>356.49</v>
+        <v>356.31</v>
       </c>
       <c r="Q27" t="inlineStr">
         <is>
@@ -1962,7 +1962,7 @@
         <v>362.1</v>
       </c>
       <c r="P28" t="n">
-        <v>343.94</v>
+        <v>343.82</v>
       </c>
       <c r="Q28" t="inlineStr">
         <is>
@@ -2019,7 +2019,7 @@
         <v>367.46</v>
       </c>
       <c r="P29" t="n">
-        <v>390.59</v>
+        <v>390.66</v>
       </c>
       <c r="Q29" t="inlineStr">
         <is>
@@ -2076,7 +2076,7 @@
         <v>357.11</v>
       </c>
       <c r="P30" t="n">
-        <v>358.65</v>
+        <v>358.76</v>
       </c>
       <c r="Q30" t="inlineStr">
         <is>
@@ -2186,7 +2186,7 @@
         <v>351.94</v>
       </c>
       <c r="P32" t="n">
-        <v>360.11</v>
+        <v>360.22</v>
       </c>
       <c r="Q32" t="inlineStr">
         <is>
@@ -2237,7 +2237,7 @@
         <v>349.51</v>
       </c>
       <c r="P33" t="n">
-        <v>333.07</v>
+        <v>332.98</v>
       </c>
       <c r="Q33" t="inlineStr">
         <is>
@@ -2294,7 +2294,7 @@
         <v>379.27</v>
       </c>
       <c r="P34" t="n">
-        <v>358.44</v>
+        <v>358.22</v>
       </c>
       <c r="Q34" t="inlineStr">
         <is>
@@ -2343,7 +2343,7 @@
         <v>353.36</v>
       </c>
       <c r="P35" t="n">
-        <v>391.69</v>
+        <v>391.79</v>
       </c>
       <c r="Q35" t="inlineStr">
         <is>
@@ -2396,7 +2396,7 @@
         <v>362.42</v>
       </c>
       <c r="P36" t="n">
-        <v>393.81</v>
+        <v>393.79</v>
       </c>
       <c r="Q36" t="inlineStr">
         <is>
@@ -2453,7 +2453,7 @@
         <v>337.23</v>
       </c>
       <c r="P37" t="n">
-        <v>345.97</v>
+        <v>346.07</v>
       </c>
       <c r="Q37" t="inlineStr">
         <is>
@@ -2510,7 +2510,7 @@
         <v>355.72</v>
       </c>
       <c r="P38" t="n">
-        <v>353.54</v>
+        <v>353.55</v>
       </c>
       <c r="Q38" t="inlineStr">
         <is>
@@ -2614,7 +2614,7 @@
         <v>370.57</v>
       </c>
       <c r="P40" t="n">
-        <v>362.66</v>
+        <v>362.64</v>
       </c>
       <c r="Q40" t="inlineStr">
         <is>
@@ -2716,7 +2716,7 @@
         <v>389.42</v>
       </c>
       <c r="P42" t="n">
-        <v>364.4</v>
+        <v>364.22</v>
       </c>
       <c r="Q42" t="inlineStr">
         <is>
@@ -2773,7 +2773,7 @@
         <v>376.8</v>
       </c>
       <c r="P43" t="n">
-        <v>351.47</v>
+        <v>351.33</v>
       </c>
       <c r="Q43" t="inlineStr">
         <is>
@@ -2830,7 +2830,7 @@
         <v>349.13</v>
       </c>
       <c r="P44" t="n">
-        <v>304.52</v>
+        <v>304.43</v>
       </c>
       <c r="Q44" t="inlineStr">
         <is>
@@ -2887,7 +2887,7 @@
         <v>347.37</v>
       </c>
       <c r="P45" t="n">
-        <v>321.37</v>
+        <v>321.46</v>
       </c>
       <c r="Q45" t="inlineStr">
         <is>
@@ -2944,7 +2944,7 @@
         <v>350.33</v>
       </c>
       <c r="P46" t="n">
-        <v>345.67</v>
+        <v>345.76</v>
       </c>
       <c r="Q46" t="inlineStr">
         <is>
@@ -2995,7 +2995,7 @@
         <v>377.25</v>
       </c>
       <c r="P47" t="n">
-        <v>354.75</v>
+        <v>354.56</v>
       </c>
       <c r="Q47" t="inlineStr">
         <is>
@@ -3052,7 +3052,7 @@
         <v>349.33</v>
       </c>
       <c r="P48" t="n">
-        <v>355.09</v>
+        <v>355.21</v>
       </c>
       <c r="Q48" t="inlineStr">
         <is>
@@ -3101,7 +3101,7 @@
         <v>356.02</v>
       </c>
       <c r="P49" t="n">
-        <v>355.31</v>
+        <v>355.33</v>
       </c>
       <c r="Q49" t="inlineStr">
         <is>
@@ -3158,7 +3158,7 @@
         <v>351.74</v>
       </c>
       <c r="P50" t="n">
-        <v>334.61</v>
+        <v>334.54</v>
       </c>
       <c r="Q50" t="inlineStr">
         <is>
@@ -3246,7 +3246,7 @@
         <v>360.09</v>
       </c>
       <c r="P52" t="n">
-        <v>356.11</v>
+        <v>355.98</v>
       </c>
       <c r="Q52" t="inlineStr">
         <is>
@@ -3303,7 +3303,7 @@
         <v>364.37</v>
       </c>
       <c r="P53" t="n">
-        <v>375.45</v>
+        <v>375.51</v>
       </c>
       <c r="Q53" t="inlineStr">
         <is>
@@ -3354,7 +3354,7 @@
         <v>363.72</v>
       </c>
       <c r="P54" t="n">
-        <v>335.19</v>
+        <v>334.97</v>
       </c>
       <c r="Q54" t="inlineStr">
         <is>
@@ -3405,7 +3405,7 @@
         <v>370.25</v>
       </c>
       <c r="P55" t="n">
-        <v>349.93</v>
+        <v>349.81</v>
       </c>
       <c r="Q55" t="inlineStr">
         <is>
@@ -3462,7 +3462,7 @@
         <v>357.03</v>
       </c>
       <c r="P56" t="n">
-        <v>344.29</v>
+        <v>344.21</v>
       </c>
       <c r="Q56" t="inlineStr">
         <is>
@@ -3570,7 +3570,7 @@
         <v>352.88</v>
       </c>
       <c r="P58" t="n">
-        <v>337.36</v>
+        <v>337.26</v>
       </c>
       <c r="Q58" t="inlineStr">
         <is>
@@ -3621,7 +3621,7 @@
         <v>361.89</v>
       </c>
       <c r="P59" t="n">
-        <v>333.06</v>
+        <v>332.94</v>
       </c>
       <c r="Q59" t="inlineStr">
         <is>
@@ -3729,7 +3729,7 @@
         <v>350.14</v>
       </c>
       <c r="P61" t="n">
-        <v>330.74</v>
+        <v>330.84</v>
       </c>
       <c r="Q61" t="inlineStr">
         <is>
@@ -3782,7 +3782,7 @@
         <v>361.64</v>
       </c>
       <c r="P62" t="n">
-        <v>338.38</v>
+        <v>338.24</v>
       </c>
       <c r="Q62" t="inlineStr">
         <is>
@@ -3880,7 +3880,7 @@
         <v>350.81</v>
       </c>
       <c r="P64" t="n">
-        <v>342.16</v>
+        <v>342.11</v>
       </c>
       <c r="Q64" t="inlineStr">
         <is>
@@ -3982,7 +3982,7 @@
         <v>382.76</v>
       </c>
       <c r="P66" t="n">
-        <v>353.15</v>
+        <v>352.92</v>
       </c>
       <c r="Q66" t="inlineStr">
         <is>
@@ -4031,7 +4031,7 @@
         <v>365.08</v>
       </c>
       <c r="P67" t="n">
-        <v>339.79</v>
+        <v>339.62</v>
       </c>
       <c r="Q67" t="inlineStr">
         <is>
@@ -4084,7 +4084,7 @@
         <v>371.36</v>
       </c>
       <c r="P68" t="n">
-        <v>348.24</v>
+        <v>348.09</v>
       </c>
       <c r="Q68" t="inlineStr">
         <is>
@@ -4135,7 +4135,7 @@
         <v>361.86</v>
       </c>
       <c r="P69" t="n">
-        <v>359.05</v>
+        <v>359.11</v>
       </c>
       <c r="Q69" t="inlineStr">
         <is>
@@ -4186,7 +4186,7 @@
         <v>363.89</v>
       </c>
       <c r="P70" t="n">
-        <v>352.16</v>
+        <v>352.29</v>
       </c>
       <c r="Q70" t="inlineStr">
         <is>
@@ -4243,7 +4243,7 @@
         <v>362.4</v>
       </c>
       <c r="P71" t="n">
-        <v>341.12</v>
+        <v>341</v>
       </c>
       <c r="Q71" t="inlineStr">
         <is>
@@ -4300,7 +4300,7 @@
         <v>352.91</v>
       </c>
       <c r="P72" t="n">
-        <v>321.32</v>
+        <v>321.21</v>
       </c>
       <c r="Q72" t="inlineStr">
         <is>
@@ -4351,7 +4351,7 @@
         <v>352.29</v>
       </c>
       <c r="P73" t="n">
-        <v>330.08</v>
+        <v>330.07</v>
       </c>
       <c r="Q73" t="inlineStr">
         <is>
@@ -4402,7 +4402,7 @@
         <v>354.11</v>
       </c>
       <c r="P74" t="n">
-        <v>334.68</v>
+        <v>334.54</v>
       </c>
       <c r="Q74" t="inlineStr">
         <is>
@@ -4508,7 +4508,7 @@
         <v>378.56</v>
       </c>
       <c r="P76" t="n">
-        <v>353.4</v>
+        <v>353.25</v>
       </c>
       <c r="Q76" t="inlineStr">
         <is>
@@ -4612,7 +4612,7 @@
         <v>356.14</v>
       </c>
       <c r="P78" t="n">
-        <v>368.26</v>
+        <v>368.33</v>
       </c>
       <c r="Q78" t="inlineStr">
         <is>
@@ -4716,7 +4716,7 @@
         <v>363.88</v>
       </c>
       <c r="P80" t="n">
-        <v>383.73</v>
+        <v>383.83</v>
       </c>
       <c r="Q80" t="inlineStr">
         <is>
@@ -4800,7 +4800,7 @@
         <v>341.43</v>
       </c>
       <c r="P82" t="n">
-        <v>310.89</v>
+        <v>310.71</v>
       </c>
       <c r="Q82" t="inlineStr">
         <is>
@@ -4853,7 +4853,7 @@
         <v>358.06</v>
       </c>
       <c r="P83" t="n">
-        <v>321.48</v>
+        <v>321.27</v>
       </c>
       <c r="Q83" t="inlineStr">
         <is>
@@ -4904,7 +4904,7 @@
         <v>364.36</v>
       </c>
       <c r="P84" t="n">
-        <v>336.56</v>
+        <v>336.41</v>
       </c>
       <c r="Q84" t="inlineStr">
         <is>
@@ -5063,7 +5063,7 @@
         <v>358.89</v>
       </c>
       <c r="P87" t="n">
-        <v>345.8</v>
+        <v>345.68</v>
       </c>
       <c r="Q87" t="inlineStr">
         <is>
@@ -5216,7 +5216,7 @@
         <v>333.62</v>
       </c>
       <c r="P90" t="n">
-        <v>329.78</v>
+        <v>329.84</v>
       </c>
       <c r="Q90" t="inlineStr">
         <is>
@@ -5273,7 +5273,7 @@
         <v>383.3</v>
       </c>
       <c r="P91" t="n">
-        <v>374.77</v>
+        <v>374.85</v>
       </c>
       <c r="Q91" t="inlineStr">
         <is>
@@ -5373,7 +5373,7 @@
         <v>366.89</v>
       </c>
       <c r="P93" t="n">
-        <v>355.69</v>
+        <v>355.56</v>
       </c>
       <c r="Q93" t="inlineStr">
         <is>
@@ -5430,7 +5430,7 @@
         <v>363.79</v>
       </c>
       <c r="P94" t="n">
-        <v>334.42</v>
+        <v>334.21</v>
       </c>
       <c r="Q94" t="inlineStr">
         <is>
@@ -5518,7 +5518,7 @@
         <v>362.18</v>
       </c>
       <c r="P96" t="n">
-        <v>336.15</v>
+        <v>335.98</v>
       </c>
       <c r="Q96" t="inlineStr">
         <is>
@@ -5567,7 +5567,7 @@
         <v>378.95</v>
       </c>
       <c r="P97" t="n">
-        <v>357.91</v>
+        <v>357.76</v>
       </c>
       <c r="Q97" t="inlineStr">
         <is>
@@ -5620,7 +5620,7 @@
         <v>359.34</v>
       </c>
       <c r="P98" t="n">
-        <v>335.84</v>
+        <v>335.81</v>
       </c>
       <c r="Q98" t="inlineStr">
         <is>
@@ -5728,7 +5728,7 @@
         <v>370</v>
       </c>
       <c r="P100" t="n">
-        <v>372.46</v>
+        <v>372.5</v>
       </c>
       <c r="Q100" t="inlineStr">
         <is>
@@ -5779,7 +5779,7 @@
         <v>358.29</v>
       </c>
       <c r="P101" t="n">
-        <v>333.38</v>
+        <v>333.19</v>
       </c>
       <c r="Q101" t="inlineStr">
         <is>
@@ -5834,7 +5834,7 @@
         <v>366.23</v>
       </c>
       <c r="P102" t="n">
-        <v>340.17</v>
+        <v>340</v>
       </c>
       <c r="Q102" t="inlineStr">
         <is>
@@ -5891,7 +5891,7 @@
         <v>368.48</v>
       </c>
       <c r="P103" t="n">
-        <v>371.16</v>
+        <v>371.13</v>
       </c>
       <c r="Q103" t="inlineStr">
         <is>
@@ -5944,7 +5944,7 @@
       <c r="N104" t="inlineStr"/>
       <c r="O104" t="inlineStr"/>
       <c r="P104" t="n">
-        <v>377.76</v>
+        <v>377.8</v>
       </c>
       <c r="Q104" t="inlineStr">
         <is>
@@ -5993,7 +5993,7 @@
         <v>361.2</v>
       </c>
       <c r="P105" t="n">
-        <v>393.53</v>
+        <v>393.57</v>
       </c>
       <c r="Q105" t="inlineStr">
         <is>
@@ -6048,7 +6048,7 @@
         <v>397.48</v>
       </c>
       <c r="P106" t="n">
-        <v>363.07</v>
+        <v>362.86</v>
       </c>
       <c r="Q106" t="inlineStr">
         <is>
@@ -6360,7 +6360,7 @@
         <v>359.41</v>
       </c>
       <c r="P112" t="n">
-        <v>348.31</v>
+        <v>348.28</v>
       </c>
       <c r="Q112" t="inlineStr">
         <is>
@@ -6411,7 +6411,7 @@
         <v>366</v>
       </c>
       <c r="P113" t="n">
-        <v>365.67</v>
+        <v>365.7</v>
       </c>
       <c r="Q113" t="inlineStr">
         <is>
@@ -6462,7 +6462,7 @@
         <v>354.33</v>
       </c>
       <c r="P114" t="n">
-        <v>363.65</v>
+        <v>363.76</v>
       </c>
       <c r="Q114" t="inlineStr">
         <is>
@@ -6566,7 +6566,7 @@
         <v>368.45</v>
       </c>
       <c r="P116" t="n">
-        <v>369.7</v>
+        <v>369.71</v>
       </c>
       <c r="Q116" t="inlineStr">
         <is>
@@ -6617,7 +6617,7 @@
         <v>370.22</v>
       </c>
       <c r="P117" t="n">
-        <v>321.16</v>
+        <v>320.98</v>
       </c>
       <c r="Q117" t="inlineStr">
         <is>
@@ -6664,7 +6664,7 @@
         <v>363.05</v>
       </c>
       <c r="P118" t="n">
-        <v>334.5</v>
+        <v>334.35</v>
       </c>
       <c r="Q118" t="inlineStr">
         <is>
@@ -6715,7 +6715,7 @@
         <v>367.99</v>
       </c>
       <c r="P119" t="n">
-        <v>337.69</v>
+        <v>337.53</v>
       </c>
       <c r="Q119" t="inlineStr">
         <is>
@@ -6764,7 +6764,7 @@
         <v>348.99</v>
       </c>
       <c r="P120" t="n">
-        <v>349.38</v>
+        <v>349.37</v>
       </c>
       <c r="Q120" t="inlineStr">
         <is>
@@ -6815,7 +6815,7 @@
       <c r="N121" t="inlineStr"/>
       <c r="O121" t="inlineStr"/>
       <c r="P121" t="n">
-        <v>387.53</v>
+        <v>387.56</v>
       </c>
       <c r="Q121" t="inlineStr">
         <is>
@@ -6862,7 +6862,7 @@
       <c r="N122" t="inlineStr"/>
       <c r="O122" t="inlineStr"/>
       <c r="P122" t="n">
-        <v>360.89</v>
+        <v>360.9</v>
       </c>
       <c r="Q122" t="inlineStr">
         <is>
@@ -6972,7 +6972,7 @@
         <v>360.6</v>
       </c>
       <c r="P124" t="n">
-        <v>337.94</v>
+        <v>337.75</v>
       </c>
       <c r="Q124" t="inlineStr">
         <is>
@@ -7029,7 +7029,7 @@
         <v>369.58</v>
       </c>
       <c r="P125" t="n">
-        <v>342.17</v>
+        <v>342.1</v>
       </c>
       <c r="Q125" t="inlineStr">
         <is>
@@ -7082,7 +7082,7 @@
       <c r="N126" t="inlineStr"/>
       <c r="O126" t="inlineStr"/>
       <c r="P126" t="n">
-        <v>354.84</v>
+        <v>354.73</v>
       </c>
       <c r="Q126" t="inlineStr">
         <is>
@@ -7133,7 +7133,7 @@
         <v>364.45</v>
       </c>
       <c r="P127" t="n">
-        <v>336.51</v>
+        <v>336.36</v>
       </c>
       <c r="Q127" t="inlineStr">
         <is>
@@ -7294,7 +7294,7 @@
         <v>365.7</v>
       </c>
       <c r="P130" t="n">
-        <v>346.46</v>
+        <v>346.28</v>
       </c>
       <c r="Q130" t="inlineStr">
         <is>
@@ -7400,7 +7400,7 @@
         <v>365.48</v>
       </c>
       <c r="P132" t="n">
-        <v>351.64</v>
+        <v>351.51</v>
       </c>
       <c r="Q132" t="inlineStr">
         <is>
@@ -7506,7 +7506,7 @@
         <v>355.21</v>
       </c>
       <c r="P134" t="n">
-        <v>338.72</v>
+        <v>338.55</v>
       </c>
       <c r="Q134" t="inlineStr">
         <is>
@@ -7563,7 +7563,7 @@
         <v>360.97</v>
       </c>
       <c r="P135" t="n">
-        <v>399.54</v>
+        <v>399.65</v>
       </c>
       <c r="Q135" t="inlineStr">
         <is>
@@ -7614,7 +7614,7 @@
         <v>364.62</v>
       </c>
       <c r="P136" t="n">
-        <v>378.83</v>
+        <v>378.64</v>
       </c>
       <c r="Q136" t="inlineStr">
         <is>
@@ -7671,7 +7671,7 @@
         <v>369.48</v>
       </c>
       <c r="P137" t="n">
-        <v>368.28</v>
+        <v>368.31</v>
       </c>
       <c r="Q137" t="inlineStr">
         <is>
@@ -7714,7 +7714,7 @@
         <v>372.87</v>
       </c>
       <c r="P138" t="n">
-        <v>354.9</v>
+        <v>354.77</v>
       </c>
       <c r="Q138" t="inlineStr">
         <is>
@@ -7771,7 +7771,7 @@
         <v>361.47</v>
       </c>
       <c r="P139" t="n">
-        <v>393.67</v>
+        <v>393.69</v>
       </c>
       <c r="Q139" t="inlineStr">
         <is>
@@ -7822,7 +7822,7 @@
         <v>368.6</v>
       </c>
       <c r="P140" t="n">
-        <v>394.37</v>
+        <v>394.36</v>
       </c>
       <c r="Q140" t="inlineStr">
         <is>
@@ -7873,7 +7873,7 @@
         <v>366.39</v>
       </c>
       <c r="P141" t="n">
-        <v>392.99</v>
+        <v>393</v>
       </c>
       <c r="Q141" t="inlineStr">
         <is>
@@ -7922,7 +7922,7 @@
         <v>362.65</v>
       </c>
       <c r="P142" t="n">
-        <v>373.08</v>
+        <v>373.16</v>
       </c>
       <c r="Q142" t="inlineStr">
         <is>
@@ -7979,7 +7979,7 @@
         <v>372.78</v>
       </c>
       <c r="P143" t="n">
-        <v>351.83</v>
+        <v>351.65</v>
       </c>
       <c r="Q143" t="inlineStr">
         <is>
@@ -8030,7 +8030,7 @@
         <v>347.01</v>
       </c>
       <c r="P144" t="n">
-        <v>348.32</v>
+        <v>348.4</v>
       </c>
       <c r="Q144" t="inlineStr">
         <is>
@@ -8087,7 +8087,7 @@
         <v>370.05</v>
       </c>
       <c r="P145" t="n">
-        <v>356.64</v>
+        <v>356.58</v>
       </c>
       <c r="Q145" t="inlineStr">
         <is>
@@ -8138,7 +8138,7 @@
         <v>357.93</v>
       </c>
       <c r="P146" t="n">
-        <v>354.63</v>
+        <v>354.66</v>
       </c>
       <c r="Q146" t="inlineStr">
         <is>
@@ -8195,7 +8195,7 @@
         <v>352.96</v>
       </c>
       <c r="P147" t="n">
-        <v>336.51</v>
+        <v>336.56</v>
       </c>
       <c r="Q147" t="inlineStr">
         <is>
@@ -8246,7 +8246,7 @@
         <v>376.2</v>
       </c>
       <c r="P148" t="n">
-        <v>351.88</v>
+        <v>351.72</v>
       </c>
       <c r="Q148" t="inlineStr">
         <is>
@@ -8291,7 +8291,7 @@
         <v>374.05</v>
       </c>
       <c r="P149" t="n">
-        <v>352.28</v>
+        <v>352.1</v>
       </c>
       <c r="Q149" t="inlineStr">
         <is>
@@ -8348,7 +8348,7 @@
         <v>356.83</v>
       </c>
       <c r="P150" t="n">
-        <v>392.98</v>
+        <v>393.02</v>
       </c>
       <c r="Q150" t="inlineStr">
         <is>
@@ -8399,7 +8399,7 @@
         <v>356.83</v>
       </c>
       <c r="P151" t="n">
-        <v>355.48</v>
+        <v>355.5</v>
       </c>
       <c r="Q151" t="inlineStr">
         <is>
@@ -8452,7 +8452,7 @@
         <v>354.82</v>
       </c>
       <c r="P152" t="n">
-        <v>355.34</v>
+        <v>355.36</v>
       </c>
       <c r="Q152" t="inlineStr">
         <is>
@@ -8503,7 +8503,7 @@
         <v>373.66</v>
       </c>
       <c r="P153" t="n">
-        <v>394.61</v>
+        <v>394.47</v>
       </c>
       <c r="Q153" t="inlineStr">
         <is>
@@ -8554,7 +8554,7 @@
         <v>357.21</v>
       </c>
       <c r="P154" t="n">
-        <v>361.59</v>
+        <v>361.58</v>
       </c>
       <c r="Q154" t="inlineStr">
         <is>
@@ -8611,7 +8611,7 @@
         <v>373.87</v>
       </c>
       <c r="P155" t="n">
-        <v>359.85</v>
+        <v>359.75</v>
       </c>
       <c r="Q155" t="inlineStr">
         <is>
@@ -8713,7 +8713,7 @@
         <v>364.45</v>
       </c>
       <c r="P157" t="n">
-        <v>366.49</v>
+        <v>366.57</v>
       </c>
       <c r="Q157" t="inlineStr">
         <is>
@@ -8770,7 +8770,7 @@
         <v>365.43</v>
       </c>
       <c r="P158" t="n">
-        <v>338.17</v>
+        <v>338.01</v>
       </c>
       <c r="Q158" t="inlineStr">
         <is>
@@ -8876,7 +8876,7 @@
         <v>357.24</v>
       </c>
       <c r="P160" t="n">
-        <v>336.46</v>
+        <v>336.29</v>
       </c>
       <c r="Q160" t="inlineStr">
         <is>
@@ -8933,7 +8933,7 @@
         <v>358.1</v>
       </c>
       <c r="P161" t="n">
-        <v>356.53</v>
+        <v>356.57</v>
       </c>
       <c r="Q161" t="inlineStr">
         <is>
@@ -8984,7 +8984,7 @@
         <v>367.54</v>
       </c>
       <c r="P162" t="n">
-        <v>379.83</v>
+        <v>379.68</v>
       </c>
       <c r="Q162" t="inlineStr">
         <is>
@@ -9090,7 +9090,7 @@
         <v>364.11</v>
       </c>
       <c r="P164" t="n">
-        <v>339.39</v>
+        <v>339.23</v>
       </c>
       <c r="Q164" t="inlineStr">
         <is>
@@ -9141,7 +9141,7 @@
         <v>362.29</v>
       </c>
       <c r="P165" t="n">
-        <v>354.13</v>
+        <v>354.19</v>
       </c>
       <c r="Q165" t="inlineStr">
         <is>
@@ -9198,7 +9198,7 @@
         <v>356.26</v>
       </c>
       <c r="P166" t="n">
-        <v>357.32</v>
+        <v>357.3</v>
       </c>
       <c r="Q166" t="inlineStr">
         <is>
@@ -9251,7 +9251,7 @@
         <v>352.43</v>
       </c>
       <c r="P167" t="n">
-        <v>334.68</v>
+        <v>334.54</v>
       </c>
       <c r="Q167" t="inlineStr">
         <is>
@@ -9304,7 +9304,7 @@
       <c r="N168" t="inlineStr"/>
       <c r="O168" t="inlineStr"/>
       <c r="P168" t="n">
-        <v>359.9</v>
+        <v>359.74</v>
       </c>
       <c r="Q168" t="inlineStr">
         <is>
@@ -9361,7 +9361,7 @@
         <v>368.9</v>
       </c>
       <c r="P169" t="n">
-        <v>375.12</v>
+        <v>375.21</v>
       </c>
       <c r="Q169" t="inlineStr">
         <is>
@@ -9559,7 +9559,7 @@
       <c r="N173" t="inlineStr"/>
       <c r="O173" t="inlineStr"/>
       <c r="P173" t="n">
-        <v>344.66</v>
+        <v>344.57</v>
       </c>
       <c r="Q173" t="inlineStr">
         <is>
@@ -9616,7 +9616,7 @@
         <v>364.7</v>
       </c>
       <c r="P174" t="n">
-        <v>396.32</v>
+        <v>396.33</v>
       </c>
       <c r="Q174" t="inlineStr">
         <is>
@@ -9726,7 +9726,7 @@
         <v>373.88</v>
       </c>
       <c r="P176" t="n">
-        <v>399.64</v>
+        <v>399.47</v>
       </c>
       <c r="Q176" t="inlineStr">
         <is>
@@ -9838,7 +9838,7 @@
         <v>357.63</v>
       </c>
       <c r="P178" t="n">
-        <v>393.46</v>
+        <v>393.45</v>
       </c>
       <c r="Q178" t="inlineStr">
         <is>
@@ -9944,7 +9944,7 @@
         <v>374.72</v>
       </c>
       <c r="P180" t="n">
-        <v>411.4</v>
+        <v>411.28</v>
       </c>
       <c r="Q180" t="inlineStr">
         <is>
@@ -9979,7 +9979,7 @@
         <v>367.4</v>
       </c>
       <c r="P181" t="n">
-        <v>410.49</v>
+        <v>410.32</v>
       </c>
       <c r="Q181" t="inlineStr">
         <is>
@@ -10030,7 +10030,7 @@
         <v>357.66</v>
       </c>
       <c r="P182" t="n">
-        <v>373.74</v>
+        <v>373.86</v>
       </c>
       <c r="Q182" t="inlineStr">
         <is>
@@ -10081,7 +10081,7 @@
         <v>369.44</v>
       </c>
       <c r="P183" t="n">
-        <v>373.24</v>
+        <v>373.29</v>
       </c>
       <c r="Q183" t="inlineStr">
         <is>
@@ -10138,7 +10138,7 @@
         <v>363.33</v>
       </c>
       <c r="P184" t="n">
-        <v>351.22</v>
+        <v>351.1</v>
       </c>
       <c r="Q184" t="inlineStr">
         <is>
@@ -10195,7 +10195,7 @@
         <v>368.52</v>
       </c>
       <c r="P185" t="n">
-        <v>364.31</v>
+        <v>364.29</v>
       </c>
       <c r="Q185" t="inlineStr">
         <is>
@@ -10252,7 +10252,7 @@
         <v>365.15</v>
       </c>
       <c r="P186" t="n">
-        <v>393.52</v>
+        <v>393.59</v>
       </c>
       <c r="Q186" t="inlineStr">
         <is>
@@ -10297,7 +10297,7 @@
         <v>373.85</v>
       </c>
       <c r="P187" t="n">
-        <v>339.73</v>
+        <v>339.66</v>
       </c>
       <c r="Q187" t="inlineStr">
         <is>
@@ -10354,7 +10354,7 @@
         <v>367.52</v>
       </c>
       <c r="P188" t="n">
-        <v>342.97</v>
+        <v>342.84</v>
       </c>
       <c r="Q188" t="inlineStr">
         <is>
@@ -10411,7 +10411,7 @@
         <v>380.66</v>
       </c>
       <c r="P189" t="n">
-        <v>349.92</v>
+        <v>349.76</v>
       </c>
       <c r="Q189" t="inlineStr">
         <is>
@@ -10462,7 +10462,7 @@
         <v>357.22</v>
       </c>
       <c r="P190" t="n">
-        <v>355.13</v>
+        <v>355.05</v>
       </c>
       <c r="Q190" t="inlineStr">
         <is>
@@ -10511,7 +10511,7 @@
         <v>377.11</v>
       </c>
       <c r="P191" t="n">
-        <v>401.66</v>
+        <v>401.49</v>
       </c>
       <c r="Q191" t="inlineStr">
         <is>
@@ -10568,7 +10568,7 @@
         <v>356.49</v>
       </c>
       <c r="P192" t="n">
-        <v>370.91</v>
+        <v>371</v>
       </c>
       <c r="Q192" t="inlineStr">
         <is>
@@ -10625,7 +10625,7 @@
         <v>353.84</v>
       </c>
       <c r="P193" t="n">
-        <v>370.11</v>
+        <v>370.24</v>
       </c>
       <c r="Q193" t="inlineStr">
         <is>
@@ -10682,7 +10682,7 @@
         <v>363.5</v>
       </c>
       <c r="P194" t="n">
-        <v>372.3</v>
+        <v>372.37</v>
       </c>
       <c r="Q194" t="inlineStr">
         <is>
@@ -10739,7 +10739,7 @@
         <v>358.61</v>
       </c>
       <c r="P195" t="n">
-        <v>358.9</v>
+        <v>358.94</v>
       </c>
       <c r="Q195" t="inlineStr">
         <is>
@@ -10825,7 +10825,7 @@
       <c r="N197" t="inlineStr"/>
       <c r="O197" t="inlineStr"/>
       <c r="P197" t="n">
-        <v>356.6</v>
+        <v>356.62</v>
       </c>
       <c r="Q197" t="inlineStr">
         <is>
@@ -10970,7 +10970,7 @@
         <v>353.36</v>
       </c>
       <c r="P200" t="n">
-        <v>357.56</v>
+        <v>357.59</v>
       </c>
       <c r="Q200" t="inlineStr">
         <is>
@@ -11027,7 +11027,7 @@
         <v>359.87</v>
       </c>
       <c r="P201" t="n">
-        <v>357.63</v>
+        <v>357.61</v>
       </c>
       <c r="Q201" t="inlineStr">
         <is>
@@ -11078,7 +11078,7 @@
       <c r="N202" t="inlineStr"/>
       <c r="O202" t="inlineStr"/>
       <c r="P202" t="n">
-        <v>362.36</v>
+        <v>362.26</v>
       </c>
       <c r="Q202" t="inlineStr">
         <is>
@@ -11135,7 +11135,7 @@
         <v>371.41</v>
       </c>
       <c r="P203" t="n">
-        <v>396.27</v>
+        <v>396.25</v>
       </c>
       <c r="Q203" t="inlineStr">
         <is>
@@ -11225,7 +11225,7 @@
         <v>362.26</v>
       </c>
       <c r="P205" t="n">
-        <v>393.47</v>
+        <v>393.58</v>
       </c>
       <c r="Q205" t="inlineStr">
         <is>
@@ -11307,7 +11307,7 @@
         <v>354.46</v>
       </c>
       <c r="P207" t="n">
-        <v>355.25</v>
+        <v>355.32</v>
       </c>
       <c r="Q207" t="inlineStr">
         <is>
@@ -11401,7 +11401,7 @@
         <v>375.2</v>
       </c>
       <c r="P209" t="n">
-        <v>344.14</v>
+        <v>344</v>
       </c>
       <c r="Q209" t="inlineStr">
         <is>
@@ -11446,7 +11446,7 @@
         <v>358.2</v>
       </c>
       <c r="P210" t="n">
-        <v>363.86</v>
+        <v>363.97</v>
       </c>
       <c r="Q210" t="inlineStr">
         <is>
@@ -11536,7 +11536,7 @@
         <v>372.21</v>
       </c>
       <c r="P212" t="n">
-        <v>399.91</v>
+        <v>399.81</v>
       </c>
       <c r="Q212" t="inlineStr">
         <is>
@@ -11593,7 +11593,7 @@
         <v>344.91</v>
       </c>
       <c r="P213" t="n">
-        <v>389.67</v>
+        <v>389.79</v>
       </c>
       <c r="Q213" t="inlineStr">
         <is>
@@ -11632,7 +11632,7 @@
         <v>356.7</v>
       </c>
       <c r="P214" t="n">
-        <v>350.77</v>
+        <v>350.68</v>
       </c>
       <c r="Q214" t="inlineStr">
         <is>
@@ -11689,7 +11689,7 @@
         <v>365.47</v>
       </c>
       <c r="P215" t="n">
-        <v>343.99</v>
+        <v>343.84</v>
       </c>
       <c r="Q215" t="inlineStr">
         <is>
@@ -11816,7 +11816,7 @@
         <v>371.58</v>
       </c>
       <c r="P218" t="n">
-        <v>356.1</v>
+        <v>355.97</v>
       </c>
       <c r="Q218" t="inlineStr">
         <is>
@@ -11867,7 +11867,7 @@
         <v>363.25</v>
       </c>
       <c r="P219" t="n">
-        <v>394.41</v>
+        <v>394.4</v>
       </c>
       <c r="Q219" t="inlineStr">
         <is>
@@ -11910,7 +11910,7 @@
         <v>371.41</v>
       </c>
       <c r="P220" t="n">
-        <v>362.8</v>
+        <v>362.73</v>
       </c>
       <c r="Q220" t="inlineStr">
         <is>
@@ -11967,7 +11967,7 @@
         <v>374.67</v>
       </c>
       <c r="P221" t="n">
-        <v>374.23</v>
+        <v>374.21</v>
       </c>
       <c r="Q221" t="inlineStr">
         <is>
@@ -12063,7 +12063,7 @@
       <c r="N223" t="inlineStr"/>
       <c r="O223" t="inlineStr"/>
       <c r="P223" t="n">
-        <v>378.31</v>
+        <v>378.1</v>
       </c>
       <c r="Q223" t="inlineStr">
         <is>
@@ -12114,7 +12114,7 @@
         <v>369.68</v>
       </c>
       <c r="P224" t="n">
-        <v>377.23</v>
+        <v>377.05</v>
       </c>
       <c r="Q224" t="inlineStr">
         <is>
@@ -12171,7 +12171,7 @@
         <v>375.48</v>
       </c>
       <c r="P225" t="n">
-        <v>373.93</v>
+        <v>373.99</v>
       </c>
       <c r="Q225" t="inlineStr">
         <is>
@@ -12255,7 +12255,7 @@
         <v>364.08</v>
       </c>
       <c r="P227" t="n">
-        <v>369.52</v>
+        <v>369.56</v>
       </c>
       <c r="Q227" t="inlineStr">
         <is>
@@ -12325,7 +12325,7 @@
       <c r="N229" t="inlineStr"/>
       <c r="O229" t="inlineStr"/>
       <c r="P229" t="n">
-        <v>309.25</v>
+        <v>309.35</v>
       </c>
       <c r="Q229" t="inlineStr">
         <is>
@@ -12368,7 +12368,7 @@
         <v>364.02</v>
       </c>
       <c r="P230" t="n">
-        <v>340.9</v>
+        <v>340.79</v>
       </c>
       <c r="Q230" t="inlineStr">
         <is>
@@ -12425,7 +12425,7 @@
         <v>364.37</v>
       </c>
       <c r="P231" t="n">
-        <v>343.58</v>
+        <v>343.45</v>
       </c>
       <c r="Q231" t="inlineStr">
         <is>
@@ -12466,7 +12466,7 @@
         <v>371.64</v>
       </c>
       <c r="P232" t="n">
-        <v>377.37</v>
+        <v>377.2</v>
       </c>
       <c r="Q232" t="inlineStr">
         <is>
@@ -12523,7 +12523,7 @@
         <v>366.63</v>
       </c>
       <c r="P233" t="n">
-        <v>401.53</v>
+        <v>401.36</v>
       </c>
       <c r="Q233" t="inlineStr">
         <is>
@@ -12572,7 +12572,7 @@
         <v>349.74</v>
       </c>
       <c r="P234" t="n">
-        <v>370.79</v>
+        <v>370.88</v>
       </c>
       <c r="Q234" t="inlineStr">
         <is>
@@ -12617,7 +12617,7 @@
       <c r="N235" t="inlineStr"/>
       <c r="O235" t="inlineStr"/>
       <c r="P235" t="n">
-        <v>380.72</v>
+        <v>380.67</v>
       </c>
       <c r="Q235" t="inlineStr">
         <is>
@@ -12668,7 +12668,7 @@
       <c r="N236" t="inlineStr"/>
       <c r="O236" t="inlineStr"/>
       <c r="P236" t="n">
-        <v>377.37</v>
+        <v>377.17</v>
       </c>
       <c r="Q236" t="inlineStr">
         <is>
@@ -12803,7 +12803,7 @@
         <v>379.89</v>
       </c>
       <c r="P239" t="n">
-        <v>403.02</v>
+        <v>402.83</v>
       </c>
       <c r="Q239" t="inlineStr">
         <is>
@@ -12854,7 +12854,7 @@
         <v>378.4</v>
       </c>
       <c r="P240" t="n">
-        <v>410.68</v>
+        <v>410.74</v>
       </c>
       <c r="Q240" t="inlineStr">
         <is>
@@ -12911,7 +12911,7 @@
         <v>366.62</v>
       </c>
       <c r="P241" t="n">
-        <v>399.35</v>
+        <v>399.32</v>
       </c>
       <c r="Q241" t="inlineStr">
         <is>
@@ -13007,7 +13007,7 @@
         <v>361.01</v>
       </c>
       <c r="P243" t="n">
-        <v>369.94</v>
+        <v>370.05</v>
       </c>
       <c r="Q243" t="inlineStr">
         <is>
@@ -13064,7 +13064,7 @@
         <v>370.07</v>
       </c>
       <c r="P244" t="n">
-        <v>402.51</v>
+        <v>402.61</v>
       </c>
       <c r="Q244" t="inlineStr">
         <is>
@@ -13222,7 +13222,7 @@
         <v>338.22</v>
       </c>
       <c r="P248" t="n">
-        <v>389.38</v>
+        <v>389.52</v>
       </c>
       <c r="Q248" t="inlineStr">
         <is>
@@ -13396,7 +13396,7 @@
         <v>378.51</v>
       </c>
       <c r="P252" t="n">
-        <v>375.64</v>
+        <v>375.5</v>
       </c>
       <c r="Q252" t="inlineStr">
         <is>
@@ -13453,7 +13453,7 @@
         <v>382.26</v>
       </c>
       <c r="P253" t="n">
-        <v>379.62</v>
+        <v>379.56</v>
       </c>
       <c r="Q253" t="inlineStr">
         <is>
@@ -13551,7 +13551,7 @@
         <v>365.21</v>
       </c>
       <c r="P255" t="n">
-        <v>401.23</v>
+        <v>401.33</v>
       </c>
       <c r="Q255" t="inlineStr">
         <is>
@@ -13635,7 +13635,7 @@
       <c r="N257" t="inlineStr"/>
       <c r="O257" t="inlineStr"/>
       <c r="P257" t="n">
-        <v>395.78</v>
+        <v>395.63</v>
       </c>
       <c r="Q257" t="inlineStr">
         <is>
@@ -13737,7 +13737,7 @@
         <v>365.32</v>
       </c>
       <c r="P259" t="n">
-        <v>396.1</v>
+        <v>396.13</v>
       </c>
       <c r="Q259" t="inlineStr">
         <is>
@@ -13794,7 +13794,7 @@
         <v>376.93</v>
       </c>
       <c r="P260" t="n">
-        <v>397.42</v>
+        <v>397.3</v>
       </c>
       <c r="Q260" t="inlineStr">
         <is>
@@ -13851,7 +13851,7 @@
         <v>371.76</v>
       </c>
       <c r="P261" t="n">
-        <v>398.03</v>
+        <v>398.05</v>
       </c>
       <c r="Q261" t="inlineStr">
         <is>
@@ -14019,7 +14019,7 @@
         <v>368.09</v>
       </c>
       <c r="P265" t="n">
-        <v>375.42</v>
+        <v>375.29</v>
       </c>
       <c r="Q265" t="inlineStr">
         <is>
@@ -14109,7 +14109,7 @@
         <v>363.93</v>
       </c>
       <c r="P267" t="n">
-        <v>345.48</v>
+        <v>345.33</v>
       </c>
       <c r="Q267" t="inlineStr">
         <is>
@@ -14150,7 +14150,7 @@
         <v>335.64</v>
       </c>
       <c r="P268" t="n">
-        <v>356.08</v>
+        <v>356.01</v>
       </c>
       <c r="Q268" t="inlineStr">
         <is>
@@ -14199,7 +14199,7 @@
         <v>353.86</v>
       </c>
       <c r="P269" t="n">
-        <v>348.07</v>
+        <v>348.11</v>
       </c>
       <c r="Q269" t="inlineStr">
         <is>
@@ -14326,7 +14326,7 @@
         <v>368.4</v>
       </c>
       <c r="P272" t="n">
-        <v>367.81</v>
+        <v>367.84</v>
       </c>
       <c r="Q272" t="inlineStr">
         <is>
@@ -14420,7 +14420,7 @@
         <v>383.39</v>
       </c>
       <c r="P274" t="n">
-        <v>401.56</v>
+        <v>401.39</v>
       </c>
       <c r="Q274" t="inlineStr">
         <is>
@@ -14512,7 +14512,7 @@
         <v>367.35</v>
       </c>
       <c r="P276" t="n">
-        <v>377.31</v>
+        <v>377.39</v>
       </c>
       <c r="Q276" t="inlineStr">
         <is>
@@ -14655,7 +14655,7 @@
         <v>381.05</v>
       </c>
       <c r="P279" t="n">
-        <v>380.95</v>
+        <v>381</v>
       </c>
       <c r="Q279" t="inlineStr">
         <is>
@@ -14747,7 +14747,7 @@
         <v>377.94</v>
       </c>
       <c r="P281" t="n">
-        <v>401.05</v>
+        <v>400.87</v>
       </c>
       <c r="Q281" t="inlineStr">
         <is>
@@ -14893,7 +14893,7 @@
         <v>365.3</v>
       </c>
       <c r="P285" t="n">
-        <v>406.35</v>
+        <v>406.4</v>
       </c>
       <c r="Q285" t="inlineStr">
         <is>
@@ -14985,7 +14985,7 @@
         <v>362.63</v>
       </c>
       <c r="P287" t="n">
-        <v>390.4</v>
+        <v>390.47</v>
       </c>
       <c r="Q287" t="inlineStr">
         <is>
@@ -15042,7 +15042,7 @@
         <v>356.86</v>
       </c>
       <c r="P288" t="n">
-        <v>353.42</v>
+        <v>353.4</v>
       </c>
       <c r="Q288" t="inlineStr">
         <is>
@@ -15150,7 +15150,7 @@
         <v>366.17</v>
       </c>
       <c r="P290" t="n">
-        <v>347.89</v>
+        <v>347.76</v>
       </c>
       <c r="Q290" t="inlineStr">
         <is>
@@ -15238,7 +15238,7 @@
         <v>361.94</v>
       </c>
       <c r="P292" t="n">
-        <v>362.55</v>
+        <v>362.62</v>
       </c>
       <c r="Q292" t="inlineStr">
         <is>
@@ -15340,7 +15340,7 @@
         <v>381.88</v>
       </c>
       <c r="P294" t="n">
-        <v>364.78</v>
+        <v>364.58</v>
       </c>
       <c r="Q294" t="inlineStr">
         <is>
@@ -15397,7 +15397,7 @@
         <v>373.45</v>
       </c>
       <c r="P295" t="n">
-        <v>375.5</v>
+        <v>375.55</v>
       </c>
       <c r="Q295" t="inlineStr">
         <is>
@@ -15454,7 +15454,7 @@
         <v>364.33</v>
       </c>
       <c r="P296" t="n">
-        <v>347.07</v>
+        <v>346.96</v>
       </c>
       <c r="Q296" t="inlineStr">
         <is>
@@ -15511,7 +15511,7 @@
         <v>376.51</v>
       </c>
       <c r="P297" t="n">
-        <v>368.69</v>
+        <v>368.65</v>
       </c>
       <c r="Q297" t="inlineStr">
         <is>
@@ -15605,7 +15605,7 @@
       <c r="N299" t="inlineStr"/>
       <c r="O299" t="inlineStr"/>
       <c r="P299" t="n">
-        <v>411.89</v>
+        <v>411.72</v>
       </c>
       <c r="Q299" t="inlineStr">
         <is>
@@ -15662,7 +15662,7 @@
         <v>357.66</v>
       </c>
       <c r="P300" t="n">
-        <v>392.41</v>
+        <v>392.48</v>
       </c>
       <c r="Q300" t="inlineStr">
         <is>
@@ -15719,7 +15719,7 @@
         <v>357.57</v>
       </c>
       <c r="P301" t="n">
-        <v>368.68</v>
+        <v>368.75</v>
       </c>
       <c r="Q301" t="inlineStr">
         <is>
@@ -15831,7 +15831,7 @@
         <v>369.87</v>
       </c>
       <c r="P303" t="n">
-        <v>347.24</v>
+        <v>347.06</v>
       </c>
       <c r="Q303" t="inlineStr">
         <is>
@@ -15888,7 +15888,7 @@
         <v>349.97</v>
       </c>
       <c r="P304" t="n">
-        <v>340.84</v>
+        <v>340.92</v>
       </c>
       <c r="Q304" t="inlineStr">
         <is>
@@ -15945,7 +15945,7 @@
         <v>374.73</v>
       </c>
       <c r="P305" t="n">
-        <v>369.18</v>
+        <v>369.23</v>
       </c>
       <c r="Q305" t="inlineStr">
         <is>
@@ -16055,7 +16055,7 @@
         <v>355.47</v>
       </c>
       <c r="P307" t="n">
-        <v>398.12</v>
+        <v>398.24</v>
       </c>
       <c r="Q307" t="inlineStr">
         <is>
@@ -16112,7 +16112,7 @@
         <v>375.64</v>
       </c>
       <c r="P308" t="n">
-        <v>401.53</v>
+        <v>401.35</v>
       </c>
       <c r="Q308" t="inlineStr">
         <is>
@@ -16169,7 +16169,7 @@
         <v>377.96</v>
       </c>
       <c r="P309" t="n">
-        <v>391.26</v>
+        <v>391.31</v>
       </c>
       <c r="Q309" t="inlineStr">
         <is>
@@ -16226,7 +16226,7 @@
         <v>375.32</v>
       </c>
       <c r="P310" t="n">
-        <v>378.66</v>
+        <v>378.68</v>
       </c>
       <c r="Q310" t="inlineStr">
         <is>
@@ -16283,7 +16283,7 @@
         <v>380.18</v>
       </c>
       <c r="P311" t="n">
-        <v>405.93</v>
+        <v>405.76</v>
       </c>
       <c r="Q311" t="inlineStr">
         <is>
@@ -16340,7 +16340,7 @@
         <v>383.97</v>
       </c>
       <c r="P312" t="n">
-        <v>358.79</v>
+        <v>358.57</v>
       </c>
       <c r="Q312" t="inlineStr">
         <is>
@@ -16397,7 +16397,7 @@
         <v>363.32</v>
       </c>
       <c r="P313" t="n">
-        <v>367.55</v>
+        <v>367.61</v>
       </c>
       <c r="Q313" t="inlineStr">
         <is>
@@ -16454,7 +16454,7 @@
         <v>369.26</v>
       </c>
       <c r="P314" t="n">
-        <v>346.44</v>
+        <v>346.39</v>
       </c>
       <c r="Q314" t="inlineStr">
         <is>
@@ -16511,7 +16511,7 @@
         <v>365.22</v>
       </c>
       <c r="P315" t="n">
-        <v>354.77</v>
+        <v>354.75</v>
       </c>
       <c r="Q315" t="inlineStr">
         <is>
@@ -16568,7 +16568,7 @@
         <v>366.5</v>
       </c>
       <c r="P316" t="n">
-        <v>394.03</v>
+        <v>394.01</v>
       </c>
       <c r="Q316" t="inlineStr">
         <is>
@@ -16654,7 +16654,7 @@
         <v>377.12</v>
       </c>
       <c r="P318" t="n">
-        <v>402.77</v>
+        <v>402.59</v>
       </c>
       <c r="Q318" t="inlineStr">
         <is>
@@ -16711,7 +16711,7 @@
         <v>352.67</v>
       </c>
       <c r="P319" t="n">
-        <v>391.84</v>
+        <v>391.93</v>
       </c>
       <c r="Q319" t="inlineStr">
         <is>
@@ -16768,7 +16768,7 @@
         <v>364.77</v>
       </c>
       <c r="P320" t="n">
-        <v>403.78</v>
+        <v>403.6</v>
       </c>
       <c r="Q320" t="inlineStr">
         <is>
@@ -16825,7 +16825,7 @@
         <v>352.53</v>
       </c>
       <c r="P321" t="n">
-        <v>390.1</v>
+        <v>390.18</v>
       </c>
       <c r="Q321" t="inlineStr">
         <is>
@@ -16882,7 +16882,7 @@
         <v>375.46</v>
       </c>
       <c r="P322" t="n">
-        <v>359.4</v>
+        <v>359.3</v>
       </c>
       <c r="Q322" t="inlineStr">
         <is>
@@ -16994,7 +16994,7 @@
         <v>355.79</v>
       </c>
       <c r="P324" t="n">
-        <v>348.3</v>
+        <v>348.21</v>
       </c>
       <c r="Q324" t="inlineStr">
         <is>
@@ -17051,7 +17051,7 @@
         <v>375.3</v>
       </c>
       <c r="P325" t="n">
-        <v>350.04</v>
+        <v>349.82</v>
       </c>
       <c r="Q325" t="inlineStr">
         <is>
@@ -21673,7 +21673,7 @@
         <v>0.2</v>
       </c>
       <c r="I16" t="n">
-        <v>1.080383347815275</v>
+        <v>1.080511790907079</v>
       </c>
       <c r="J16" t="n">
         <v>324</v>
@@ -21682,19 +21682,19 @@
         <v>242</v>
       </c>
       <c r="L16" t="n">
-        <v>0.1377620436647465</v>
+        <v>0.1374524801410781</v>
       </c>
       <c r="M16" t="n">
-        <v>17.24348160508715</v>
+        <v>17.27450551066205</v>
       </c>
       <c r="N16" t="n">
-        <v>432.4551539415133</v>
+        <v>433.6878196639472</v>
       </c>
       <c r="O16" t="n">
-        <v>20.79555611041728</v>
+        <v>20.82517274031472</v>
       </c>
       <c r="P16" t="n">
-        <v>347.8988551806594</v>
+        <v>347.8515864408325</v>
       </c>
       <c r="Q16" t="inlineStr"/>
       <c r="R16" t="inlineStr">
@@ -21944,7 +21944,7 @@
       </c>
       <c r="P3" t="inlineStr">
         <is>
-          <t>-38.1175581697162,174.7429179453977</t>
+          <t>-38.11755857834107,174.7429185535241</t>
         </is>
       </c>
       <c r="Q3" t="inlineStr">
@@ -22031,7 +22031,7 @@
       </c>
       <c r="P4" t="inlineStr">
         <is>
-          <t>-38.1174667544124,174.74278189900178</t>
+          <t>-38.11746727978819,174.74278268087667</t>
         </is>
       </c>
       <c r="Q4" t="inlineStr">
@@ -22118,7 +22118,7 @@
       </c>
       <c r="P5" t="inlineStr">
         <is>
-          <t>-38.11734159806759,174.7425956393497</t>
+          <t>-38.117341131065714,174.7425949443522</t>
         </is>
       </c>
       <c r="Q5" t="inlineStr">
@@ -22205,7 +22205,7 @@
       </c>
       <c r="P6" t="inlineStr">
         <is>
-          <t>-38.11740691991165,174.74269285221416</t>
+          <t>-38.11740639453522,174.74269207034055</t>
         </is>
       </c>
       <c r="Q6" t="inlineStr">
@@ -22292,7 +22292,7 @@
       </c>
       <c r="P7" t="inlineStr">
         <is>
-          <t>-38.11739010786342,174.74266783226474</t>
+          <t>-38.11738999111307,174.74266765851513</t>
         </is>
       </c>
       <c r="Q7" t="inlineStr">
@@ -22410,7 +22410,7 @@
       </c>
       <c r="P9" t="inlineStr">
         <is>
-          <t>-38.11752822334199,174.7428733784377</t>
+          <t>-38.11752921571725,174.74287485531494</t>
         </is>
       </c>
       <c r="Q9" t="inlineStr">
@@ -22493,7 +22493,7 @@
       </c>
       <c r="P10" t="inlineStr">
         <is>
-          <t>-38.11749921095065,174.74283020151492</t>
+          <t>-38.117499677951045,174.74283089651544</t>
         </is>
       </c>
       <c r="Q10" t="inlineStr">
@@ -22580,7 +22580,7 @@
       </c>
       <c r="P11" t="inlineStr">
         <is>
-          <t>-38.11752623859141,174.74287042468336</t>
+          <t>-38.11752571321625,174.74286964280722</t>
         </is>
       </c>
       <c r="Q11" t="inlineStr">
@@ -22667,7 +22667,7 @@
       </c>
       <c r="P12" t="inlineStr">
         <is>
-          <t>-38.117461500654215,174.74277408025367</t>
+          <t>-38.11746202603006,174.7427748621284</t>
         </is>
       </c>
       <c r="Q12" t="inlineStr">
@@ -22754,7 +22754,7 @@
       </c>
       <c r="P13" t="inlineStr">
         <is>
-          <t>-38.117373529310335,174.74264315982578</t>
+          <t>-38.117373179059165,174.7426426385772</t>
         </is>
       </c>
       <c r="Q13" t="inlineStr">
@@ -22841,7 +22841,7 @@
       </c>
       <c r="P14" t="inlineStr">
         <is>
-          <t>-38.11740709503712,174.74269311283868</t>
+          <t>-38.11740668641102,174.74269250471477</t>
         </is>
       </c>
       <c r="Q14" t="inlineStr">
@@ -22979,7 +22979,7 @@
       </c>
       <c r="P16" t="inlineStr">
         <is>
-          <t>-38.11761543553975,174.74300317003613</t>
+          <t>-38.117615960913966,174.74300395191415</t>
         </is>
       </c>
       <c r="Q16" t="inlineStr">
@@ -23066,7 +23066,7 @@
       </c>
       <c r="P17" t="inlineStr">
         <is>
-          <t>-38.117622090279504,174.74301307382532</t>
+          <t>-38.117623082652905,174.74301455070633</t>
         </is>
       </c>
       <c r="Q17" t="inlineStr">
@@ -23153,7 +23153,7 @@
       </c>
       <c r="P18" t="inlineStr">
         <is>
-          <t>-38.11739460275187,174.7426745216251</t>
+          <t>-38.117394135750494,174.74267382662657</t>
         </is>
       </c>
       <c r="Q18" t="inlineStr">
@@ -23240,7 +23240,7 @@
       </c>
       <c r="P19" t="inlineStr">
         <is>
-          <t>-38.11724241844678,174.74244803944998</t>
+          <t>-38.117241893068616,174.74244725757987</t>
         </is>
       </c>
       <c r="Q19" t="inlineStr">
@@ -23291,7 +23291,7 @@
       </c>
       <c r="P20" t="inlineStr">
         <is>
-          <t>-38.11742991971846,174.74272708091345</t>
+          <t>-38.11742933596715,174.74272621216448</t>
         </is>
       </c>
       <c r="Q20" t="inlineStr">
@@ -23378,7 +23378,7 @@
       </c>
       <c r="P21" t="inlineStr">
         <is>
-          <t>-38.11742449083101,174.7427190015485</t>
+          <t>-38.11742466595642,174.74271926217315</t>
         </is>
       </c>
       <c r="Q21" t="inlineStr">
@@ -23465,7 +23465,7 @@
       </c>
       <c r="P22" t="inlineStr">
         <is>
-          <t>-38.11762249890385,174.74301368195282</t>
+          <t>-38.11762349127724,174.7430151588338</t>
         </is>
       </c>
       <c r="Q22" t="inlineStr">
@@ -23552,7 +23552,7 @@
       </c>
       <c r="P23" t="inlineStr">
         <is>
-          <t>-38.11755665196668,174.7429156866425</t>
+          <t>-38.117557702716354,174.7429172503961</t>
         </is>
       </c>
       <c r="Q23" t="inlineStr">
@@ -23639,7 +23639,7 @@
       </c>
       <c r="P24" t="inlineStr">
         <is>
-          <t>-38.117524253840756,174.74286747092916</t>
+          <t>-38.11752431221577,174.7428675578043</t>
         </is>
       </c>
       <c r="Q24" t="inlineStr">
@@ -23809,7 +23809,7 @@
       </c>
       <c r="P26" t="inlineStr">
         <is>
-          <t>-38.11749033794228,174.74281699650712</t>
+          <t>-38.11749074656771,174.7428176046324</t>
         </is>
       </c>
       <c r="Q26" t="inlineStr">
@@ -23896,7 +23896,7 @@
       </c>
       <c r="P27" t="inlineStr">
         <is>
-          <t>-38.11750808395744,174.7428434065259</t>
+          <t>-38.11750913470814,174.74284497027745</t>
         </is>
       </c>
       <c r="Q27" t="inlineStr">
@@ -23983,7 +23983,7 @@
       </c>
       <c r="P28" t="inlineStr">
         <is>
-          <t>-38.11758134457828,174.74295243486333</t>
+          <t>-38.117582045077725,174.74295347736643</t>
         </is>
       </c>
       <c r="Q28" t="inlineStr">
@@ -24070,7 +24070,7 @@
       </c>
       <c r="P29" t="inlineStr">
         <is>
-          <t>-38.117309024676445,174.74254716329406</t>
+          <t>-38.11730861604954,174.7425465551718</t>
         </is>
       </c>
       <c r="Q29" t="inlineStr">
@@ -24157,7 +24157,7 @@
       </c>
       <c r="P30" t="inlineStr">
         <is>
-          <t>-38.11749547494731,174.74282464151125</t>
+          <t>-38.11749483282171,174.74282368588567</t>
         </is>
       </c>
       <c r="Q30" t="inlineStr">
@@ -24323,7 +24323,7 @@
       </c>
       <c r="P32" t="inlineStr">
         <is>
-          <t>-38.117486952188685,174.74281195775495</t>
+          <t>-38.117486310062965,174.74281100212963</t>
         </is>
       </c>
       <c r="Q32" t="inlineStr">
@@ -24398,7 +24398,7 @@
       </c>
       <c r="P33" t="inlineStr">
         <is>
-          <t>-38.117644798112906,174.7430468683476</t>
+          <t>-38.11764532348682,174.74304765022626</t>
         </is>
       </c>
       <c r="Q33" t="inlineStr">
@@ -24485,7 +24485,7 @@
       </c>
       <c r="P34" t="inlineStr">
         <is>
-          <t>-38.117496700823445,174.7428264658874</t>
+          <t>-38.117497985074586,174.74282837713866</t>
         </is>
       </c>
       <c r="Q34" t="inlineStr">
@@ -24556,7 +24556,7 @@
       </c>
       <c r="P35" t="inlineStr">
         <is>
-          <t>-38.11730260339612,174.74253760708743</t>
+          <t>-38.117302019643326,174.74253673834147</t>
         </is>
       </c>
       <c r="Q35" t="inlineStr">
@@ -24635,7 +24635,7 @@
       </c>
       <c r="P36" t="inlineStr">
         <is>
-          <t>-38.11729022783535,174.74251918967573</t>
+          <t>-38.11729034458594,174.74251936342486</t>
         </is>
       </c>
       <c r="Q36" t="inlineStr">
@@ -24722,7 +24722,7 @@
       </c>
       <c r="P37" t="inlineStr">
         <is>
-          <t>-38.117569494461236,174.74293479918927</t>
+          <t>-38.117568910711555,174.742933930437</t>
         </is>
       </c>
       <c r="Q37" t="inlineStr">
@@ -24809,7 +24809,7 @@
       </c>
       <c r="P38" t="inlineStr">
         <is>
-          <t>-38.11752530459112,174.74286903468135</t>
+          <t>-38.1175252462161,174.74286894780622</t>
         </is>
       </c>
       <c r="Q38" t="inlineStr">
@@ -24963,7 +24963,7 @@
       </c>
       <c r="P40" t="inlineStr">
         <is>
-          <t>-38.117472066545105,174.74278980462603</t>
+          <t>-38.11747218329526,174.74278997837604</t>
         </is>
       </c>
       <c r="Q40" t="inlineStr">
@@ -25113,7 +25113,7 @@
       </c>
       <c r="P42" t="inlineStr">
         <is>
-          <t>-38.11746190927989,174.7427746883785</t>
+          <t>-38.11746296003156,174.74277625212804</t>
         </is>
       </c>
       <c r="Q42" t="inlineStr">
@@ -25200,7 +25200,7 @@
       </c>
       <c r="P43" t="inlineStr">
         <is>
-          <t>-38.11753738821865,174.74288701783485</t>
+          <t>-38.11753820546872,174.74288823408702</t>
         </is>
       </c>
       <c r="Q43" t="inlineStr">
@@ -25287,7 +25287,7 @@
       </c>
       <c r="P44" t="inlineStr">
         <is>
-          <t>-38.11781145811688,174.74329489819107</t>
+          <t>-38.11781198348906,174.74329568007326</t>
         </is>
       </c>
       <c r="Q44" t="inlineStr">
@@ -25374,7 +25374,7 @@
       </c>
       <c r="P45" t="inlineStr">
         <is>
-          <t>-38.11771309667561,174.7431485126661</t>
+          <t>-38.11771257130241,174.74314773078603</t>
         </is>
       </c>
       <c r="Q45" t="inlineStr">
@@ -25461,7 +25461,7 @@
       </c>
       <c r="P46" t="inlineStr">
         <is>
-          <t>-38.11757124571024,174.74293740544618</t>
+          <t>-38.11757072033554,174.7429366235691</t>
         </is>
       </c>
       <c r="Q46" t="inlineStr">
@@ -25536,7 +25536,7 @@
       </c>
       <c r="P47" t="inlineStr">
         <is>
-          <t>-38.11751824121327,174.74285852279243</t>
+          <t>-38.11751935033878,174.74286017341947</t>
         </is>
       </c>
       <c r="Q47" t="inlineStr">
@@ -25623,7 +25623,7 @@
       </c>
       <c r="P48" t="inlineStr">
         <is>
-          <t>-38.11751625646229,174.74285556903888</t>
+          <t>-38.11751555596193,174.74285452653766</t>
         </is>
       </c>
       <c r="Q48" t="inlineStr">
@@ -25694,7 +25694,7 @@
       </c>
       <c r="P49" t="inlineStr">
         <is>
-          <t>-38.117514972211616,174.74285365778664</t>
+          <t>-38.11751485546155,174.74285348403646</t>
         </is>
       </c>
       <c r="Q49" t="inlineStr">
@@ -25781,7 +25781,7 @@
       </c>
       <c r="P50" t="inlineStr">
         <is>
-          <t>-38.1176358083806,174.7430334895368</t>
+          <t>-38.117636217004836,174.7430340976645</t>
         </is>
       </c>
       <c r="Q50" t="inlineStr">
@@ -25903,7 +25903,7 @@
       </c>
       <c r="P52" t="inlineStr">
         <is>
-          <t>-38.117510302208885,174.74284670777917</t>
+          <t>-38.11751106108436,174.74284783715532</t>
         </is>
       </c>
       <c r="Q52" t="inlineStr">
@@ -25990,7 +25990,7 @@
       </c>
       <c r="P53" t="inlineStr">
         <is>
-          <t>-38.11739740476005,174.74267869161636</t>
+          <t>-38.11739705450904,174.74267817036744</t>
         </is>
       </c>
       <c r="Q53" t="inlineStr">
@@ -26065,7 +26065,7 @@
       </c>
       <c r="P54" t="inlineStr">
         <is>
-          <t>-38.11763242263686,174.74302845076477</t>
+          <t>-38.11763370688452,174.74303036202306</t>
         </is>
       </c>
       <c r="Q54" t="inlineStr">
@@ -26140,7 +26140,7 @@
       </c>
       <c r="P55" t="inlineStr">
         <is>
-          <t>-38.117546377968665,174.74290039660988</t>
+          <t>-38.1175470784686,174.742901439112</t>
         </is>
       </c>
       <c r="Q55" t="inlineStr">
@@ -26227,7 +26227,7 @@
       </c>
       <c r="P56" t="inlineStr">
         <is>
-          <t>-38.11757930145485,174.74294939422947</t>
+          <t>-38.11757976845451,174.7429500892315</t>
         </is>
       </c>
       <c r="Q56" t="inlineStr">
@@ -26389,7 +26389,7 @@
       </c>
       <c r="P58" t="inlineStr">
         <is>
-          <t>-38.1176197552832,174.74300959881137</t>
+          <t>-38.11762033903228,174.74301046756483</t>
         </is>
       </c>
       <c r="Q58" t="inlineStr">
@@ -26464,7 +26464,7 @@
       </c>
       <c r="P59" t="inlineStr">
         <is>
-          <t>-38.117644856487786,174.74304695522298</t>
+          <t>-38.11764555698634,174.74304799772787</t>
         </is>
       </c>
       <c r="Q59" t="inlineStr">
@@ -26626,7 +26626,7 @@
       </c>
       <c r="P61" t="inlineStr">
         <is>
-          <t>-38.117658399458044,174.7430671103208</t>
+          <t>-38.117657815709414,174.74306624156642</t>
         </is>
       </c>
       <c r="Q61" t="inlineStr">
@@ -26705,7 +26705,7 @@
       </c>
       <c r="P62" t="inlineStr">
         <is>
-          <t>-38.11761380104212,174.74300073752676</t>
+          <t>-38.11761461829093,174.74300195378143</t>
         </is>
       </c>
       <c r="Q62" t="inlineStr">
@@ -26847,7 +26847,7 @@
       </c>
       <c r="P64" t="inlineStr">
         <is>
-          <t>-38.117591735319,174.74296789866102</t>
+          <t>-38.1175920271937,174.74296833303742</t>
         </is>
       </c>
       <c r="Q64" t="inlineStr">
@@ -26997,7 +26997,7 @@
       </c>
       <c r="P66" t="inlineStr">
         <is>
-          <t>-38.11752758121681,174.74287242281127</t>
+          <t>-38.11752892384218,174.74287442093927</t>
         </is>
       </c>
       <c r="Q66" t="inlineStr">
@@ -27068,7 +27068,7 @@
       </c>
       <c r="P67" t="inlineStr">
         <is>
-          <t>-38.117605570178284,174.7429884881063</t>
+          <t>-38.11760656255201,174.74298996498663</t>
         </is>
       </c>
       <c r="Q67" t="inlineStr">
@@ -27147,7 +27147,7 @@
       </c>
       <c r="P68" t="inlineStr">
         <is>
-          <t>-38.117556243341795,174.74291507851615</t>
+          <t>-38.11755711896653,174.7429163816441</t>
         </is>
       </c>
       <c r="Q68" t="inlineStr">
@@ -27222,7 +27222,7 @@
       </c>
       <c r="P69" t="inlineStr">
         <is>
-          <t>-38.11749313994509,174.74282116650923</t>
+          <t>-38.11749278969475,174.74282064525894</t>
         </is>
       </c>
       <c r="Q69" t="inlineStr">
@@ -27297,7 +27297,7 @@
       </c>
       <c r="P70" t="inlineStr">
         <is>
-          <t>-38.11753336034313,174.7428810234497</t>
+          <t>-38.117532601468,174.74287989407287</t>
         </is>
       </c>
       <c r="Q70" t="inlineStr">
@@ -27384,7 +27384,7 @@
       </c>
       <c r="P71" t="inlineStr">
         <is>
-          <t>-38.117597806312574,174.74297693369093</t>
+          <t>-38.11759850681178,174.74297797619445</t>
         </is>
       </c>
       <c r="Q71" t="inlineStr">
@@ -27471,7 +27471,7 @@
       </c>
       <c r="P72" t="inlineStr">
         <is>
-          <t>-38.11771338854962,174.74314894704395</t>
+          <t>-38.1177140306724,174.74314990267519</t>
         </is>
       </c>
       <c r="Q72" t="inlineStr">
@@ -27546,7 +27546,7 @@
       </c>
       <c r="P73" t="inlineStr">
         <is>
-          <t>-38.117662252198926,174.74307284409997</t>
+          <t>-38.117662310573785,174.74307293097542</t>
         </is>
       </c>
       <c r="Q73" t="inlineStr">
@@ -27621,7 +27621,7 @@
       </c>
       <c r="P74" t="inlineStr">
         <is>
-          <t>-38.11763539975637,174.74303288140914</t>
+          <t>-38.117636217004836,174.7430340976645</t>
         </is>
       </c>
       <c r="Q74" t="inlineStr">
@@ -27779,7 +27779,7 @@
       </c>
       <c r="P76" t="inlineStr">
         <is>
-          <t>-38.11752612184138,174.7428702509331</t>
+          <t>-38.11752699746664,174.74287155406</t>
         </is>
       </c>
       <c r="Q76" t="inlineStr">
@@ -27933,7 +27933,7 @@
       </c>
       <c r="P78" t="inlineStr">
         <is>
-          <t>-38.11743937648875,174.74274115464883</t>
+          <t>-38.11743896786292,174.74274054652437</t>
         </is>
       </c>
       <c r="Q78" t="inlineStr">
@@ -28087,7 +28087,7 @@
       </c>
       <c r="P80" t="inlineStr">
         <is>
-          <t>-38.117349070096964,174.74260675931117</t>
+          <t>-38.11734848634472,174.7426058905641</t>
         </is>
       </c>
       <c r="Q80" t="inlineStr">
@@ -28201,7 +28201,7 @@
       </c>
       <c r="P82" t="inlineStr">
         <is>
-          <t>-38.117774273428616,174.74323955833538</t>
+          <t>-38.11777532417372,174.7432411220982</t>
         </is>
       </c>
       <c r="Q82" t="inlineStr">
@@ -28280,7 +28280,7 @@
       </c>
       <c r="P83" t="inlineStr">
         <is>
-          <t>-38.11771245455281,174.7431475570349</t>
+          <t>-38.117713680423606,174.74314938142177</t>
         </is>
       </c>
       <c r="Q83" t="inlineStr">
@@ -28355,7 +28355,7 @@
       </c>
       <c r="P84" t="inlineStr">
         <is>
-          <t>-38.11762442527569,174.7430165488395</t>
+          <t>-38.11762530089925,174.74301785196988</t>
         </is>
       </c>
       <c r="Q84" t="inlineStr">
@@ -28592,7 +28592,7 @@
       </c>
       <c r="P87" t="inlineStr">
         <is>
-          <t>-38.117570486835675,174.74293627606815</t>
+          <t>-38.11757118733529,174.74293731857094</t>
         </is>
       </c>
       <c r="Q87" t="inlineStr">
@@ -28817,7 +28817,7 @@
       </c>
       <c r="P90" t="inlineStr">
         <is>
-          <t>-38.11766400344468,174.7430754503634</t>
+          <t>-38.11766365319553,174.7430749291107</t>
         </is>
       </c>
       <c r="Q90" t="inlineStr">
@@ -28904,7 +28904,7 @@
       </c>
       <c r="P91" t="inlineStr">
         <is>
-          <t>-38.11740137427137,174.74268459910456</t>
+          <t>-38.11740090727005,174.74268390410592</t>
         </is>
       </c>
       <c r="Q91" t="inlineStr">
@@ -29050,7 +29050,7 @@
       </c>
       <c r="P93" t="inlineStr">
         <is>
-          <t>-38.117512753960376,174.74285035653298</t>
+          <t>-38.11751351283581,174.74285148590923</t>
         </is>
       </c>
       <c r="Q93" t="inlineStr">
@@ -29137,7 +29137,7 @@
       </c>
       <c r="P94" t="inlineStr">
         <is>
-          <t>-38.11763691750352,174.74303514016913</t>
+          <t>-38.11763814337617,174.7430369645523</t>
         </is>
       </c>
       <c r="Q94" t="inlineStr">
@@ -29259,7 +29259,7 @@
       </c>
       <c r="P96" t="inlineStr">
         <is>
-          <t>-38.1176268186467,174.74302011072928</t>
+          <t>-38.11762781101999,174.74302158761046</t>
         </is>
       </c>
       <c r="Q96" t="inlineStr">
@@ -29330,7 +29330,7 @@
       </c>
       <c r="P97" t="inlineStr">
         <is>
-          <t>-38.11749979470114,174.74283107026554</t>
+          <t>-38.11750067032686,174.7428323733915</t>
         </is>
       </c>
       <c r="Q97" t="inlineStr">
@@ -29409,7 +29409,7 @@
       </c>
       <c r="P98" t="inlineStr">
         <is>
-          <t>-38.11762862826859,174.74302280386559</t>
+          <t>-38.11762880339328,174.7430230644917</t>
         </is>
       </c>
       <c r="Q98" t="inlineStr">
@@ -29571,7 +29571,7 @@
       </c>
       <c r="P100" t="inlineStr">
         <is>
-          <t>-38.11741485893246,174.74270466719423</t>
+          <t>-38.11741462543186,174.74270431969478</t>
         </is>
       </c>
       <c r="Q100" t="inlineStr">
@@ -29646,7 +29646,7 @@
       </c>
       <c r="P101" t="inlineStr">
         <is>
-          <t>-38.1176429884916,174.7430441752101</t>
+          <t>-38.11764409761434,174.74304582584276</t>
         </is>
       </c>
       <c r="Q101" t="inlineStr">
@@ -29729,7 +29729,7 @@
       </c>
       <c r="P102" t="inlineStr">
         <is>
-          <t>-38.117603351931066,174.7429851868445</t>
+          <t>-38.11760434430483,174.74298666372476</t>
         </is>
       </c>
       <c r="Q102" t="inlineStr">
@@ -29816,7 +29816,7 @@
       </c>
       <c r="P103" t="inlineStr">
         <is>
-          <t>-38.117422447701166,174.74271596092757</t>
+          <t>-38.11742262282658,174.74271622155223</t>
         </is>
       </c>
       <c r="Q103" t="inlineStr">
@@ -29895,7 +29895,7 @@
       <c r="O104" t="inlineStr"/>
       <c r="P104" t="inlineStr">
         <is>
-          <t>-38.11738392009426,174.74265862353622</t>
+          <t>-38.11738368659351,174.74265827603705</t>
         </is>
       </c>
       <c r="Q104" t="inlineStr">
@@ -29966,7 +29966,7 @@
       </c>
       <c r="P105" t="inlineStr">
         <is>
-          <t>-38.11729186234355,174.7425216221637</t>
+          <t>-38.11729162884237,174.74252127466542</t>
         </is>
       </c>
       <c r="Q105" t="inlineStr">
@@ -30049,7 +30049,7 @@
       </c>
       <c r="P106" t="inlineStr">
         <is>
-          <t>-38.1174696731667,174.74278624275124</t>
+          <t>-38.117470899043454,174.7427880671261</t>
         </is>
       </c>
       <c r="Q106" t="inlineStr">
@@ -30511,7 +30511,7 @@
       </c>
       <c r="P112" t="inlineStr">
         <is>
-          <t>-38.11755583471692,174.74291447038976</t>
+          <t>-38.11755600984186,174.74291473101533</t>
         </is>
       </c>
       <c r="Q112" t="inlineStr">
@@ -30586,7 +30586,7 @@
       </c>
       <c r="P113" t="inlineStr">
         <is>
-          <t>-38.11745449564247,174.7427636552579</t>
+          <t>-38.11745432051716,174.74276339463302</t>
         </is>
       </c>
       <c r="Q113" t="inlineStr">
@@ -30661,7 +30661,7 @@
       </c>
       <c r="P114" t="inlineStr">
         <is>
-          <t>-38.117466287411695,174.74278120400191</t>
+          <t>-38.11746564528572,174.7427802483771</t>
         </is>
       </c>
       <c r="Q114" t="inlineStr">
@@ -30815,7 +30815,7 @@
       </c>
       <c r="P116" t="inlineStr">
         <is>
-          <t>-38.1174309704708,174.74272864466164</t>
+          <t>-38.11743091209568,174.74272855778673</t>
         </is>
       </c>
       <c r="Q116" t="inlineStr">
@@ -30890,7 +30890,7 @@
       </c>
       <c r="P117" t="inlineStr">
         <is>
-          <t>-38.11771432254641,174.74315033705304</t>
+          <t>-38.11771537329277,174.7431519008133</t>
         </is>
       </c>
       <c r="Q117" t="inlineStr">
@@ -30957,7 +30957,7 @@
       </c>
       <c r="P118" t="inlineStr">
         <is>
-          <t>-38.1176364505044,174.74303444516605</t>
+          <t>-38.117637326127735,174.74303574829685</t>
         </is>
       </c>
       <c r="Q118" t="inlineStr">
@@ -31032,7 +31032,7 @@
       </c>
       <c r="P119" t="inlineStr">
         <is>
-          <t>-38.11761782891116,174.74300673192502</t>
+          <t>-38.11761876290973,174.7430081219305</t>
         </is>
       </c>
       <c r="Q119" t="inlineStr">
@@ -31103,7 +31103,7 @@
       </c>
       <c r="P120" t="inlineStr">
         <is>
-          <t>-38.11754958859327,174.74290517474464</t>
+          <t>-38.11754964696826,174.74290526161982</t>
         </is>
       </c>
       <c r="Q120" t="inlineStr">
@@ -31178,7 +31178,7 @@
       <c r="O121" t="inlineStr"/>
       <c r="P121" t="inlineStr">
         <is>
-          <t>-38.11732688750647,174.74257374693215</t>
+          <t>-38.11732671238072,174.7425734863082</t>
         </is>
       </c>
       <c r="Q121" t="inlineStr">
@@ -31245,7 +31245,7 @@
       <c r="O122" t="inlineStr"/>
       <c r="P122" t="inlineStr">
         <is>
-          <t>-38.117482398933475,174.7428051815028</t>
+          <t>-38.117482340558404,174.74280509462778</t>
         </is>
       </c>
       <c r="Q122" t="inlineStr">
@@ -31411,7 +31411,7 @@
       </c>
       <c r="P124" t="inlineStr">
         <is>
-          <t>-38.11761636953837,174.74300456004153</t>
+          <t>-38.11761747866169,174.74300621067297</t>
         </is>
       </c>
       <c r="Q124" t="inlineStr">
@@ -31498,7 +31498,7 @@
       </c>
       <c r="P125" t="inlineStr">
         <is>
-          <t>-38.11759167694405,174.74296781178575</t>
+          <t>-38.117592085568646,174.7429684199127</t>
         </is>
       </c>
       <c r="Q125" t="inlineStr">
@@ -31577,7 +31577,7 @@
       <c r="O126" t="inlineStr"/>
       <c r="P126" t="inlineStr">
         <is>
-          <t>-38.117517715838005,174.74285774091646</t>
+          <t>-38.11751835796332,174.74285869654264</t>
         </is>
       </c>
       <c r="Q126" t="inlineStr">
@@ -31652,7 +31652,7 @@
       </c>
       <c r="P127" t="inlineStr">
         <is>
-          <t>-38.11762471715023,174.7430169832163</t>
+          <t>-38.117625592773756,174.74301828634668</t>
         </is>
       </c>
       <c r="Q127" t="inlineStr">
@@ -31893,7 +31893,7 @@
       </c>
       <c r="P130" t="inlineStr">
         <is>
-          <t>-38.11756663408774,174.74293054230327</t>
+          <t>-38.11756768483719,174.74293210605728</t>
         </is>
       </c>
       <c r="Q130" t="inlineStr">
@@ -32051,7 +32051,7 @@
       </c>
       <c r="P132" t="inlineStr">
         <is>
-          <t>-38.11753639584355,174.7428855409573</t>
+          <t>-38.11753715471864,174.74288667033426</t>
         </is>
       </c>
       <c r="Q132" t="inlineStr">
@@ -32209,7 +32209,7 @@
       </c>
       <c r="P134" t="inlineStr">
         <is>
-          <t>-38.11761181629493,174.74299778376556</t>
+          <t>-38.11761280866854,174.74299926064614</t>
         </is>
       </c>
       <c r="Q134" t="inlineStr">
@@ -32296,7 +32296,7 @@
       </c>
       <c r="P135" t="inlineStr">
         <is>
-          <t>-38.11725677878075,174.74246941057032</t>
+          <t>-38.11725613665208,174.74246845495097</t>
         </is>
       </c>
       <c r="Q135" t="inlineStr">
@@ -32371,7 +32371,7 @@
       </c>
       <c r="P136" t="inlineStr">
         <is>
-          <t>-38.117377673949115,174.7426493279345</t>
+          <t>-38.117378783077754,174.74265097855525</t>
         </is>
       </c>
       <c r="Q136" t="inlineStr">
@@ -32458,7 +32458,7 @@
       </c>
       <c r="P137" t="inlineStr">
         <is>
-          <t>-38.11743925973852,174.74274098089896</t>
+          <t>-38.11743908461315,174.7427407202742</t>
         </is>
       </c>
       <c r="Q137" t="inlineStr">
@@ -32517,7 +32517,7 @@
       </c>
       <c r="P138" t="inlineStr">
         <is>
-          <t>-38.117517365587844,174.74285721966584</t>
+          <t>-38.11751812446321,174.74285834904222</t>
         </is>
       </c>
       <c r="Q138" t="inlineStr">
@@ -32604,7 +32604,7 @@
       </c>
       <c r="P139" t="inlineStr">
         <is>
-          <t>-38.117291045089445,174.7425204059197</t>
+          <t>-38.117290928338875,174.7425202321706</t>
         </is>
       </c>
       <c r="Q139" t="inlineStr">
@@ -32679,7 +32679,7 @@
       </c>
       <c r="P140" t="inlineStr">
         <is>
-          <t>-38.11728695881879,174.7425143247001</t>
+          <t>-38.11728701719407,174.74251441157466</t>
         </is>
       </c>
       <c r="Q140" t="inlineStr">
@@ -32754,7 +32754,7 @@
       </c>
       <c r="P141" t="inlineStr">
         <is>
-          <t>-38.11729501460921,174.74252631339084</t>
+          <t>-38.11729495623393,174.74252622651628</t>
         </is>
       </c>
       <c r="Q141" t="inlineStr">
@@ -32825,7 +32825,7 @@
       </c>
       <c r="P142" t="inlineStr">
         <is>
-          <t>-38.117411239673125,174.74269928095302</t>
+          <t>-38.11741077267191,174.74269858595417</t>
         </is>
       </c>
       <c r="Q142" t="inlineStr">
@@ -32912,7 +32912,7 @@
       </c>
       <c r="P143" t="inlineStr">
         <is>
-          <t>-38.11753528671843,174.7428838903295</t>
+          <t>-38.11753633746855,174.74288545408214</t>
         </is>
       </c>
       <c r="Q143" t="inlineStr">
@@ -32987,7 +32987,7 @@
       </c>
       <c r="P144" t="inlineStr">
         <is>
-          <t>-38.11755577634192,174.74291438351455</t>
+          <t>-38.11755530934205,174.742913688513</t>
         </is>
       </c>
       <c r="Q144" t="inlineStr">
@@ -33074,7 +33074,7 @@
       </c>
       <c r="P145" t="inlineStr">
         <is>
-          <t>-38.11750720833183,174.74284210339968</t>
+          <t>-38.117507558582076,174.7428426246502</t>
         </is>
       </c>
       <c r="Q145" t="inlineStr">
@@ -33149,7 +33149,7 @@
       </c>
       <c r="P146" t="inlineStr">
         <is>
-          <t>-38.11751894171359,174.7428595652937</t>
+          <t>-38.11751876658852,174.7428593046684</t>
         </is>
       </c>
       <c r="Q146" t="inlineStr">
@@ -33236,7 +33236,7 @@
       </c>
       <c r="P147" t="inlineStr">
         <is>
-          <t>-38.11762471715023,174.7430169832163</t>
+          <t>-38.11762442527569,174.7430165488395</t>
         </is>
       </c>
       <c r="Q147" t="inlineStr">
@@ -33311,7 +33311,7 @@
       </c>
       <c r="P148" t="inlineStr">
         <is>
-          <t>-38.11753499484339,174.74288345595374</t>
+          <t>-38.1175359288435,174.7428848459561</t>
         </is>
       </c>
       <c r="Q148" t="inlineStr">
@@ -33374,7 +33374,7 @@
       </c>
       <c r="P149" t="inlineStr">
         <is>
-          <t>-38.117532659843015,174.742879980948</t>
+          <t>-38.11753371059319,174.74288154470057</t>
         </is>
       </c>
       <c r="Q149" t="inlineStr">
@@ -33461,7 +33461,7 @@
       </c>
       <c r="P150" t="inlineStr">
         <is>
-          <t>-38.11729507298452,174.74252640026543</t>
+          <t>-38.11729483948335,174.74252605276712</t>
         </is>
       </c>
       <c r="Q150" t="inlineStr">
@@ -33536,7 +33536,7 @@
       </c>
       <c r="P151" t="inlineStr">
         <is>
-          <t>-38.117513979836076,174.74285218091</t>
+          <t>-38.11751386308601,174.7428520071598</t>
         </is>
       </c>
       <c r="Q151" t="inlineStr">
@@ -33615,7 +33615,7 @@
       </c>
       <c r="P152" t="inlineStr">
         <is>
-          <t>-38.11751479708653,174.74285339716135</t>
+          <t>-38.11751468033646,174.74285322341117</t>
         </is>
       </c>
       <c r="Q152" t="inlineStr">
@@ -33690,7 +33690,7 @@
       </c>
       <c r="P153" t="inlineStr">
         <is>
-          <t>-38.11728555781161,174.74251223971066</t>
+          <t>-38.1172863750658,174.74251345595448</t>
         </is>
       </c>
       <c r="Q153" t="inlineStr">
@@ -33765,7 +33765,7 @@
       </c>
       <c r="P154" t="inlineStr">
         <is>
-          <t>-38.117478312678436,174.74279910025157</t>
+          <t>-38.11747837105351,174.7427991871266</t>
         </is>
       </c>
       <c r="Q154" t="inlineStr">
@@ -33852,7 +33852,7 @@
       </c>
       <c r="P155" t="inlineStr">
         <is>
-          <t>-38.11748846994032,174.74281421650585</t>
+          <t>-38.117489053690946,174.74281508525624</t>
         </is>
       </c>
       <c r="Q155" t="inlineStr">
@@ -34002,7 +34002,7 @@
       </c>
       <c r="P157" t="inlineStr">
         <is>
-          <t>-38.117449708883875,174.74275653151193</t>
+          <t>-38.117449241883016,174.7427558365124</t>
         </is>
       </c>
       <c r="Q157" t="inlineStr">
@@ -34089,7 +34089,7 @@
       </c>
       <c r="P158" t="inlineStr">
         <is>
-          <t>-38.117615026915345,174.74300256190878</t>
+          <t>-38.117615960913966,174.74300395191415</t>
         </is>
       </c>
       <c r="Q158" t="inlineStr">
@@ -34247,7 +34247,7 @@
       </c>
       <c r="P160" t="inlineStr">
         <is>
-          <t>-38.117625009024735,174.74301741759308</t>
+          <t>-38.11762600139806,174.7430188944742</t>
         </is>
       </c>
       <c r="Q160" t="inlineStr">
@@ -34334,7 +34334,7 @@
       </c>
       <c r="P161" t="inlineStr">
         <is>
-          <t>-38.11750785045727,174.7428430590256</t>
+          <t>-38.11750761695711,174.74284271152527</t>
         </is>
       </c>
       <c r="Q161" t="inlineStr">
@@ -34409,7 +34409,7 @@
       </c>
       <c r="P162" t="inlineStr">
         <is>
-          <t>-38.1173718364296,174.74264064045767</t>
+          <t>-38.117372712057566,174.7426419435791</t>
         </is>
       </c>
       <c r="Q162" t="inlineStr">
@@ -34567,7 +34567,7 @@
       </c>
       <c r="P164" t="inlineStr">
         <is>
-          <t>-38.11760790517526,174.74299196311893</t>
+          <t>-38.117608839174004,174.74299335312404</t>
         </is>
       </c>
       <c r="Q164" t="inlineStr">
@@ -34642,7 +34642,7 @@
       </c>
       <c r="P165" t="inlineStr">
         <is>
-          <t>-38.117521860464855,174.7428639090493</t>
+          <t>-38.11752151021471,174.74286338779862</t>
         </is>
       </c>
       <c r="Q165" t="inlineStr">
@@ -34729,7 +34729,7 @@
       </c>
       <c r="P166" t="inlineStr">
         <is>
-          <t>-38.117503238828924,174.7428361958945</t>
+          <t>-38.11750335557902,174.74283636964466</t>
         </is>
       </c>
       <c r="Q166" t="inlineStr">
@@ -34808,7 +34808,7 @@
       </c>
       <c r="P167" t="inlineStr">
         <is>
-          <t>-38.11763539975637,174.74303288140914</t>
+          <t>-38.117636217004836,174.7430340976645</t>
         </is>
       </c>
       <c r="Q167" t="inlineStr">
@@ -34887,7 +34887,7 @@
       <c r="O168" t="inlineStr"/>
       <c r="P168" t="inlineStr">
         <is>
-          <t>-38.11748817806502,174.7428137821307</t>
+          <t>-38.117489112066,174.74281517213126</t>
         </is>
       </c>
       <c r="Q168" t="inlineStr">
@@ -34974,7 +34974,7 @@
       </c>
       <c r="P169" t="inlineStr">
         <is>
-          <t>-38.11739933114058,174.74268155848557</t>
+          <t>-38.11739880576409,174.74268077661213</t>
         </is>
       </c>
       <c r="Q169" t="inlineStr">
@@ -35262,7 +35262,7 @@
       <c r="O173" t="inlineStr"/>
       <c r="P173" t="inlineStr">
         <is>
-          <t>-38.11757714158142,174.7429461798453</t>
+          <t>-38.117577666956045,174.7429469617225</t>
         </is>
       </c>
       <c r="Q173" t="inlineStr">
@@ -35349,7 +35349,7 @@
       </c>
       <c r="P174" t="inlineStr">
         <is>
-          <t>-38.11727557563442,174.74249738416327</t>
+          <t>-38.11727551725912,174.74249729728874</t>
         </is>
       </c>
       <c r="Q174" t="inlineStr">
@@ -35515,7 +35515,7 @@
       </c>
       <c r="P176" t="inlineStr">
         <is>
-          <t>-38.117256195027416,174.74246854182547</t>
+          <t>-38.11725718740807,174.7424700186918</t>
         </is>
       </c>
       <c r="Q176" t="inlineStr">
@@ -35685,7 +35685,7 @@
       </c>
       <c r="P178" t="inlineStr">
         <is>
-          <t>-38.117292270970594,174.74252223028574</t>
+          <t>-38.117292329345894,174.7425223171603</t>
         </is>
       </c>
       <c r="Q178" t="inlineStr">
@@ -35843,7 +35843,7 @@
       </c>
       <c r="P180" t="inlineStr">
         <is>
-          <t>-38.1171875455879,174.74236637752202</t>
+          <t>-38.117188246092866,174.74236742001398</t>
         </is>
       </c>
       <c r="Q180" t="inlineStr">
@@ -35886,7 +35886,7 @@
       </c>
       <c r="P181" t="inlineStr">
         <is>
-          <t>-38.11719285775028,174.74237428308632</t>
+          <t>-38.1171938501322,174.7423757599501</t>
         </is>
       </c>
       <c r="Q181" t="inlineStr">
@@ -35961,7 +35961,7 @@
       </c>
       <c r="P182" t="inlineStr">
         <is>
-          <t>-38.1174073869129,174.74269354721292</t>
+          <t>-38.11740668641102,174.74269250471477</t>
         </is>
       </c>
       <c r="Q182" t="inlineStr">
@@ -36036,7 +36036,7 @@
       </c>
       <c r="P183" t="inlineStr">
         <is>
-          <t>-38.117410305670674,174.74269789095536</t>
+          <t>-38.11741001379492,174.74269745658108</t>
         </is>
       </c>
       <c r="Q183" t="inlineStr">
@@ -36123,7 +36123,7 @@
       </c>
       <c r="P184" t="inlineStr">
         <is>
-          <t>-38.11753884759377,174.7428891897137</t>
+          <t>-38.1175395480938,174.7428902322156</t>
         </is>
       </c>
       <c r="Q184" t="inlineStr">
@@ -36210,7 +36210,7 @@
       </c>
       <c r="P185" t="inlineStr">
         <is>
-          <t>-38.11746243465573,174.74277547025326</t>
+          <t>-38.1174625514059,174.7427756440032</t>
         </is>
       </c>
       <c r="Q185" t="inlineStr">
@@ -36297,7 +36297,7 @@
       </c>
       <c r="P186" t="inlineStr">
         <is>
-          <t>-38.11729192071884,174.7425217090383</t>
+          <t>-38.1172915120918,174.7425211009163</t>
         </is>
       </c>
       <c r="Q186" t="inlineStr">
@@ -36360,7 +36360,7 @@
       </c>
       <c r="P187" t="inlineStr">
         <is>
-          <t>-38.11760592042784,174.74298900935815</t>
+          <t>-38.11760632905232,174.74298961748536</t>
         </is>
       </c>
       <c r="Q187" t="inlineStr">
@@ -36447,7 +36447,7 @@
       </c>
       <c r="P188" t="inlineStr">
         <is>
-          <t>-38.11758700694849,174.74296086176378</t>
+          <t>-38.117587765822805,174.7429619911423</t>
         </is>
       </c>
       <c r="Q188" t="inlineStr">
@@ -36534,7 +36534,7 @@
       </c>
       <c r="P189" t="inlineStr">
         <is>
-          <t>-38.11754643634365,174.74290048348507</t>
+          <t>-38.11754737034355,174.74290187348785</t>
         </is>
       </c>
       <c r="Q189" t="inlineStr">
@@ -36609,7 +36609,7 @@
       </c>
       <c r="P190" t="inlineStr">
         <is>
-          <t>-38.11751602296217,174.74285522153846</t>
+          <t>-38.11751648996242,174.7428559165393</t>
         </is>
       </c>
       <c r="Q190" t="inlineStr">
@@ -36680,7 +36680,7 @@
       </c>
       <c r="P191" t="inlineStr">
         <is>
-          <t>-38.11724440320862,174.74245099318154</t>
+          <t>-38.11724539558952,174.7424524700474</t>
         </is>
       </c>
       <c r="Q191" t="inlineStr">
@@ -36767,7 +36767,7 @@
       </c>
       <c r="P192" t="inlineStr">
         <is>
-          <t>-38.11742390707963,174.74271813279964</t>
+          <t>-38.117423381703375,174.7427173509257</t>
         </is>
       </c>
       <c r="Q192" t="inlineStr">
@@ -36854,7 +36854,7 @@
       </c>
       <c r="P193" t="inlineStr">
         <is>
-          <t>-38.117428577090436,174.74272508279083</t>
+          <t>-38.11742781821372,174.7427239534172</t>
         </is>
       </c>
       <c r="Q193" t="inlineStr">
@@ -36941,7 +36941,7 @@
       </c>
       <c r="P194" t="inlineStr">
         <is>
-          <t>-38.117415792934814,174.74270605719207</t>
+          <t>-38.11741538430879,174.742705449068</t>
         </is>
       </c>
       <c r="Q194" t="inlineStr">
@@ -37028,7 +37028,7 @@
       </c>
       <c r="P195" t="inlineStr">
         <is>
-          <t>-38.117494015570934,174.74282246963497</t>
+          <t>-38.11749378207072,174.74282212213475</t>
         </is>
       </c>
       <c r="Q195" t="inlineStr">
@@ -37146,7 +37146,7 @@
       <c r="O197" t="inlineStr"/>
       <c r="P197" t="inlineStr">
         <is>
-          <t>-38.117507441832,174.7428424509</t>
+          <t>-38.11750732508192,174.74284227714986</t>
         </is>
       </c>
       <c r="Q197" t="inlineStr">
@@ -37355,7 +37355,7 @@
       </c>
       <c r="P200" t="inlineStr">
         <is>
-          <t>-38.11750183782782,174.74283411089286</t>
+          <t>-38.11750166270268,174.74283385026766</t>
         </is>
       </c>
       <c r="Q200" t="inlineStr">
@@ -37442,7 +37442,7 @@
       </c>
       <c r="P201" t="inlineStr">
         <is>
-          <t>-38.1175014292025,174.74283350276738</t>
+          <t>-38.11750154595259,174.7428336765175</t>
         </is>
       </c>
       <c r="Q201" t="inlineStr">
@@ -37517,7 +37517,7 @@
       <c r="O202" t="inlineStr"/>
       <c r="P202" t="inlineStr">
         <is>
-          <t>-38.11747381779752,174.74279241087604</t>
+          <t>-38.11747440154831,174.74279327962606</t>
         </is>
       </c>
       <c r="Q202" t="inlineStr">
@@ -37604,7 +37604,7 @@
       </c>
       <c r="P203" t="inlineStr">
         <is>
-          <t>-38.11727586751098,174.74249781853595</t>
+          <t>-38.1172759842616,174.74249799228502</t>
         </is>
       </c>
       <c r="Q203" t="inlineStr">
@@ -37730,7 +37730,7 @@
       </c>
       <c r="P205" t="inlineStr">
         <is>
-          <t>-38.117292212595295,174.74252214341115</t>
+          <t>-38.117291570467096,174.74252118779086</t>
         </is>
       </c>
       <c r="Q205" t="inlineStr">
@@ -37840,7 +37840,7 @@
       </c>
       <c r="P207" t="inlineStr">
         <is>
-          <t>-38.1175153224618,174.74285417903724</t>
+          <t>-38.11751491383658,174.74285357091156</t>
         </is>
       </c>
       <c r="Q207" t="inlineStr">
@@ -37974,7 +37974,7 @@
       </c>
       <c r="P209" t="inlineStr">
         <is>
-          <t>-38.1175801770792,174.74295069735825</t>
+          <t>-38.117580994328556,174.7429519136118</t>
         </is>
       </c>
       <c r="Q209" t="inlineStr">
@@ -38037,7 +38037,7 @@
       </c>
       <c r="P210" t="inlineStr">
         <is>
-          <t>-38.11746506153482,174.74277937962728</t>
+          <t>-38.11746441940883,174.74277842400247</t>
         </is>
       </c>
       <c r="Q210" t="inlineStr">
@@ -38163,7 +38163,7 @@
       </c>
       <c r="P212" t="inlineStr">
         <is>
-          <t>-38.11725461889338,174.7424661962143</t>
+          <t>-38.11725520264673,174.74246706495916</t>
         </is>
       </c>
       <c r="Q212" t="inlineStr">
@@ -38250,7 +38250,7 @@
       </c>
       <c r="P213" t="inlineStr">
         <is>
-          <t>-38.11731439520118,174.74255515575905</t>
+          <t>-38.11731369469799,174.74255411326357</t>
         </is>
       </c>
       <c r="Q213" t="inlineStr">
@@ -38301,7 +38301,7 @@
       </c>
       <c r="P214" t="inlineStr">
         <is>
-          <t>-38.11754147446886,174.74289309909585</t>
+          <t>-38.11754199984386,174.7428938809723</t>
         </is>
       </c>
       <c r="Q214" t="inlineStr">
@@ -38388,7 +38388,7 @@
       </c>
       <c r="P215" t="inlineStr">
         <is>
-          <t>-38.117581052703514,174.74295200048704</t>
+          <t>-38.11758192832782,174.7429533036159</t>
         </is>
       </c>
       <c r="Q215" t="inlineStr">
@@ -38561,7 +38561,7 @@
       </c>
       <c r="P218" t="inlineStr">
         <is>
-          <t>-38.117510360583914,174.74284679465427</t>
+          <t>-38.117511119459394,174.74284792403043</t>
         </is>
       </c>
       <c r="Q218" t="inlineStr">
@@ -38636,7 +38636,7 @@
       </c>
       <c r="P219" t="inlineStr">
         <is>
-          <t>-38.11728672531759,174.74251397720184</t>
+          <t>-38.11728678369289,174.7425140640764</t>
         </is>
       </c>
       <c r="Q219" t="inlineStr">
@@ -38695,7 +38695,7 @@
       </c>
       <c r="P220" t="inlineStr">
         <is>
-          <t>-38.11747124929395,174.74278858837607</t>
+          <t>-38.11747165791954,174.74278919650104</t>
         </is>
       </c>
       <c r="Q220" t="inlineStr">
@@ -38782,7 +38782,7 @@
       </c>
       <c r="P221" t="inlineStr">
         <is>
-          <t>-38.11740452653013,174.74268929034565</t>
+          <t>-38.11740464328045,174.74268946409535</t>
         </is>
       </c>
       <c r="Q221" t="inlineStr">
@@ -38920,7 +38920,7 @@
       <c r="O223" t="inlineStr"/>
       <c r="P223" t="inlineStr">
         <is>
-          <t>-38.11738070945901,174.74265384542298</t>
+          <t>-38.117381935337946,174.74265566979346</t>
         </is>
       </c>
       <c r="Q223" t="inlineStr">
@@ -38995,7 +38995,7 @@
       </c>
       <c r="P224" t="inlineStr">
         <is>
-          <t>-38.11738701397894,174.7426632279003</t>
+          <t>-38.117388064732175,174.74266479164663</t>
         </is>
       </c>
       <c r="Q224" t="inlineStr">
@@ -39082,7 +39082,7 @@
       </c>
       <c r="P225" t="inlineStr">
         <is>
-          <t>-38.11740627778492,174.74269189659088</t>
+          <t>-38.117405927533966,174.74269137534182</t>
         </is>
       </c>
       <c r="Q225" t="inlineStr">
@@ -39196,7 +39196,7 @@
       </c>
       <c r="P227" t="inlineStr">
         <is>
-          <t>-38.11743202122314,174.74273020840988</t>
+          <t>-38.11743178772261,174.7427298609103</t>
         </is>
       </c>
       <c r="Q227" t="inlineStr">
@@ -39282,7 +39282,7 @@
       <c r="O229" t="inlineStr"/>
       <c r="P229" t="inlineStr">
         <is>
-          <t>-38.117783846883185,174.7432538059538</t>
+          <t>-38.117783263136,174.74325293719647</t>
         </is>
       </c>
       <c r="Q229" t="inlineStr">
@@ -39341,7 +39341,7 @@
       </c>
       <c r="P230" t="inlineStr">
         <is>
-          <t>-38.117599090561114,174.74297884494743</t>
+          <t>-38.11759973268538,174.7429798005757</t>
         </is>
       </c>
       <c r="Q230" t="inlineStr">
@@ -39428,7 +39428,7 @@
       </c>
       <c r="P231" t="inlineStr">
         <is>
-          <t>-38.11758344607659,174.74295556237263</t>
+          <t>-38.11758420495095,174.74295669175103</t>
         </is>
       </c>
       <c r="Q231" t="inlineStr">
@@ -39483,7 +39483,7 @@
       </c>
       <c r="P232" t="inlineStr">
         <is>
-          <t>-38.1173861967264,174.74266201165312</t>
+          <t>-38.11738718910448,174.74266348852467</t>
         </is>
       </c>
       <c r="Q232" t="inlineStr">
@@ -39570,7 +39570,7 @@
       </c>
       <c r="P233" t="inlineStr">
         <is>
-          <t>-38.11724516208814,174.74245212254957</t>
+          <t>-38.11724615446902,174.74245359941546</t>
         </is>
       </c>
       <c r="Q233" t="inlineStr">
@@ -39641,7 +39641,7 @@
       </c>
       <c r="P234" t="inlineStr">
         <is>
-          <t>-38.11742460758128,174.74271917529828</t>
+          <t>-38.117424082205034,174.7427183934243</t>
         </is>
       </c>
       <c r="Q234" t="inlineStr">
@@ -39704,7 +39704,7 @@
       <c r="O235" t="inlineStr"/>
       <c r="P235" t="inlineStr">
         <is>
-          <t>-38.11736664103666,174.74263290860443</t>
+          <t>-38.11736693291269,174.7426333429782</t>
         </is>
       </c>
       <c r="Q235" t="inlineStr">
@@ -39779,7 +39779,7 @@
       <c r="O236" t="inlineStr"/>
       <c r="P236" t="inlineStr">
         <is>
-          <t>-38.1173861967264,174.74266201165312</t>
+          <t>-38.11738736423002,174.74266374914907</t>
         </is>
       </c>
       <c r="Q236" t="inlineStr">
@@ -39968,7 +39968,7 @@
       </c>
       <c r="P239" t="inlineStr">
         <is>
-          <t>-38.11723646416075,174.74243917825618</t>
+          <t>-38.11723757329251,174.7424408288706</t>
         </is>
       </c>
       <c r="Q239" t="inlineStr">
@@ -40043,7 +40043,7 @@
       </c>
       <c r="P240" t="inlineStr">
         <is>
-          <t>-38.11719174861752,174.74237263247392</t>
+          <t>-38.117191398365065,174.7423721112279</t>
         </is>
       </c>
       <c r="Q240" t="inlineStr">
@@ -40130,7 +40130,7 @@
       </c>
       <c r="P241" t="inlineStr">
         <is>
-          <t>-38.117257887912054,174.74247106118568</t>
+          <t>-38.11725806303806,174.74247132180915</t>
         </is>
       </c>
       <c r="Q241" t="inlineStr">
@@ -40268,7 +40268,7 @@
       </c>
       <c r="P243" t="inlineStr">
         <is>
-          <t>-38.117429569467674,174.74272655966405</t>
+          <t>-38.11742892734123,174.7427256040402</t>
         </is>
       </c>
       <c r="Q243" t="inlineStr">
@@ -40355,7 +40355,7 @@
       </c>
       <c r="P244" t="inlineStr">
         <is>
-          <t>-38.11723944130386,174.74244360885288</t>
+          <t>-38.11723885755031,174.7424427401084</t>
         </is>
       </c>
       <c r="Q244" t="inlineStr">
@@ -40563,7 +40563,7 @@
       </c>
       <c r="P248" t="inlineStr">
         <is>
-          <t>-38.11731608808387,174.74255767512327</t>
+          <t>-38.11731527083016,174.74255645887848</t>
         </is>
       </c>
       <c r="Q248" t="inlineStr">
@@ -40803,7 +40803,7 @@
       </c>
       <c r="P252" t="inlineStr">
         <is>
-          <t>-38.117396295631835,174.74267704099478</t>
+          <t>-38.11739711288422,174.74267825724226</t>
         </is>
       </c>
       <c r="Q252" t="inlineStr">
@@ -40890,7 +40890,7 @@
       </c>
       <c r="P253" t="inlineStr">
         <is>
-          <t>-38.11737306230876,174.74264246482767</t>
+          <t>-38.11737341255995,174.74264298607625</t>
         </is>
       </c>
       <c r="Q253" t="inlineStr">
@@ -41032,7 +41032,7 @@
       </c>
       <c r="P255" t="inlineStr">
         <is>
-          <t>-38.1172469133485,174.7424547287835</t>
+          <t>-38.11724632959505,174.74245386003884</t>
         </is>
       </c>
       <c r="Q255" t="inlineStr">
@@ -41146,7 +41146,7 @@
       <c r="O257" t="inlineStr"/>
       <c r="P257" t="inlineStr">
         <is>
-          <t>-38.11727872790112,174.74250207538833</t>
+          <t>-38.117279603530726,174.74250337850646</t>
         </is>
       </c>
       <c r="Q257" t="inlineStr">
@@ -41296,7 +41296,7 @@
       </c>
       <c r="P259" t="inlineStr">
         <is>
-          <t>-38.117276859891255,174.74249929540306</t>
+          <t>-38.11727668476533,174.74249903477946</t>
         </is>
       </c>
       <c r="Q259" t="inlineStr">
@@ -41383,7 +41383,7 @@
       </c>
       <c r="P260" t="inlineStr">
         <is>
-          <t>-38.11726915434981,174.74248782796533</t>
+          <t>-38.117269854853625,174.74248887045957</t>
         </is>
       </c>
       <c r="Q260" t="inlineStr">
@@ -41470,7 +41470,7 @@
       </c>
       <c r="P261" t="inlineStr">
         <is>
-          <t>-38.117265593455244,174.74248252861992</t>
+          <t>-38.1172654767046,174.74248235487087</t>
         </is>
       </c>
       <c r="Q261" t="inlineStr">
@@ -41698,7 +41698,7 @@
       </c>
       <c r="P265" t="inlineStr">
         <is>
-          <t>-38.11739757988556,174.74267895224085</t>
+          <t>-38.117398338762754,174.74268008161354</t>
         </is>
       </c>
       <c r="Q265" t="inlineStr">
@@ -41824,7 +41824,7 @@
       </c>
       <c r="P267" t="inlineStr">
         <is>
-          <t>-38.117572354834564,174.74293905607558</t>
+          <t>-38.11757323045904,174.74294035920414</t>
         </is>
       </c>
       <c r="Q267" t="inlineStr">
@@ -41879,7 +41879,7 @@
       </c>
       <c r="P268" t="inlineStr">
         <is>
-          <t>-38.117510477334,174.74284696840442</t>
+          <t>-38.11751088595926,174.74284757653007</t>
         </is>
       </c>
       <c r="Q268" t="inlineStr">
@@ -41950,7 +41950,7 @@
       </c>
       <c r="P269" t="inlineStr">
         <is>
-          <t>-38.11755723571651,174.7429165553945</t>
+          <t>-38.11755700221658,174.7429162078937</t>
         </is>
       </c>
       <c r="Q269" t="inlineStr">
@@ -42123,7 +42123,7 @@
       </c>
       <c r="P272" t="inlineStr">
         <is>
-          <t>-38.11744200336907,174.74274506402037</t>
+          <t>-38.11744182824373,174.7427448033956</t>
         </is>
       </c>
       <c r="Q272" t="inlineStr">
@@ -42257,7 +42257,7 @@
       </c>
       <c r="P274" t="inlineStr">
         <is>
-          <t>-38.117244986962106,174.74245186192616</t>
+          <t>-38.11724597934298,174.74245333879205</t>
         </is>
       </c>
       <c r="Q274" t="inlineStr">
@@ -42387,7 +42387,7 @@
       </c>
       <c r="P276" t="inlineStr">
         <is>
-          <t>-38.117386546977485,174.74266253290193</t>
+          <t>-38.11738607997602,174.74266183790354</t>
         </is>
       </c>
       <c r="Q276" t="inlineStr">
@@ -42592,7 +42592,7 @@
       </c>
       <c r="P279" t="inlineStr">
         <is>
-          <t>-38.117365298406924,174.74263091048525</t>
+          <t>-38.11736500653091,174.74263047611151</t>
         </is>
       </c>
       <c r="Q279" t="inlineStr">
@@ -42722,7 +42722,7 @@
       </c>
       <c r="P281" t="inlineStr">
         <is>
-          <t>-38.1172479641047,174.7424562925239</t>
+          <t>-38.11724901486087,174.7424578562644</t>
         </is>
       </c>
       <c r="Q281" t="inlineStr">
@@ -42906,7 +42906,7 @@
       </c>
       <c r="P285" t="inlineStr">
         <is>
-          <t>-38.11721702516319,174.74241024907457</t>
+          <t>-38.11721673328629,174.7424098147026</t>
         </is>
       </c>
       <c r="Q285" t="inlineStr">
@@ -43036,7 +43036,7 @@
       </c>
       <c r="P287" t="inlineStr">
         <is>
-          <t>-38.117310133806605,174.74254881391175</t>
+          <t>-38.117309725179716,174.74254820578943</t>
         </is>
       </c>
       <c r="Q287" t="inlineStr">
@@ -43123,7 +43123,7 @@
       </c>
       <c r="P288" t="inlineStr">
         <is>
-          <t>-38.11752600509134,174.74287007718286</t>
+          <t>-38.11752612184138,174.7428702509331</t>
         </is>
       </c>
       <c r="Q288" t="inlineStr">
@@ -43285,7 +43285,7 @@
       </c>
       <c r="P290" t="inlineStr">
         <is>
-          <t>-38.11755828646617,174.7429181191481</t>
+          <t>-38.11755904534092,174.74291924852574</t>
         </is>
       </c>
       <c r="Q290" t="inlineStr">
@@ -43407,7 +43407,7 @@
       </c>
       <c r="P292" t="inlineStr">
         <is>
-          <t>-38.11747270867099,174.742790760251</t>
+          <t>-38.11747230004543,174.74279015212602</t>
         </is>
       </c>
       <c r="Q292" t="inlineStr">
@@ -43557,7 +43557,7 @@
       </c>
       <c r="P294" t="inlineStr">
         <is>
-          <t>-38.11745969102628,174.74277138712958</t>
+          <t>-38.11746085852819,174.74277312462897</t>
         </is>
       </c>
       <c r="Q294" t="inlineStr">
@@ -43644,7 +43644,7 @@
       </c>
       <c r="P295" t="inlineStr">
         <is>
-          <t>-38.11739711288422,174.74267825724226</t>
+          <t>-38.117396821008356,174.74267782286816</t>
         </is>
       </c>
       <c r="Q295" t="inlineStr">
@@ -43731,7 +43731,7 @@
       </c>
       <c r="P296" t="inlineStr">
         <is>
-          <t>-38.11756307321438,174.74292524291505</t>
+          <t>-38.11756371533909,174.7429261985424</t>
         </is>
       </c>
       <c r="Q296" t="inlineStr">
@@ -43818,7 +43818,7 @@
       </c>
       <c r="P297" t="inlineStr">
         <is>
-          <t>-38.117436866358545,174.74273741902735</t>
+          <t>-38.117437099859025,174.742737766527</t>
         </is>
       </c>
       <c r="Q297" t="inlineStr">
@@ -43952,7 +43952,7 @@
       <c r="O299" t="inlineStr"/>
       <c r="P299" t="inlineStr">
         <is>
-          <t>-38.117184685192534,174.74236212068018</t>
+          <t>-38.117185677574625,174.74236359754363</t>
         </is>
       </c>
       <c r="Q299" t="inlineStr">
@@ -44039,7 +44039,7 @@
       </c>
       <c r="P300" t="inlineStr">
         <is>
-          <t>-38.11729840037582,174.74253135211674</t>
+          <t>-38.117297991748835,174.74253074399462</t>
         </is>
       </c>
       <c r="Q300" t="inlineStr">
@@ -44126,7 +44126,7 @@
       </c>
       <c r="P301" t="inlineStr">
         <is>
-          <t>-38.11743692473365,174.74273750590226</t>
+          <t>-38.1174365161078,174.74273689777786</t>
         </is>
       </c>
       <c r="Q301" t="inlineStr">
@@ -44296,7 +44296,7 @@
       </c>
       <c r="P303" t="inlineStr">
         <is>
-          <t>-38.117562080839775,174.74292376603648</t>
+          <t>-38.11756313158934,174.74292532979027</t>
         </is>
       </c>
       <c r="Q303" t="inlineStr">
@@ -44383,7 +44383,7 @@
       </c>
       <c r="P304" t="inlineStr">
         <is>
-          <t>-38.117599440810714,174.74297936619922</t>
+          <t>-38.11759897381126,174.74297867119682</t>
         </is>
       </c>
       <c r="Q304" t="inlineStr">
@@ -44470,7 +44470,7 @@
       </c>
       <c r="P305" t="inlineStr">
         <is>
-          <t>-38.117434005977444,174.74273316215667</t>
+          <t>-38.11743371410182,174.74273272778214</t>
         </is>
       </c>
       <c r="Q305" t="inlineStr">
@@ -44636,7 +44636,7 @@
       </c>
       <c r="P307" t="inlineStr">
         <is>
-          <t>-38.11726506807733,174.74248174674932</t>
+          <t>-38.11726436757346,174.74248070425523</t>
         </is>
       </c>
       <c r="Q307" t="inlineStr">
@@ -44723,7 +44723,7 @@
       </c>
       <c r="P308" t="inlineStr">
         <is>
-          <t>-38.11724516208814,174.74245212254957</t>
+          <t>-38.11724621284436,174.7424536862899</t>
         </is>
       </c>
       <c r="Q308" t="inlineStr">
@@ -44810,7 +44810,7 @@
       </c>
       <c r="P309" t="inlineStr">
         <is>
-          <t>-38.11730511353307,174.7425413426953</t>
+          <t>-38.1173048216567,174.74254090832227</t>
         </is>
       </c>
       <c r="Q309" t="inlineStr">
@@ -44897,7 +44897,7 @@
       </c>
       <c r="P310" t="inlineStr">
         <is>
-          <t>-38.117378666327376,174.7426508048057</t>
+          <t>-38.11737854957699,174.74265063105614</t>
         </is>
       </c>
       <c r="Q310" t="inlineStr">
@@ -44984,7 +44984,7 @@
       </c>
       <c r="P311" t="inlineStr">
         <is>
-          <t>-38.117219476929066,174.74241389779934</t>
+          <t>-38.11722046931045,174.74241537466418</t>
         </is>
       </c>
       <c r="Q311" t="inlineStr">
@@ -45071,7 +45071,7 @@
       </c>
       <c r="P312" t="inlineStr">
         <is>
-          <t>-38.11749465769655,174.7428234252605</t>
+          <t>-38.11749594194775,174.74282533651166</t>
         </is>
       </c>
       <c r="Q312" t="inlineStr">
@@ -45158,7 +45158,7 @@
       </c>
       <c r="P313" t="inlineStr">
         <is>
-          <t>-38.11744352112208,174.74274732276854</t>
+          <t>-38.11744317087139,174.74274680151896</t>
         </is>
       </c>
       <c r="Q313" t="inlineStr">
@@ -45245,7 +45245,7 @@
       </c>
       <c r="P314" t="inlineStr">
         <is>
-          <t>-38.117566750837675,174.74293071605373</t>
+          <t>-38.11756704271253,174.74293115042983</t>
         </is>
       </c>
       <c r="Q314" t="inlineStr">
@@ -45332,7 +45332,7 @@
       </c>
       <c r="P315" t="inlineStr">
         <is>
-          <t>-38.11751812446321,174.74285834904222</t>
+          <t>-38.11751824121327,174.74285852279243</t>
         </is>
       </c>
       <c r="Q315" t="inlineStr">
@@ -45419,7 +45419,7 @@
       </c>
       <c r="P316" t="inlineStr">
         <is>
-          <t>-38.11728894357886,174.74251727843526</t>
+          <t>-38.11728906032945,174.7425174521844</t>
         </is>
       </c>
       <c r="Q316" t="inlineStr">
@@ -45537,7 +45537,7 @@
       </c>
       <c r="P318" t="inlineStr">
         <is>
-          <t>-38.11723792354464,174.74244135011725</t>
+          <t>-38.11723897430103,174.74244291385727</t>
         </is>
       </c>
       <c r="Q318" t="inlineStr">
@@ -45624,7 +45624,7 @@
       </c>
       <c r="P319" t="inlineStr">
         <is>
-          <t>-38.11730172776692,174.74253630396848</t>
+          <t>-38.11730120238939,174.74253552209714</t>
         </is>
       </c>
       <c r="Q319" t="inlineStr">
@@ -45711,7 +45711,7 @@
       </c>
       <c r="P320" t="inlineStr">
         <is>
-          <t>-38.11723202763345,174.74243257579897</t>
+          <t>-38.11723307838994,174.74243413953874</t>
         </is>
       </c>
       <c r="Q320" t="inlineStr">
@@ -45798,7 +45798,7 @@
       </c>
       <c r="P321" t="inlineStr">
         <is>
-          <t>-38.1173118850647,174.74255142015028</t>
+          <t>-38.117311418062535,174.7425507251533</t>
         </is>
       </c>
       <c r="Q321" t="inlineStr">
@@ -45885,7 +45885,7 @@
       </c>
       <c r="P322" t="inlineStr">
         <is>
-          <t>-38.11749109681806,174.74281812588265</t>
+          <t>-38.11749168056865,174.74281899463307</t>
         </is>
       </c>
       <c r="Q322" t="inlineStr">
@@ -46055,7 +46055,7 @@
       </c>
       <c r="P324" t="inlineStr">
         <is>
-          <t>-38.117555893091904,174.74291455726495</t>
+          <t>-38.11755641846675,174.74291533914172</t>
         </is>
       </c>
       <c r="Q324" t="inlineStr">
@@ -46142,7 +46142,7 @@
       </c>
       <c r="P325" t="inlineStr">
         <is>
-          <t>-38.11754573584371,174.742899440983</t>
+          <t>-38.1175470200936,174.7429013522368</t>
         </is>
       </c>
       <c r="Q325" t="inlineStr">
